--- a/documentation/WAS Tracking Table.xlsx
+++ b/documentation/WAS Tracking Table.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$K$242</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1386</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10482" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10503" uniqueCount="1224">
   <si>
     <t>Start Year</t>
   </si>
@@ -3694,6 +3694,15 @@
   </si>
   <si>
     <t>Somon Air</t>
+  </si>
+  <si>
+    <t>Air Peace</t>
+  </si>
+  <si>
+    <t>EuroAtlantic Airways</t>
+  </si>
+  <si>
+    <t>EgyptAir (Old)</t>
   </si>
 </sst>
 </file>
@@ -4064,7 +4073,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>598</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>65</c:v>
@@ -4107,11 +4116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="478865032"/>
-        <c:axId val="478863464"/>
+        <c:axId val="458289048"/>
+        <c:axId val="458289440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478865032"/>
+        <c:axId val="458289048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4163,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478863464"/>
+        <c:crossAx val="458289440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4162,7 +4171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478863464"/>
+        <c:axId val="458289440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4222,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478865032"/>
+        <c:crossAx val="458289048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4524,10 +4533,10 @@
                   <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>694</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>47</c:v>
@@ -5881,8 +5890,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1449" totalsRowShown="0">
-  <autoFilter ref="A1:I1449"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1452" totalsRowShown="0">
+  <autoFilter ref="A1:I1452"/>
   <sortState ref="A2:I1248">
     <sortCondition ref="E1:E1248"/>
   </sortState>
@@ -6181,11 +6190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1451"/>
+  <dimension ref="A1:I1454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F770" sqref="F770"/>
+      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F983" sqref="F983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31940,13 +31949,13 @@
         <v>511</v>
       </c>
       <c r="F983" t="s">
-        <v>110</v>
+        <v>1221</v>
       </c>
       <c r="G983" t="s">
-        <v>136</v>
+        <v>936</v>
       </c>
       <c r="H983" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
@@ -31966,13 +31975,13 @@
         <v>511</v>
       </c>
       <c r="F984" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G984" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H984" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
@@ -31992,13 +32001,13 @@
         <v>511</v>
       </c>
       <c r="F985" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="G985" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H985" t="s">
-        <v>513</v>
+        <v>141</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
@@ -32018,13 +32027,13 @@
         <v>511</v>
       </c>
       <c r="F986" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="G986" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="H986" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
@@ -32044,10 +32053,10 @@
         <v>511</v>
       </c>
       <c r="F987" t="s">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="G987" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H987" t="s">
         <v>17</v>
@@ -32070,13 +32079,13 @@
         <v>511</v>
       </c>
       <c r="F988" t="s">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="G988" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H988" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
@@ -32096,13 +32105,13 @@
         <v>511</v>
       </c>
       <c r="F989" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G989" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H989" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
@@ -32122,13 +32131,13 @@
         <v>511</v>
       </c>
       <c r="F990" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="G990" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H990" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
@@ -32148,13 +32157,13 @@
         <v>511</v>
       </c>
       <c r="F991" t="s">
-        <v>22</v>
+        <v>1223</v>
       </c>
       <c r="G991" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="H991" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
@@ -32174,13 +32183,13 @@
         <v>511</v>
       </c>
       <c r="F992" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="G992" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H992" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
@@ -32200,10 +32209,10 @@
         <v>511</v>
       </c>
       <c r="F993" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="G993" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="H993" t="s">
         <v>17</v>
@@ -32226,13 +32235,13 @@
         <v>511</v>
       </c>
       <c r="F994" t="s">
-        <v>28</v>
+        <v>1222</v>
       </c>
       <c r="G994" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="H994" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
@@ -32252,10 +32261,10 @@
         <v>511</v>
       </c>
       <c r="F995" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="G995" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="H995" t="s">
         <v>17</v>
@@ -32278,13 +32287,13 @@
         <v>511</v>
       </c>
       <c r="F996" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="G996" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="H996" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
@@ -32304,10 +32313,10 @@
         <v>511</v>
       </c>
       <c r="F997" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G997" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H997" t="s">
         <v>17</v>
@@ -32330,13 +32339,13 @@
         <v>511</v>
       </c>
       <c r="F998" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="G998" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="H998" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
@@ -32356,10 +32365,10 @@
         <v>511</v>
       </c>
       <c r="F999" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="G999" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H999" t="s">
         <v>513</v>
@@ -32382,10 +32391,10 @@
         <v>511</v>
       </c>
       <c r="F1000" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="G1000" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="H1000" t="s">
         <v>17</v>
@@ -32393,7 +32402,7 @@
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="B1001" s="1" t="s">
         <v>93</v>
@@ -32405,21 +32414,21 @@
         <v>510</v>
       </c>
       <c r="E1001" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F1001" t="s">
-        <v>517</v>
+        <v>360</v>
       </c>
       <c r="G1001" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H1001" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="B1002" s="1" t="s">
         <v>93</v>
@@ -32431,21 +32440,21 @@
         <v>510</v>
       </c>
       <c r="E1002" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F1002" t="s">
-        <v>518</v>
+        <v>185</v>
       </c>
       <c r="G1002" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H1002" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>93</v>
@@ -32457,13 +32466,13 @@
         <v>510</v>
       </c>
       <c r="E1003" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F1003" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="G1003" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="H1003" t="s">
         <v>17</v>
@@ -32486,10 +32495,10 @@
         <v>516</v>
       </c>
       <c r="F1004" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="G1004" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H1004" t="s">
         <v>17</v>
@@ -32512,10 +32521,10 @@
         <v>516</v>
       </c>
       <c r="F1005" t="s">
-        <v>12</v>
+        <v>518</v>
       </c>
       <c r="G1005" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1005" t="s">
         <v>17</v>
@@ -32538,10 +32547,10 @@
         <v>516</v>
       </c>
       <c r="F1006" t="s">
-        <v>1033</v>
+        <v>336</v>
       </c>
       <c r="G1006" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1006" t="s">
         <v>17</v>
@@ -32564,10 +32573,10 @@
         <v>516</v>
       </c>
       <c r="F1007" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="G1007" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="H1007" t="s">
         <v>17</v>
@@ -32590,10 +32599,10 @@
         <v>516</v>
       </c>
       <c r="F1008" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1008" t="s">
-        <v>515</v>
+        <v>13</v>
       </c>
       <c r="H1008" t="s">
         <v>17</v>
@@ -32601,7 +32610,7 @@
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B1009" s="1" t="s">
         <v>93</v>
@@ -32613,21 +32622,21 @@
         <v>510</v>
       </c>
       <c r="E1009" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F1009" t="s">
-        <v>512</v>
+        <v>1033</v>
       </c>
       <c r="G1009" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H1009" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B1010" s="1" t="s">
         <v>93</v>
@@ -32639,13 +32648,13 @@
         <v>510</v>
       </c>
       <c r="E1010" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F1010" t="s">
-        <v>108</v>
+        <v>519</v>
       </c>
       <c r="G1010" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H1010" t="s">
         <v>17</v>
@@ -32653,7 +32662,7 @@
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>93</v>
@@ -32665,13 +32674,13 @@
         <v>510</v>
       </c>
       <c r="E1011" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F1011" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G1011" t="s">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="H1011" t="s">
         <v>17</v>
@@ -32694,13 +32703,13 @@
         <v>514</v>
       </c>
       <c r="F1012" t="s">
-        <v>336</v>
+        <v>512</v>
       </c>
       <c r="G1012" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1012" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
@@ -32720,10 +32729,10 @@
         <v>514</v>
       </c>
       <c r="F1013" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G1013" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H1013" t="s">
         <v>17</v>
@@ -32746,10 +32755,10 @@
         <v>514</v>
       </c>
       <c r="F1014" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G1014" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H1014" t="s">
         <v>17</v>
@@ -32772,10 +32781,10 @@
         <v>514</v>
       </c>
       <c r="F1015" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="G1015" t="s">
-        <v>515</v>
+        <v>13</v>
       </c>
       <c r="H1015" t="s">
         <v>17</v>
@@ -32783,7 +32792,7 @@
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B1016" s="1" t="s">
         <v>93</v>
@@ -32795,13 +32804,13 @@
         <v>510</v>
       </c>
       <c r="E1016" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F1016" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="G1016" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1016" t="s">
         <v>17</v>
@@ -32809,7 +32818,7 @@
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B1017" s="1" t="s">
         <v>93</v>
@@ -32821,13 +32830,13 @@
         <v>510</v>
       </c>
       <c r="E1017" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F1017" t="s">
-        <v>521</v>
+        <v>22</v>
       </c>
       <c r="G1017" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1017" t="s">
         <v>17</v>
@@ -32835,7 +32844,7 @@
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B1018" s="1" t="s">
         <v>93</v>
@@ -32847,13 +32856,13 @@
         <v>510</v>
       </c>
       <c r="E1018" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F1018" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G1018" t="s">
-        <v>240</v>
+        <v>515</v>
       </c>
       <c r="H1018" t="s">
         <v>17</v>
@@ -32876,10 +32885,10 @@
         <v>520</v>
       </c>
       <c r="F1019" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="G1019" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1019" t="s">
         <v>17</v>
@@ -32902,13 +32911,13 @@
         <v>520</v>
       </c>
       <c r="F1020" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="G1020" t="s">
         <v>27</v>
       </c>
       <c r="H1020" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
@@ -32928,10 +32937,10 @@
         <v>520</v>
       </c>
       <c r="F1021" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="G1021" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="H1021" t="s">
         <v>17</v>
@@ -32954,10 +32963,10 @@
         <v>520</v>
       </c>
       <c r="F1022" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G1022" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H1022" t="s">
         <v>17</v>
@@ -32965,7 +32974,7 @@
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>93</v>
@@ -32976,22 +32985,22 @@
       <c r="D1023" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="E1023" s="5" t="s">
-        <v>522</v>
+      <c r="E1023" t="s">
+        <v>520</v>
       </c>
       <c r="F1023" t="s">
-        <v>158</v>
+        <v>429</v>
       </c>
       <c r="G1023" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H1023" t="s">
-        <v>1068</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B1024" s="1" t="s">
         <v>93</v>
@@ -33003,13 +33012,13 @@
         <v>510</v>
       </c>
       <c r="E1024" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F1024" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="G1024" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H1024" t="s">
         <v>17</v>
@@ -33017,7 +33026,7 @@
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>93</v>
@@ -33029,16 +33038,16 @@
         <v>510</v>
       </c>
       <c r="E1025" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F1025" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="G1025" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="H1025" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
@@ -33054,17 +33063,17 @@
       <c r="D1026" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="E1026" t="s">
+      <c r="E1026" s="5" t="s">
         <v>522</v>
       </c>
       <c r="F1026" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="G1026" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H1026" t="s">
-        <v>141</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
@@ -33084,10 +33093,10 @@
         <v>522</v>
       </c>
       <c r="F1027" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G1027" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1027" t="s">
         <v>17</v>
@@ -33110,13 +33119,13 @@
         <v>522</v>
       </c>
       <c r="F1028" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="G1028" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="H1028" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
@@ -33136,13 +33145,13 @@
         <v>522</v>
       </c>
       <c r="F1029" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1029" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1029" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
@@ -33162,10 +33171,10 @@
         <v>522</v>
       </c>
       <c r="F1030" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="G1030" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="H1030" t="s">
         <v>17</v>
@@ -33188,10 +33197,10 @@
         <v>522</v>
       </c>
       <c r="F1031" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="G1031" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="H1031" t="s">
         <v>17</v>
@@ -33214,10 +33223,10 @@
         <v>522</v>
       </c>
       <c r="F1032" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="G1032" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="H1032" t="s">
         <v>17</v>
@@ -33240,13 +33249,13 @@
         <v>522</v>
       </c>
       <c r="F1033" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G1033" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="H1033" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
@@ -33266,10 +33275,10 @@
         <v>522</v>
       </c>
       <c r="F1034" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="G1034" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="H1034" t="s">
         <v>17</v>
@@ -33292,10 +33301,10 @@
         <v>522</v>
       </c>
       <c r="F1035" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="G1035" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="H1035" t="s">
         <v>17</v>
@@ -33318,13 +33327,13 @@
         <v>522</v>
       </c>
       <c r="F1036" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="G1036" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="H1036" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
@@ -33344,13 +33353,13 @@
         <v>522</v>
       </c>
       <c r="F1037" t="s">
-        <v>429</v>
+        <v>173</v>
       </c>
       <c r="G1037" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="H1037" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
@@ -33370,10 +33379,10 @@
         <v>522</v>
       </c>
       <c r="F1038" t="s">
-        <v>523</v>
+        <v>22</v>
       </c>
       <c r="G1038" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1038" t="s">
         <v>17</v>
@@ -33396,13 +33405,13 @@
         <v>522</v>
       </c>
       <c r="F1039" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="G1039" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="H1039" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
@@ -33422,13 +33431,13 @@
         <v>522</v>
       </c>
       <c r="F1040" t="s">
-        <v>28</v>
+        <v>429</v>
       </c>
       <c r="G1040" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H1040" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
@@ -33448,13 +33457,13 @@
         <v>522</v>
       </c>
       <c r="F1041" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G1041" t="s">
-        <v>525</v>
+        <v>27</v>
       </c>
       <c r="H1041" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
@@ -33474,10 +33483,10 @@
         <v>522</v>
       </c>
       <c r="F1042" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="G1042" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="H1042" t="s">
         <v>17</v>
@@ -33500,13 +33509,13 @@
         <v>522</v>
       </c>
       <c r="F1043" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="G1043" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="H1043" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
@@ -33526,13 +33535,13 @@
         <v>522</v>
       </c>
       <c r="F1044" t="s">
-        <v>421</v>
+        <v>524</v>
       </c>
       <c r="G1044" t="s">
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="H1044" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
@@ -33552,10 +33561,10 @@
         <v>522</v>
       </c>
       <c r="F1045" t="s">
-        <v>526</v>
+        <v>61</v>
       </c>
       <c r="G1045" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="H1045" t="s">
         <v>17</v>
@@ -33563,7 +33572,7 @@
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B1046" s="1" t="s">
         <v>93</v>
@@ -33572,24 +33581,24 @@
         <v>321</v>
       </c>
       <c r="D1046" s="5" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="E1046" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F1046" t="s">
-        <v>1157</v>
+        <v>128</v>
       </c>
       <c r="G1046" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H1046" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1047" s="1">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B1047" s="1" t="s">
         <v>93</v>
@@ -33598,24 +33607,24 @@
         <v>321</v>
       </c>
       <c r="D1047" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E1047" s="5" t="s">
-        <v>528</v>
+        <v>510</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>522</v>
       </c>
       <c r="F1047" t="s">
-        <v>21</v>
+        <v>421</v>
       </c>
       <c r="G1047" t="s">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="H1047" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1048" s="1">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B1048" s="1" t="s">
         <v>93</v>
@@ -33624,19 +33633,19 @@
         <v>321</v>
       </c>
       <c r="D1048" s="5" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="E1048" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F1048" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
       <c r="G1048" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="H1048" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
@@ -33652,17 +33661,17 @@
       <c r="D1049" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1049" s="5" t="s">
+      <c r="E1049" t="s">
         <v>528</v>
       </c>
       <c r="F1049" t="s">
-        <v>1071</v>
+        <v>1157</v>
       </c>
       <c r="G1049" t="s">
-        <v>851</v>
+        <v>76</v>
       </c>
       <c r="H1049" t="s">
-        <v>1068</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
@@ -33682,13 +33691,13 @@
         <v>528</v>
       </c>
       <c r="F1050" t="s">
-        <v>591</v>
+        <v>21</v>
       </c>
       <c r="G1050" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1050" t="s">
-        <v>1068</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
@@ -33704,17 +33713,17 @@
       <c r="D1051" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1051" s="5" t="s">
+      <c r="E1051" t="s">
         <v>528</v>
       </c>
       <c r="F1051" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="G1051" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="H1051" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
@@ -33734,13 +33743,13 @@
         <v>528</v>
       </c>
       <c r="F1052" t="s">
-        <v>424</v>
+        <v>1071</v>
       </c>
       <c r="G1052" t="s">
-        <v>438</v>
+        <v>851</v>
       </c>
       <c r="H1052" t="s">
-        <v>46</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
@@ -33756,17 +33765,17 @@
       <c r="D1053" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1053" t="s">
+      <c r="E1053" s="5" t="s">
         <v>528</v>
       </c>
       <c r="F1053" t="s">
-        <v>429</v>
+        <v>591</v>
       </c>
       <c r="G1053" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H1053" t="s">
-        <v>18</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
@@ -33782,17 +33791,17 @@
       <c r="D1054" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1054" t="s">
+      <c r="E1054" s="5" t="s">
         <v>528</v>
       </c>
       <c r="F1054" t="s">
-        <v>57</v>
+        <v>326</v>
       </c>
       <c r="G1054" t="s">
-        <v>16</v>
+        <v>395</v>
       </c>
       <c r="H1054" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
@@ -33808,17 +33817,17 @@
       <c r="D1055" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1055" t="s">
+      <c r="E1055" s="5" t="s">
         <v>528</v>
       </c>
       <c r="F1055" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="G1055" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="H1055" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
@@ -33838,13 +33847,13 @@
         <v>528</v>
       </c>
       <c r="F1056" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="G1056" t="s">
-        <v>399</v>
+        <v>27</v>
       </c>
       <c r="H1056" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
@@ -33864,13 +33873,13 @@
         <v>528</v>
       </c>
       <c r="F1057" t="s">
-        <v>381</v>
+        <v>57</v>
       </c>
       <c r="G1057" t="s">
-        <v>376</v>
+        <v>16</v>
       </c>
       <c r="H1057" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
@@ -33890,13 +33899,13 @@
         <v>528</v>
       </c>
       <c r="F1058" t="s">
-        <v>182</v>
+        <v>529</v>
       </c>
       <c r="G1058" t="s">
-        <v>515</v>
+        <v>98</v>
       </c>
       <c r="H1058" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
@@ -33916,10 +33925,10 @@
         <v>528</v>
       </c>
       <c r="F1059" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="G1059" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="H1059" t="s">
         <v>46</v>
@@ -33942,13 +33951,13 @@
         <v>528</v>
       </c>
       <c r="F1060" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
       <c r="G1060" t="s">
-        <v>146</v>
+        <v>376</v>
       </c>
       <c r="H1060" t="s">
-        <v>440</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
@@ -33968,13 +33977,13 @@
         <v>528</v>
       </c>
       <c r="F1061" t="s">
-        <v>1179</v>
+        <v>182</v>
       </c>
       <c r="G1061" t="s">
-        <v>192</v>
+        <v>515</v>
       </c>
       <c r="H1061" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
@@ -33994,13 +34003,13 @@
         <v>528</v>
       </c>
       <c r="F1062" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="G1062" t="s">
-        <v>13</v>
+        <v>362</v>
       </c>
       <c r="H1062" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
@@ -34016,22 +34025,22 @@
       <c r="D1063" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1063" s="5" t="s">
+      <c r="E1063" t="s">
         <v>528</v>
       </c>
       <c r="F1063" t="s">
-        <v>1067</v>
+        <v>112</v>
       </c>
       <c r="G1063" t="s">
-        <v>981</v>
+        <v>146</v>
       </c>
       <c r="H1063" t="s">
-        <v>1068</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B1064" s="1" t="s">
         <v>93</v>
@@ -34043,13 +34052,13 @@
         <v>527</v>
       </c>
       <c r="E1064" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F1064" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
       <c r="G1064" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="H1064" t="s">
         <v>46</v>
@@ -34057,7 +34066,7 @@
     </row>
     <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B1065" s="1" t="s">
         <v>93</v>
@@ -34069,21 +34078,21 @@
         <v>527</v>
       </c>
       <c r="E1065" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F1065" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="G1065" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H1065" t="s">
-        <v>448</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B1066" s="1" t="s">
         <v>93</v>
@@ -34094,17 +34103,17 @@
       <c r="D1066" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E1066" t="s">
-        <v>530</v>
+      <c r="E1066" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="F1066" t="s">
-        <v>163</v>
+        <v>1067</v>
       </c>
       <c r="G1066" t="s">
-        <v>191</v>
+        <v>981</v>
       </c>
       <c r="H1066" t="s">
-        <v>440</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
@@ -34124,10 +34133,10 @@
         <v>530</v>
       </c>
       <c r="F1067" t="s">
-        <v>21</v>
+        <v>1157</v>
       </c>
       <c r="G1067" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1067" t="s">
         <v>46</v>
@@ -34150,13 +34159,13 @@
         <v>530</v>
       </c>
       <c r="F1068" t="s">
-        <v>591</v>
+        <v>52</v>
       </c>
       <c r="G1068" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H1068" t="s">
-        <v>1068</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
@@ -34176,13 +34185,13 @@
         <v>530</v>
       </c>
       <c r="F1069" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="G1069" t="s">
-        <v>395</v>
+        <v>191</v>
       </c>
       <c r="H1069" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
@@ -34202,13 +34211,13 @@
         <v>530</v>
       </c>
       <c r="F1070" t="s">
-        <v>429</v>
+        <v>21</v>
       </c>
       <c r="G1070" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1070" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
@@ -34228,13 +34237,13 @@
         <v>530</v>
       </c>
       <c r="F1071" t="s">
-        <v>223</v>
+        <v>591</v>
       </c>
       <c r="G1071" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="H1071" t="s">
-        <v>18</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
@@ -34254,13 +34263,13 @@
         <v>530</v>
       </c>
       <c r="F1072" t="s">
-        <v>531</v>
+        <v>326</v>
       </c>
       <c r="G1072" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="H1072" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
@@ -34280,13 +34289,13 @@
         <v>530</v>
       </c>
       <c r="F1073" t="s">
-        <v>1178</v>
+        <v>429</v>
       </c>
       <c r="G1073" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H1073" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
@@ -34306,13 +34315,13 @@
         <v>530</v>
       </c>
       <c r="F1074" t="s">
-        <v>358</v>
+        <v>223</v>
       </c>
       <c r="G1074" t="s">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="H1074" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
@@ -34332,13 +34341,13 @@
         <v>530</v>
       </c>
       <c r="F1075" t="s">
-        <v>1179</v>
+        <v>531</v>
       </c>
       <c r="G1075" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="H1075" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
@@ -34358,10 +34367,10 @@
         <v>530</v>
       </c>
       <c r="F1076" t="s">
-        <v>68</v>
+        <v>1178</v>
       </c>
       <c r="G1076" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="H1076" t="s">
         <v>46</v>
@@ -34384,13 +34393,13 @@
         <v>530</v>
       </c>
       <c r="F1077" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="G1077" t="s">
-        <v>193</v>
+        <v>362</v>
       </c>
       <c r="H1077" t="s">
-        <v>440</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
@@ -34410,13 +34419,13 @@
         <v>530</v>
       </c>
       <c r="F1078" t="s">
-        <v>185</v>
+        <v>1179</v>
       </c>
       <c r="G1078" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H1078" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
@@ -34436,13 +34445,13 @@
         <v>530</v>
       </c>
       <c r="F1079" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="G1079" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="H1079" t="s">
-        <v>1068</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
@@ -34462,88 +34471,88 @@
         <v>530</v>
       </c>
       <c r="F1080" t="s">
-        <v>1180</v>
+        <v>226</v>
       </c>
       <c r="G1080" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="H1080" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B1081" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>293</v>
+        <v>2014</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1081" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="D1081" s="5" t="s">
-        <v>294</v>
+        <v>527</v>
       </c>
       <c r="E1081" t="s">
-        <v>295</v>
+        <v>530</v>
       </c>
       <c r="F1081" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="G1081" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H1081" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B1082" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>293</v>
+        <v>2014</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1082" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="D1082" s="5" t="s">
-        <v>294</v>
+        <v>527</v>
       </c>
       <c r="E1082" t="s">
-        <v>295</v>
+        <v>530</v>
       </c>
       <c r="F1082" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="G1082" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="H1082" t="s">
-        <v>46</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B1083" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>293</v>
+        <v>2014</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1083" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="D1083" s="5" t="s">
-        <v>294</v>
+        <v>527</v>
       </c>
       <c r="E1083" t="s">
-        <v>297</v>
+        <v>530</v>
       </c>
       <c r="F1083" t="s">
-        <v>298</v>
+        <v>1180</v>
       </c>
       <c r="G1083" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1083" t="s">
         <v>46</v>
@@ -34563,16 +34572,16 @@
         <v>294</v>
       </c>
       <c r="E1084" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F1084" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="G1084" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H1084" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
@@ -34589,10 +34598,10 @@
         <v>294</v>
       </c>
       <c r="E1085" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F1085" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G1085" t="s">
         <v>36</v>
@@ -34615,13 +34624,13 @@
         <v>294</v>
       </c>
       <c r="E1086" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F1086" t="s">
-        <v>1208</v>
+        <v>298</v>
       </c>
       <c r="G1086" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1086" t="s">
         <v>46</v>
@@ -34644,13 +34653,13 @@
         <v>299</v>
       </c>
       <c r="F1087" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="G1087" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H1087" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
@@ -34667,7 +34676,7 @@
         <v>294</v>
       </c>
       <c r="E1088" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1088" t="s">
         <v>300</v>
@@ -34693,13 +34702,13 @@
         <v>294</v>
       </c>
       <c r="E1089" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1089" t="s">
-        <v>296</v>
+        <v>1208</v>
       </c>
       <c r="G1089" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H1089" t="s">
         <v>46</v>
@@ -34719,16 +34728,16 @@
         <v>294</v>
       </c>
       <c r="E1090" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1090" t="s">
-        <v>302</v>
+        <v>84</v>
       </c>
       <c r="G1090" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="H1090" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
@@ -34748,7 +34757,7 @@
         <v>301</v>
       </c>
       <c r="F1091" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="G1091" t="s">
         <v>36</v>
@@ -34774,13 +34783,13 @@
         <v>301</v>
       </c>
       <c r="F1092" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G1092" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="H1092" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
@@ -34800,10 +34809,10 @@
         <v>301</v>
       </c>
       <c r="F1093" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G1093" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="H1093" t="s">
         <v>46</v>
@@ -34811,25 +34820,25 @@
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1094" s="1">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="B1094" s="1">
-        <v>1972</v>
-      </c>
-      <c r="C1094" s="6" t="s">
-        <v>1048</v>
+        <v>1989</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>293</v>
       </c>
       <c r="D1094" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E1094" s="5" t="s">
-        <v>1047</v>
+        <v>294</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>301</v>
       </c>
       <c r="F1094" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G1094" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H1094" t="s">
         <v>46</v>
@@ -34837,51 +34846,51 @@
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1095" s="1">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="B1095" s="1">
-        <v>1972</v>
-      </c>
-      <c r="C1095" s="6" t="s">
-        <v>1048</v>
+        <v>1989</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>293</v>
       </c>
       <c r="D1095" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E1095" s="5" t="s">
-        <v>1047</v>
+        <v>294</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>301</v>
       </c>
       <c r="F1095" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="G1095" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H1095" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096" s="1">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="B1096" s="1">
-        <v>1972</v>
-      </c>
-      <c r="C1096" s="6" t="s">
-        <v>1048</v>
+        <v>1989</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>293</v>
       </c>
       <c r="D1096" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E1096" s="5" t="s">
-        <v>1047</v>
+        <v>294</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>301</v>
       </c>
       <c r="F1096" t="s">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="G1096" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H1096" t="s">
         <v>46</v>
@@ -34904,10 +34913,10 @@
         <v>1047</v>
       </c>
       <c r="F1097" t="s">
-        <v>1006</v>
+        <v>51</v>
       </c>
       <c r="G1097" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H1097" t="s">
         <v>46</v>
@@ -34930,10 +34939,10 @@
         <v>1047</v>
       </c>
       <c r="F1098" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="G1098" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="H1098" t="s">
         <v>46</v>
@@ -34956,10 +34965,10 @@
         <v>1047</v>
       </c>
       <c r="F1099" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G1099" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H1099" t="s">
         <v>46</v>
@@ -34982,10 +34991,10 @@
         <v>1047</v>
       </c>
       <c r="F1100" t="s">
-        <v>179</v>
+        <v>1006</v>
       </c>
       <c r="G1100" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="H1100" t="s">
         <v>46</v>
@@ -35008,10 +35017,10 @@
         <v>1047</v>
       </c>
       <c r="F1101" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G1101" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="H1101" t="s">
         <v>46</v>
@@ -35034,10 +35043,10 @@
         <v>1047</v>
       </c>
       <c r="F1102" t="s">
-        <v>328</v>
+        <v>122</v>
       </c>
       <c r="G1102" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="H1102" t="s">
         <v>46</v>
@@ -35060,10 +35069,10 @@
         <v>1047</v>
       </c>
       <c r="F1103" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G1103" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H1103" t="s">
         <v>46</v>
@@ -35071,83 +35080,80 @@
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
-        <v>1976</v>
+        <v>1958</v>
       </c>
       <c r="B1104" s="1">
-        <v>2003</v>
-      </c>
-      <c r="C1104" t="s">
-        <v>293</v>
+        <v>1972</v>
+      </c>
+      <c r="C1104" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="D1104" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1104" t="s">
-        <v>305</v>
+        <v>1046</v>
+      </c>
+      <c r="E1104" s="5" t="s">
+        <v>1047</v>
       </c>
       <c r="F1104" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G1104" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H1104" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1105" s="1">
-        <v>1976</v>
+        <v>1958</v>
       </c>
       <c r="B1105" s="1">
-        <v>2003</v>
-      </c>
-      <c r="C1105" t="s">
-        <v>293</v>
+        <v>1972</v>
+      </c>
+      <c r="C1105" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1105" t="s">
-        <v>305</v>
+        <v>1046</v>
+      </c>
+      <c r="E1105" s="5" t="s">
+        <v>1047</v>
       </c>
       <c r="F1105" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G1105" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="H1105" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1105" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1106" s="1">
-        <v>1976</v>
+        <v>1958</v>
       </c>
       <c r="B1106" s="1">
-        <v>2003</v>
-      </c>
-      <c r="C1106" t="s">
-        <v>293</v>
+        <v>1972</v>
+      </c>
+      <c r="C1106" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="D1106" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1106" t="s">
-        <v>305</v>
+        <v>1046</v>
+      </c>
+      <c r="E1106" s="5" t="s">
+        <v>1047</v>
       </c>
       <c r="F1106" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="G1106" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1106" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
@@ -35167,94 +35173,97 @@
         <v>305</v>
       </c>
       <c r="F1107" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G1107" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H1107" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1107" t="s">
-        <v>332</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1108" s="1">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="B1108" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C1108" s="6" t="s">
-        <v>406</v>
+        <v>2003</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>293</v>
       </c>
       <c r="D1108" s="5" t="s">
-        <v>532</v>
+        <v>305</v>
       </c>
       <c r="E1108" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="F1108" t="s">
-        <v>535</v>
+        <v>317</v>
       </c>
       <c r="G1108" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="H1108" t="s">
-        <v>99</v>
+        <v>318</v>
+      </c>
+      <c r="I1108" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="B1109" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C1109" s="6" t="s">
-        <v>406</v>
+        <v>2003</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>293</v>
       </c>
       <c r="D1109" s="5" t="s">
-        <v>532</v>
+        <v>305</v>
       </c>
       <c r="E1109" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="F1109" t="s">
-        <v>534</v>
+        <v>300</v>
       </c>
       <c r="G1109" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H1109" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1110" s="1">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="B1110" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C1110" s="6" t="s">
-        <v>406</v>
+        <v>2003</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>293</v>
       </c>
       <c r="D1110" s="5" t="s">
-        <v>532</v>
+        <v>305</v>
       </c>
       <c r="E1110" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="F1110" t="s">
-        <v>536</v>
+        <v>101</v>
       </c>
       <c r="G1110" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H1110" t="s">
-        <v>141</v>
+        <v>319</v>
+      </c>
+      <c r="I1110" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
@@ -35274,13 +35283,13 @@
         <v>533</v>
       </c>
       <c r="F1111" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G1111" t="s">
-        <v>13</v>
+        <v>537</v>
       </c>
       <c r="H1111" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
@@ -35300,13 +35309,13 @@
         <v>533</v>
       </c>
       <c r="F1112" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G1112" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H1112" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
@@ -35323,16 +35332,16 @@
         <v>532</v>
       </c>
       <c r="E1113" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F1113" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G1113" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="H1113" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
@@ -35349,16 +35358,16 @@
         <v>532</v>
       </c>
       <c r="E1114" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F1114" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G1114" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H1114" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1115" spans="1:9" x14ac:dyDescent="0.25">
@@ -35375,13 +35384,13 @@
         <v>532</v>
       </c>
       <c r="E1115" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F1115" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G1115" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H1115" t="s">
         <v>141</v>
@@ -35389,7 +35398,7 @@
     </row>
     <row r="1116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1116" s="1">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B1116" s="1">
         <v>2010</v>
@@ -35401,7 +35410,7 @@
         <v>532</v>
       </c>
       <c r="E1116" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F1116" t="s">
         <v>535</v>
@@ -35415,7 +35424,7 @@
     </row>
     <row r="1117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1117" s="1">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B1117" s="1">
         <v>2010</v>
@@ -35427,21 +35436,21 @@
         <v>532</v>
       </c>
       <c r="E1117" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F1117" t="s">
-        <v>286</v>
+        <v>534</v>
       </c>
       <c r="G1117" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1117" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1118" s="1">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B1118" s="1">
         <v>2010</v>
@@ -35453,16 +35462,16 @@
         <v>532</v>
       </c>
       <c r="E1118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F1118" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G1118" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H1118" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1119" spans="1:9" x14ac:dyDescent="0.25">
@@ -35482,13 +35491,13 @@
         <v>541</v>
       </c>
       <c r="F1119" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G1119" t="s">
-        <v>13</v>
+        <v>537</v>
       </c>
       <c r="H1119" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1120" spans="1:9" x14ac:dyDescent="0.25">
@@ -35508,13 +35517,13 @@
         <v>541</v>
       </c>
       <c r="F1120" t="s">
-        <v>542</v>
+        <v>286</v>
       </c>
       <c r="G1120" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H1120" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
@@ -35534,13 +35543,13 @@
         <v>541</v>
       </c>
       <c r="F1121" t="s">
-        <v>126</v>
+        <v>534</v>
       </c>
       <c r="G1121" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="H1121" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
@@ -35560,7 +35569,7 @@
         <v>541</v>
       </c>
       <c r="F1122" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G1122" t="s">
         <v>13</v>
@@ -35583,16 +35592,16 @@
         <v>532</v>
       </c>
       <c r="E1123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F1123" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G1123" t="s">
-        <v>537</v>
+        <v>27</v>
       </c>
       <c r="H1123" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
@@ -35609,16 +35618,16 @@
         <v>532</v>
       </c>
       <c r="E1124" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F1124" t="s">
-        <v>1061</v>
+        <v>126</v>
       </c>
       <c r="G1124" t="s">
-        <v>943</v>
+        <v>152</v>
       </c>
       <c r="H1124" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
@@ -35635,16 +35644,16 @@
         <v>532</v>
       </c>
       <c r="E1125" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F1125" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G1125" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H1125" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
@@ -35664,13 +35673,13 @@
         <v>543</v>
       </c>
       <c r="F1126" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G1126" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H1126" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
@@ -35690,21 +35699,21 @@
         <v>543</v>
       </c>
       <c r="F1127" t="s">
-        <v>270</v>
+        <v>1061</v>
       </c>
       <c r="G1127" t="s">
-        <v>70</v>
+        <v>943</v>
       </c>
       <c r="H1127" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B1128" s="1" t="s">
-        <v>93</v>
+        <v>1996</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>2010</v>
       </c>
       <c r="C1128" s="6" t="s">
         <v>406</v>
@@ -35713,7 +35722,7 @@
         <v>532</v>
       </c>
       <c r="E1128" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F1128" t="s">
         <v>534</v>
@@ -35724,16 +35733,13 @@
       <c r="H1128" t="s">
         <v>17</v>
       </c>
-      <c r="I1128" t="s">
-        <v>1136</v>
-      </c>
     </row>
     <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1129" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B1129" s="1" t="s">
-        <v>93</v>
+        <v>1996</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>2010</v>
       </c>
       <c r="C1129" s="6" t="s">
         <v>406</v>
@@ -35742,24 +35748,24 @@
         <v>532</v>
       </c>
       <c r="E1129" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F1129" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G1129" t="s">
-        <v>77</v>
+        <v>545</v>
       </c>
       <c r="H1129" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1130" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B1130" s="1" t="s">
-        <v>93</v>
+        <v>1996</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>2010</v>
       </c>
       <c r="C1130" s="6" t="s">
         <v>406</v>
@@ -35768,16 +35774,16 @@
         <v>532</v>
       </c>
       <c r="E1130" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F1130" t="s">
-        <v>536</v>
+        <v>270</v>
       </c>
       <c r="G1130" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H1130" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
@@ -35794,7 +35800,7 @@
         <v>532</v>
       </c>
       <c r="E1131" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F1131" t="s">
         <v>534</v>
@@ -35823,13 +35829,13 @@
         <v>532</v>
       </c>
       <c r="E1132" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F1132" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="G1132" t="s">
-        <v>537</v>
+        <v>77</v>
       </c>
       <c r="H1132" t="s">
         <v>17</v>
@@ -35849,13 +35855,13 @@
         <v>532</v>
       </c>
       <c r="E1133" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F1133" t="s">
-        <v>288</v>
+        <v>536</v>
       </c>
       <c r="G1133" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1133" t="s">
         <v>17</v>
@@ -35878,18 +35884,21 @@
         <v>548</v>
       </c>
       <c r="F1134" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G1134" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H1134" t="s">
         <v>17</v>
       </c>
+      <c r="I1134" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="B1135" s="1" t="s">
         <v>93</v>
@@ -35901,13 +35910,13 @@
         <v>532</v>
       </c>
       <c r="E1135" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F1135" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G1135" t="s">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="H1135" t="s">
         <v>17</v>
@@ -35915,7 +35924,7 @@
     </row>
     <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1136" s="1">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="B1136" s="1" t="s">
         <v>93</v>
@@ -35927,7 +35936,7 @@
         <v>532</v>
       </c>
       <c r="E1136" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F1136" t="s">
         <v>288</v>
@@ -35939,9 +35948,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1137" s="1">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="B1137" s="1" t="s">
         <v>93</v>
@@ -35953,19 +35962,19 @@
         <v>532</v>
       </c>
       <c r="E1137" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F1137" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G1137" t="s">
-        <v>545</v>
+        <v>13</v>
       </c>
       <c r="H1137" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1138" s="1">
         <v>2007</v>
       </c>
@@ -35979,7 +35988,7 @@
         <v>532</v>
       </c>
       <c r="E1138" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F1138" t="s">
         <v>534</v>
@@ -35991,7 +36000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1139" s="1">
         <v>2007</v>
       </c>
@@ -36005,19 +36014,19 @@
         <v>532</v>
       </c>
       <c r="E1139" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F1139" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G1139" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1140" s="1">
         <v>2007</v>
       </c>
@@ -36031,19 +36040,19 @@
         <v>532</v>
       </c>
       <c r="E1140" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F1140" t="s">
-        <v>288</v>
+        <v>544</v>
       </c>
       <c r="G1140" t="s">
-        <v>13</v>
+        <v>545</v>
       </c>
       <c r="H1140" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1141" s="1">
         <v>2007</v>
       </c>
@@ -36060,16 +36069,16 @@
         <v>550</v>
       </c>
       <c r="F1141" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G1141" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H1141" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1142" s="1">
         <v>2007</v>
       </c>
@@ -36082,20 +36091,20 @@
       <c r="D1142" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E1142" s="5" t="s">
+      <c r="E1142" t="s">
         <v>550</v>
       </c>
       <c r="F1142" t="s">
-        <v>1072</v>
+        <v>286</v>
       </c>
       <c r="G1142" t="s">
-        <v>915</v>
+        <v>76</v>
       </c>
       <c r="H1142" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
         <v>2007</v>
       </c>
@@ -36109,19 +36118,19 @@
         <v>532</v>
       </c>
       <c r="E1143" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F1143" t="s">
-        <v>534</v>
+        <v>288</v>
       </c>
       <c r="G1143" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H1143" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1144" s="1">
         <v>2007</v>
       </c>
@@ -36135,19 +36144,19 @@
         <v>532</v>
       </c>
       <c r="E1144" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F1144" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G1144" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="H1144" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1145" s="1">
         <v>2007</v>
       </c>
@@ -36160,22 +36169,22 @@
       <c r="D1145" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E1145" t="s">
-        <v>551</v>
+      <c r="E1145" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="F1145" t="s">
-        <v>538</v>
+        <v>1072</v>
       </c>
       <c r="G1145" t="s">
-        <v>13</v>
+        <v>915</v>
       </c>
       <c r="H1145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1146" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>93</v>
@@ -36187,7 +36196,7 @@
         <v>532</v>
       </c>
       <c r="E1146" t="s">
-        <v>1135</v>
+        <v>551</v>
       </c>
       <c r="F1146" t="s">
         <v>534</v>
@@ -36199,9 +36208,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1147" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B1147" s="1" t="s">
         <v>93</v>
@@ -36213,21 +36222,21 @@
         <v>532</v>
       </c>
       <c r="E1147" t="s">
-        <v>1135</v>
+        <v>551</v>
       </c>
       <c r="F1147" t="s">
-        <v>286</v>
+        <v>535</v>
       </c>
       <c r="G1147" t="s">
-        <v>76</v>
+        <v>537</v>
       </c>
       <c r="H1147" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B1148" s="1" t="s">
         <v>93</v>
@@ -36239,19 +36248,19 @@
         <v>532</v>
       </c>
       <c r="E1148" t="s">
-        <v>1135</v>
+        <v>551</v>
       </c>
       <c r="F1148" t="s">
-        <v>289</v>
+        <v>538</v>
       </c>
       <c r="G1148" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1148" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1149" s="1">
         <v>2010</v>
       </c>
@@ -36265,100 +36274,97 @@
         <v>532</v>
       </c>
       <c r="E1149" t="s">
-        <v>1165</v>
+        <v>1135</v>
       </c>
       <c r="F1149" t="s">
-        <v>1163</v>
+        <v>534</v>
       </c>
       <c r="G1149" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H1149" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B1150" s="1">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1150" s="6" t="s">
         <v>406</v>
       </c>
       <c r="D1150" s="5" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E1150" t="s">
-        <v>555</v>
+        <v>1135</v>
       </c>
       <c r="F1150" t="s">
-        <v>483</v>
+        <v>286</v>
       </c>
       <c r="G1150" t="s">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="H1150" t="s">
         <v>46</v>
       </c>
-      <c r="I1150" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1151" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B1151" s="1">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1151" s="6" t="s">
         <v>406</v>
       </c>
       <c r="D1151" s="5" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E1151" t="s">
-        <v>559</v>
+        <v>1135</v>
       </c>
       <c r="F1151" t="s">
-        <v>560</v>
+        <v>289</v>
       </c>
       <c r="G1151" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="H1151" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1152" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B1152" s="1">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1152" s="6" t="s">
         <v>406</v>
       </c>
       <c r="D1152" s="5" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E1152" t="s">
-        <v>559</v>
+        <v>1165</v>
       </c>
       <c r="F1152" t="s">
-        <v>286</v>
+        <v>1163</v>
       </c>
       <c r="G1152" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H1152" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1153" s="1">
         <v>1996</v>
       </c>
@@ -36372,19 +36378,22 @@
         <v>552</v>
       </c>
       <c r="E1153" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F1153" t="s">
-        <v>337</v>
+        <v>483</v>
       </c>
       <c r="G1153" t="s">
-        <v>193</v>
+        <v>488</v>
       </c>
       <c r="H1153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
         <v>1996</v>
       </c>
@@ -36401,16 +36410,16 @@
         <v>559</v>
       </c>
       <c r="F1154" t="s">
-        <v>1083</v>
+        <v>560</v>
       </c>
       <c r="G1154" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
         <v>1996</v>
       </c>
@@ -36427,21 +36436,21 @@
         <v>559</v>
       </c>
       <c r="F1155" t="s">
-        <v>554</v>
+        <v>286</v>
       </c>
       <c r="G1155" t="s">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="H1155" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B1156" s="1">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C1156" s="6" t="s">
         <v>406</v>
@@ -36450,24 +36459,24 @@
         <v>552</v>
       </c>
       <c r="E1156" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F1156" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="G1156" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="H1156" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B1157" s="1">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C1157" s="6" t="s">
         <v>406</v>
@@ -36476,24 +36485,24 @@
         <v>552</v>
       </c>
       <c r="E1157" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F1157" t="s">
-        <v>105</v>
+        <v>1083</v>
       </c>
       <c r="G1157" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="H1157" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1158" s="1">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B1158" s="1">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C1158" s="6" t="s">
         <v>406</v>
@@ -36502,19 +36511,19 @@
         <v>552</v>
       </c>
       <c r="E1158" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F1158" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="G1158" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="H1158" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1159" s="1">
         <v>2000</v>
       </c>
@@ -36531,16 +36540,16 @@
         <v>561</v>
       </c>
       <c r="F1159" t="s">
-        <v>562</v>
+        <v>372</v>
       </c>
       <c r="G1159" t="s">
-        <v>145</v>
+        <v>378</v>
       </c>
       <c r="H1159" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1160" s="1">
         <v>2000</v>
       </c>
@@ -36557,16 +36566,16 @@
         <v>561</v>
       </c>
       <c r="F1160" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G1160" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H1160" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
         <v>2000</v>
       </c>
@@ -36583,16 +36592,16 @@
         <v>561</v>
       </c>
       <c r="F1161" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="G1161" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="H1161" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
         <v>2000</v>
       </c>
@@ -36609,16 +36618,16 @@
         <v>561</v>
       </c>
       <c r="F1162" t="s">
-        <v>309</v>
+        <v>562</v>
       </c>
       <c r="G1162" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="H1162" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1163" s="1">
         <v>2000</v>
       </c>
@@ -36635,16 +36644,16 @@
         <v>561</v>
       </c>
       <c r="F1163" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="G1163" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="H1163" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
         <v>2000</v>
       </c>
@@ -36661,16 +36670,16 @@
         <v>561</v>
       </c>
       <c r="F1164" t="s">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="G1164" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="H1164" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
         <v>2000</v>
       </c>
@@ -36687,16 +36696,16 @@
         <v>561</v>
       </c>
       <c r="F1165" t="s">
-        <v>564</v>
+        <v>309</v>
       </c>
       <c r="G1165" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="H1165" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
         <v>2000</v>
       </c>
@@ -36713,16 +36722,16 @@
         <v>561</v>
       </c>
       <c r="F1166" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="G1166" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H1166" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
         <v>2000</v>
       </c>
@@ -36739,16 +36748,16 @@
         <v>561</v>
       </c>
       <c r="F1167" t="s">
-        <v>576</v>
+        <v>337</v>
       </c>
       <c r="G1167" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="H1167" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
         <v>2000</v>
       </c>
@@ -36765,13 +36774,13 @@
         <v>561</v>
       </c>
       <c r="F1168" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="G1168" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="H1168" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
@@ -36791,10 +36800,10 @@
         <v>561</v>
       </c>
       <c r="F1169" t="s">
-        <v>554</v>
+        <v>126</v>
       </c>
       <c r="G1169" t="s">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="H1169" t="s">
         <v>149</v>
@@ -36802,10 +36811,10 @@
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
-        <v>1984</v>
+        <v>2000</v>
       </c>
       <c r="B1170" s="1">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="C1170" s="6" t="s">
         <v>406</v>
@@ -36814,24 +36823,24 @@
         <v>552</v>
       </c>
       <c r="E1170" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="F1170" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="G1170" t="s">
-        <v>376</v>
+        <v>140</v>
       </c>
       <c r="H1170" t="s">
-        <v>149</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="B1171" s="1">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="C1171" s="6" t="s">
         <v>406</v>
@@ -36840,24 +36849,24 @@
         <v>552</v>
       </c>
       <c r="E1171" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F1171" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="G1171" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1171" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1171" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="B1172" s="1">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="C1172" s="6" t="s">
         <v>406</v>
@@ -36866,7 +36875,7 @@
         <v>552</v>
       </c>
       <c r="E1172" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F1172" t="s">
         <v>554</v>
@@ -36874,86 +36883,86 @@
       <c r="G1172" t="s">
         <v>376</v>
       </c>
-      <c r="H1172" s="2" t="s">
+      <c r="H1172" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
-        <v>1970</v>
+        <v>1984</v>
       </c>
       <c r="B1173" s="1">
-        <v>1983</v>
-      </c>
-      <c r="C1173" t="s">
-        <v>412</v>
+        <v>2005</v>
+      </c>
+      <c r="C1173" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="D1173" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E1173" s="5" t="s">
-        <v>1024</v>
+        <v>552</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>553</v>
       </c>
       <c r="F1173" t="s">
-        <v>21</v>
+        <v>554</v>
       </c>
       <c r="G1173" t="s">
-        <v>13</v>
+        <v>376</v>
       </c>
       <c r="H1173" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1174" s="1">
-        <v>1970</v>
+        <v>1989</v>
       </c>
       <c r="B1174" s="1">
-        <v>1983</v>
-      </c>
-      <c r="C1174" t="s">
-        <v>412</v>
+        <v>1996</v>
+      </c>
+      <c r="C1174" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="D1174" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E1174" s="5" t="s">
-        <v>1024</v>
+        <v>552</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>557</v>
       </c>
       <c r="F1174" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="G1174" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1174" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="H1174" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1175" s="1">
-        <v>1970</v>
+        <v>1989</v>
       </c>
       <c r="B1175" s="1">
-        <v>1983</v>
-      </c>
-      <c r="C1175" t="s">
-        <v>412</v>
+        <v>1996</v>
+      </c>
+      <c r="C1175" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="D1175" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E1175" s="5" t="s">
-        <v>1024</v>
+        <v>552</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>557</v>
       </c>
       <c r="F1175" t="s">
-        <v>117</v>
+        <v>554</v>
       </c>
       <c r="G1175" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1175" t="s">
-        <v>513</v>
+        <v>376</v>
+      </c>
+      <c r="H1175" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
@@ -36973,7 +36982,7 @@
         <v>1024</v>
       </c>
       <c r="F1176" t="s">
-        <v>1025</v>
+        <v>21</v>
       </c>
       <c r="G1176" t="s">
         <v>13</v>
@@ -36999,10 +37008,10 @@
         <v>1024</v>
       </c>
       <c r="F1177" t="s">
-        <v>1003</v>
+        <v>296</v>
       </c>
       <c r="G1177" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1177" t="s">
         <v>46</v>
@@ -37025,13 +37034,13 @@
         <v>1024</v>
       </c>
       <c r="F1178" t="s">
-        <v>359</v>
+        <v>117</v>
       </c>
       <c r="G1178" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1178" t="s">
-        <v>46</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1179" spans="1:8" x14ac:dyDescent="0.25">
@@ -37051,7 +37060,7 @@
         <v>1024</v>
       </c>
       <c r="F1179" t="s">
-        <v>185</v>
+        <v>1025</v>
       </c>
       <c r="G1179" t="s">
         <v>13</v>
@@ -37062,10 +37071,10 @@
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B1180" s="1">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C1180" t="s">
         <v>412</v>
@@ -37074,13 +37083,13 @@
         <v>1023</v>
       </c>
       <c r="E1180" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F1180" t="s">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="G1180" t="s">
-        <v>904</v>
+        <v>13</v>
       </c>
       <c r="H1180" t="s">
         <v>46</v>
@@ -37088,10 +37097,10 @@
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1181" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B1181" s="1">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C1181" t="s">
         <v>412</v>
@@ -37100,13 +37109,13 @@
         <v>1023</v>
       </c>
       <c r="E1181" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F1181" t="s">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="G1181" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H1181" t="s">
         <v>46</v>
@@ -37114,10 +37123,10 @@
     </row>
     <row r="1182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B1182" s="1">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C1182" t="s">
         <v>412</v>
@@ -37126,13 +37135,13 @@
         <v>1023</v>
       </c>
       <c r="E1182" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F1182" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="G1182" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H1182" t="s">
         <v>46</v>
@@ -37155,10 +37164,10 @@
         <v>1026</v>
       </c>
       <c r="F1183" t="s">
-        <v>21</v>
+        <v>1027</v>
       </c>
       <c r="G1183" t="s">
-        <v>13</v>
+        <v>904</v>
       </c>
       <c r="H1183" t="s">
         <v>46</v>
@@ -37181,13 +37190,13 @@
         <v>1026</v>
       </c>
       <c r="F1184" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G1184" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="H1184" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
@@ -37207,10 +37216,10 @@
         <v>1026</v>
       </c>
       <c r="F1185" t="s">
-        <v>591</v>
+        <v>110</v>
       </c>
       <c r="G1185" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="H1185" t="s">
         <v>46</v>
@@ -37233,13 +37242,13 @@
         <v>1026</v>
       </c>
       <c r="F1186" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="G1186" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1186" t="s">
-        <v>513</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1187" spans="1:8" x14ac:dyDescent="0.25">
@@ -37259,13 +37268,13 @@
         <v>1026</v>
       </c>
       <c r="F1187" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G1187" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H1187" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1188" spans="1:8" x14ac:dyDescent="0.25">
@@ -37285,10 +37294,10 @@
         <v>1026</v>
       </c>
       <c r="F1188" t="s">
-        <v>117</v>
+        <v>591</v>
       </c>
       <c r="G1188" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1188" t="s">
         <v>46</v>
@@ -37311,13 +37320,13 @@
         <v>1026</v>
       </c>
       <c r="F1189" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="G1189" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H1189" t="s">
-        <v>46</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1190" spans="1:8" x14ac:dyDescent="0.25">
@@ -37327,7 +37336,7 @@
       <c r="B1190" s="1">
         <v>1988</v>
       </c>
-      <c r="C1190" s="6" t="s">
+      <c r="C1190" t="s">
         <v>412</v>
       </c>
       <c r="D1190" s="5" t="s">
@@ -37337,13 +37346,13 @@
         <v>1026</v>
       </c>
       <c r="F1190" t="s">
-        <v>396</v>
+        <v>54</v>
       </c>
       <c r="G1190" t="s">
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="H1190" t="s">
-        <v>1068</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1191" spans="1:8" x14ac:dyDescent="0.25">
@@ -37363,10 +37372,10 @@
         <v>1026</v>
       </c>
       <c r="F1191" t="s">
-        <v>1018</v>
+        <v>117</v>
       </c>
       <c r="G1191" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="H1191" t="s">
         <v>46</v>
@@ -37389,10 +37398,10 @@
         <v>1026</v>
       </c>
       <c r="F1192" t="s">
-        <v>1025</v>
+        <v>122</v>
       </c>
       <c r="G1192" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1192" t="s">
         <v>46</v>
@@ -37405,7 +37414,7 @@
       <c r="B1193" s="1">
         <v>1988</v>
       </c>
-      <c r="C1193" t="s">
+      <c r="C1193" s="6" t="s">
         <v>412</v>
       </c>
       <c r="D1193" s="5" t="s">
@@ -37415,13 +37424,13 @@
         <v>1026</v>
       </c>
       <c r="F1193" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
       <c r="G1193" t="s">
-        <v>32</v>
+        <v>397</v>
       </c>
       <c r="H1193" t="s">
-        <v>46</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1194" spans="1:8" x14ac:dyDescent="0.25">
@@ -37441,13 +37450,13 @@
         <v>1026</v>
       </c>
       <c r="F1194" t="s">
-        <v>35</v>
+        <v>1018</v>
       </c>
       <c r="G1194" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="H1194" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1195" spans="1:8" x14ac:dyDescent="0.25">
@@ -37467,7 +37476,7 @@
         <v>1026</v>
       </c>
       <c r="F1195" t="s">
-        <v>124</v>
+        <v>1025</v>
       </c>
       <c r="G1195" t="s">
         <v>13</v>
@@ -37493,13 +37502,13 @@
         <v>1026</v>
       </c>
       <c r="F1196" t="s">
-        <v>1028</v>
+        <v>31</v>
       </c>
       <c r="G1196" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H1196" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1197" spans="1:8" x14ac:dyDescent="0.25">
@@ -37519,13 +37528,13 @@
         <v>1026</v>
       </c>
       <c r="F1197" t="s">
-        <v>1003</v>
+        <v>35</v>
       </c>
       <c r="G1197" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1197" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1198" spans="1:8" x14ac:dyDescent="0.25">
@@ -37545,13 +37554,13 @@
         <v>1026</v>
       </c>
       <c r="F1198" t="s">
-        <v>1015</v>
+        <v>124</v>
       </c>
       <c r="G1198" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1198" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1199" spans="1:8" x14ac:dyDescent="0.25">
@@ -37571,13 +37580,13 @@
         <v>1026</v>
       </c>
       <c r="F1199" t="s">
-        <v>61</v>
+        <v>1028</v>
       </c>
       <c r="G1199" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H1199" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1200" spans="1:8" x14ac:dyDescent="0.25">
@@ -37597,10 +37606,10 @@
         <v>1026</v>
       </c>
       <c r="F1200" t="s">
-        <v>359</v>
+        <v>1003</v>
       </c>
       <c r="G1200" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1200" t="s">
         <v>46</v>
@@ -37623,13 +37632,13 @@
         <v>1026</v>
       </c>
       <c r="F1201" t="s">
-        <v>128</v>
+        <v>1015</v>
       </c>
       <c r="G1201" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="H1201" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1202" spans="1:8" x14ac:dyDescent="0.25">
@@ -37649,13 +37658,13 @@
         <v>1026</v>
       </c>
       <c r="F1202" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G1202" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H1202" t="s">
-        <v>513</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1203" spans="1:8" x14ac:dyDescent="0.25">
@@ -37675,10 +37684,10 @@
         <v>1026</v>
       </c>
       <c r="F1203" t="s">
-        <v>185</v>
+        <v>359</v>
       </c>
       <c r="G1203" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1203" t="s">
         <v>46</v>
@@ -37689,7 +37698,7 @@
         <v>1973</v>
       </c>
       <c r="B1204" s="1">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="C1204" t="s">
         <v>412</v>
@@ -37698,13 +37707,13 @@
         <v>1023</v>
       </c>
       <c r="E1204" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F1204" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G1204" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1204" t="s">
         <v>46</v>
@@ -37712,45 +37721,45 @@
     </row>
     <row r="1205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
-        <v>1959</v>
+        <v>1973</v>
       </c>
       <c r="B1205" s="1">
-        <v>1972</v>
+        <v>1988</v>
       </c>
       <c r="C1205" t="s">
         <v>412</v>
       </c>
       <c r="D1205" s="5" t="s">
-        <v>999</v>
+        <v>1023</v>
       </c>
       <c r="E1205" s="5" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="F1205" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="G1205" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H1205" t="s">
-        <v>46</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
-        <v>1959</v>
+        <v>1973</v>
       </c>
       <c r="B1206" s="1">
-        <v>1972</v>
+        <v>1988</v>
       </c>
       <c r="C1206" t="s">
         <v>412</v>
       </c>
       <c r="D1206" s="5" t="s">
-        <v>999</v>
+        <v>1023</v>
       </c>
       <c r="E1206" s="5" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="F1206" t="s">
         <v>185</v>
@@ -37759,27 +37768,27 @@
         <v>13</v>
       </c>
       <c r="H1206" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
-        <v>1959</v>
+        <v>1973</v>
       </c>
       <c r="B1207" s="1">
-        <v>1972</v>
+        <v>1983</v>
       </c>
       <c r="C1207" t="s">
         <v>412</v>
       </c>
       <c r="D1207" s="5" t="s">
-        <v>999</v>
+        <v>1023</v>
       </c>
       <c r="E1207" s="5" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="F1207" t="s">
-        <v>441</v>
+        <v>124</v>
       </c>
       <c r="G1207" t="s">
         <v>13</v>
@@ -37802,21 +37811,21 @@
         <v>999</v>
       </c>
       <c r="E1208" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F1208" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="G1208" t="s">
         <v>13</v>
       </c>
       <c r="H1208" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1209" s="1">
         <v>1972</v>
@@ -37828,21 +37837,21 @@
         <v>999</v>
       </c>
       <c r="E1209" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F1209" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="G1209" t="s">
         <v>13</v>
       </c>
       <c r="H1209" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1210" s="1">
         <v>1972</v>
@@ -37854,21 +37863,21 @@
         <v>999</v>
       </c>
       <c r="E1210" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F1210" t="s">
-        <v>223</v>
+        <v>441</v>
       </c>
       <c r="G1210" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="H1210" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1211" s="1">
         <v>1972</v>
@@ -37880,16 +37889,16 @@
         <v>999</v>
       </c>
       <c r="E1211" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F1211" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="G1211" t="s">
         <v>13</v>
       </c>
       <c r="H1211" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1212" spans="1:8" x14ac:dyDescent="0.25">
@@ -37909,7 +37918,7 @@
         <v>1002</v>
       </c>
       <c r="F1212" t="s">
-        <v>1003</v>
+        <v>117</v>
       </c>
       <c r="G1212" t="s">
         <v>13</v>
@@ -37935,13 +37944,13 @@
         <v>1002</v>
       </c>
       <c r="F1213" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="G1213" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="H1213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1214" spans="1:8" x14ac:dyDescent="0.25">
@@ -37961,18 +37970,18 @@
         <v>1002</v>
       </c>
       <c r="F1214" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="G1214" t="s">
         <v>13</v>
       </c>
       <c r="H1214" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1215" s="1">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1215" s="1">
         <v>1972</v>
@@ -37984,13 +37993,13 @@
         <v>999</v>
       </c>
       <c r="E1215" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F1215" t="s">
-        <v>110</v>
+        <v>1003</v>
       </c>
       <c r="G1215" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H1215" t="s">
         <v>46</v>
@@ -37998,7 +38007,7 @@
     </row>
     <row r="1216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1216" s="1">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1216" s="1">
         <v>1972</v>
@@ -38010,21 +38019,21 @@
         <v>999</v>
       </c>
       <c r="E1216" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F1216" t="s">
-        <v>603</v>
+        <v>128</v>
       </c>
       <c r="G1216" t="s">
-        <v>604</v>
+        <v>66</v>
       </c>
       <c r="H1216" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1217" s="1">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1217" s="1">
         <v>1972</v>
@@ -38036,16 +38045,16 @@
         <v>999</v>
       </c>
       <c r="E1217" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F1217" t="s">
-        <v>1006</v>
+        <v>185</v>
       </c>
       <c r="G1217" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1217" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1218" spans="1:8" x14ac:dyDescent="0.25">
@@ -38062,16 +38071,16 @@
         <v>999</v>
       </c>
       <c r="E1218" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F1218" t="s">
-        <v>1007</v>
+        <v>110</v>
       </c>
       <c r="G1218" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="H1218" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.25">
@@ -38088,13 +38097,13 @@
         <v>999</v>
       </c>
       <c r="E1219" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F1219" t="s">
-        <v>170</v>
+        <v>603</v>
       </c>
       <c r="G1219" t="s">
-        <v>196</v>
+        <v>604</v>
       </c>
       <c r="H1219" t="s">
         <v>46</v>
@@ -38117,10 +38126,10 @@
         <v>1005</v>
       </c>
       <c r="F1220" t="s">
-        <v>117</v>
+        <v>1006</v>
       </c>
       <c r="G1220" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1220" t="s">
         <v>46</v>
@@ -38143,13 +38152,13 @@
         <v>1005</v>
       </c>
       <c r="F1221" t="s">
-        <v>441</v>
+        <v>1007</v>
       </c>
       <c r="G1221" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1221" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1222" spans="1:8" x14ac:dyDescent="0.25">
@@ -38169,10 +38178,10 @@
         <v>1005</v>
       </c>
       <c r="F1222" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="G1222" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="H1222" t="s">
         <v>46</v>
@@ -38195,13 +38204,13 @@
         <v>1005</v>
       </c>
       <c r="F1223" t="s">
-        <v>394</v>
+        <v>117</v>
       </c>
       <c r="G1223" t="s">
-        <v>395</v>
+        <v>13</v>
       </c>
       <c r="H1223" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1224" spans="1:8" x14ac:dyDescent="0.25">
@@ -38221,13 +38230,13 @@
         <v>1005</v>
       </c>
       <c r="F1224" t="s">
-        <v>223</v>
+        <v>441</v>
       </c>
       <c r="G1224" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="H1224" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.25">
@@ -38247,13 +38256,13 @@
         <v>1005</v>
       </c>
       <c r="F1225" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G1225" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1225" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.25">
@@ -38273,10 +38282,10 @@
         <v>1005</v>
       </c>
       <c r="F1226" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
       <c r="G1226" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="H1226" t="s">
         <v>18</v>
@@ -38299,36 +38308,36 @@
         <v>1005</v>
       </c>
       <c r="F1227" t="s">
-        <v>1008</v>
+        <v>223</v>
       </c>
       <c r="G1227" t="s">
-        <v>984</v>
+        <v>192</v>
       </c>
       <c r="H1227" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1228" s="1">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="B1228" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1228" t="s">
         <v>412</v>
       </c>
       <c r="D1228" s="5" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="E1228" s="5" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F1228" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="G1228" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H1228" t="s">
         <v>18</v>
@@ -38336,51 +38345,51 @@
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1229" s="1">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="B1229" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1229" t="s">
         <v>412</v>
       </c>
       <c r="D1229" s="5" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="E1229" s="5" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F1229" t="s">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="G1229" t="s">
         <v>13</v>
       </c>
       <c r="H1229" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1230" s="1">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="B1230" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1230" t="s">
         <v>412</v>
       </c>
       <c r="D1230" s="5" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="E1230" s="5" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F1230" t="s">
-        <v>220</v>
+        <v>1008</v>
       </c>
       <c r="G1230" t="s">
-        <v>136</v>
+        <v>984</v>
       </c>
       <c r="H1230" t="s">
         <v>46</v>
@@ -38403,13 +38412,13 @@
         <v>1011</v>
       </c>
       <c r="F1231" t="s">
-        <v>1012</v>
+        <v>162</v>
       </c>
       <c r="G1231" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H1231" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.25">
@@ -38429,7 +38438,7 @@
         <v>1011</v>
       </c>
       <c r="F1232" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G1232" t="s">
         <v>13</v>
@@ -38455,10 +38464,10 @@
         <v>1011</v>
       </c>
       <c r="F1233" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="G1233" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H1233" t="s">
         <v>46</v>
@@ -38481,13 +38490,13 @@
         <v>1011</v>
       </c>
       <c r="F1234" t="s">
-        <v>124</v>
+        <v>1012</v>
       </c>
       <c r="G1234" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1234" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1235" spans="1:8" x14ac:dyDescent="0.25">
@@ -38507,10 +38516,10 @@
         <v>1011</v>
       </c>
       <c r="F1235" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="G1235" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1235" t="s">
         <v>46</v>
@@ -38533,10 +38542,10 @@
         <v>1011</v>
       </c>
       <c r="F1236" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="G1236" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="H1236" t="s">
         <v>46</v>
@@ -38559,21 +38568,21 @@
         <v>1011</v>
       </c>
       <c r="F1237" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="G1237" t="s">
         <v>13</v>
       </c>
       <c r="H1237" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1238" s="1">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B1238" s="1">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="C1238" t="s">
         <v>412</v>
@@ -38582,13 +38591,13 @@
         <v>1010</v>
       </c>
       <c r="E1238" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F1238" t="s">
-        <v>1014</v>
+        <v>359</v>
       </c>
       <c r="G1238" t="s">
-        <v>984</v>
+        <v>76</v>
       </c>
       <c r="H1238" t="s">
         <v>46</v>
@@ -38596,10 +38605,10 @@
     </row>
     <row r="1239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1239" s="1">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B1239" s="1">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="C1239" t="s">
         <v>412</v>
@@ -38608,24 +38617,24 @@
         <v>1010</v>
       </c>
       <c r="E1239" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F1239" t="s">
-        <v>1015</v>
+        <v>128</v>
       </c>
       <c r="G1239" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="H1239" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B1240" s="1">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C1240" t="s">
         <v>412</v>
@@ -38634,13 +38643,13 @@
         <v>1010</v>
       </c>
       <c r="E1240" s="5" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F1240" t="s">
-        <v>535</v>
+        <v>329</v>
       </c>
       <c r="G1240" t="s">
-        <v>537</v>
+        <v>13</v>
       </c>
       <c r="H1240" t="s">
         <v>46</v>
@@ -38648,10 +38657,10 @@
     </row>
     <row r="1241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1241" s="1">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C1241" t="s">
         <v>412</v>
@@ -38660,24 +38669,24 @@
         <v>1010</v>
       </c>
       <c r="E1241" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F1241" t="s">
-        <v>108</v>
+        <v>1014</v>
       </c>
       <c r="G1241" t="s">
-        <v>79</v>
+        <v>984</v>
       </c>
       <c r="H1241" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1242" s="1">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1242" s="1">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C1242" t="s">
         <v>412</v>
@@ -38686,16 +38695,16 @@
         <v>1010</v>
       </c>
       <c r="E1242" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F1242" t="s">
-        <v>110</v>
+        <v>1015</v>
       </c>
       <c r="G1242" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H1242" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.25">
@@ -38715,10 +38724,10 @@
         <v>1016</v>
       </c>
       <c r="F1243" t="s">
-        <v>1006</v>
+        <v>535</v>
       </c>
       <c r="G1243" t="s">
-        <v>76</v>
+        <v>537</v>
       </c>
       <c r="H1243" t="s">
         <v>46</v>
@@ -38741,13 +38750,13 @@
         <v>1016</v>
       </c>
       <c r="F1244" t="s">
-        <v>588</v>
+        <v>108</v>
       </c>
       <c r="G1244" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H1244" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1245" spans="1:8" x14ac:dyDescent="0.25">
@@ -38767,10 +38776,10 @@
         <v>1016</v>
       </c>
       <c r="F1245" t="s">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="G1245" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H1245" t="s">
         <v>46</v>
@@ -38793,13 +38802,13 @@
         <v>1016</v>
       </c>
       <c r="F1246" t="s">
-        <v>117</v>
+        <v>1006</v>
       </c>
       <c r="G1246" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1246" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
@@ -38819,13 +38828,13 @@
         <v>1016</v>
       </c>
       <c r="F1247" t="s">
-        <v>122</v>
+        <v>588</v>
       </c>
       <c r="G1247" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H1247" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
@@ -38845,13 +38854,13 @@
         <v>1016</v>
       </c>
       <c r="F1248" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="G1248" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="H1248" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1249" spans="1:8" x14ac:dyDescent="0.25">
@@ -38871,13 +38880,13 @@
         <v>1016</v>
       </c>
       <c r="F1249" t="s">
-        <v>1017</v>
+        <v>117</v>
       </c>
       <c r="G1249" t="s">
         <v>13</v>
       </c>
       <c r="H1249" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1250" spans="1:8" x14ac:dyDescent="0.25">
@@ -38897,13 +38906,13 @@
         <v>1016</v>
       </c>
       <c r="F1250" t="s">
-        <v>1015</v>
+        <v>122</v>
       </c>
       <c r="G1250" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="H1250" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1251" spans="1:8" x14ac:dyDescent="0.25">
@@ -38923,13 +38932,13 @@
         <v>1016</v>
       </c>
       <c r="F1251" t="s">
-        <v>359</v>
+        <v>1018</v>
       </c>
       <c r="G1251" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="H1251" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1252" spans="1:8" x14ac:dyDescent="0.25">
@@ -38949,10 +38958,10 @@
         <v>1016</v>
       </c>
       <c r="F1252" t="s">
-        <v>128</v>
+        <v>1017</v>
       </c>
       <c r="G1252" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H1252" t="s">
         <v>46</v>
@@ -38975,13 +38984,13 @@
         <v>1016</v>
       </c>
       <c r="F1253" t="s">
-        <v>329</v>
+        <v>1015</v>
       </c>
       <c r="G1253" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1253" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1254" spans="1:8" x14ac:dyDescent="0.25">
@@ -39001,10 +39010,10 @@
         <v>1016</v>
       </c>
       <c r="F1254" t="s">
-        <v>1019</v>
+        <v>359</v>
       </c>
       <c r="G1254" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1254" t="s">
         <v>46</v>
@@ -39012,10 +39021,10 @@
     </row>
     <row r="1255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1255" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1255" s="1">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="C1255" t="s">
         <v>412</v>
@@ -39024,13 +39033,13 @@
         <v>1010</v>
       </c>
       <c r="E1255" s="5" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F1255" t="s">
-        <v>1006</v>
+        <v>128</v>
       </c>
       <c r="G1255" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H1255" t="s">
         <v>46</v>
@@ -39038,10 +39047,10 @@
     </row>
     <row r="1256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1256" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1256" s="1">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="C1256" t="s">
         <v>412</v>
@@ -39050,24 +39059,24 @@
         <v>1010</v>
       </c>
       <c r="E1256" s="5" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F1256" t="s">
-        <v>1015</v>
+        <v>329</v>
       </c>
       <c r="G1256" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1256" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1257" s="1">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="B1257" s="1">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="C1257" t="s">
         <v>412</v>
@@ -39076,24 +39085,24 @@
         <v>1010</v>
       </c>
       <c r="E1257" s="5" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F1257" t="s">
-        <v>117</v>
+        <v>1019</v>
       </c>
       <c r="G1257" t="s">
         <v>13</v>
       </c>
       <c r="H1257" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1258" s="1">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="B1258" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C1258" t="s">
         <v>412</v>
@@ -39102,13 +39111,13 @@
         <v>1010</v>
       </c>
       <c r="E1258" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F1258" t="s">
-        <v>124</v>
+        <v>1006</v>
       </c>
       <c r="G1258" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1258" t="s">
         <v>46</v>
@@ -39116,85 +39125,85 @@
     </row>
     <row r="1259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1259" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B1259" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1259" s="6" t="s">
-        <v>407</v>
+        <v>1968</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>412</v>
       </c>
       <c r="D1259" s="5" t="s">
-        <v>1066</v>
+        <v>1010</v>
       </c>
       <c r="E1259" s="5" t="s">
-        <v>1066</v>
+        <v>1021</v>
       </c>
       <c r="F1259" t="s">
-        <v>1163</v>
+        <v>1015</v>
       </c>
       <c r="G1259" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="H1259" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1260" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B1260" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1260" s="6" t="s">
-        <v>407</v>
+        <v>1975</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>1982</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>412</v>
       </c>
       <c r="D1260" s="5" t="s">
-        <v>1066</v>
+        <v>1010</v>
       </c>
       <c r="E1260" s="5" t="s">
-        <v>1066</v>
+        <v>1022</v>
       </c>
       <c r="F1260" t="s">
-        <v>1199</v>
+        <v>117</v>
       </c>
       <c r="G1260" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1260" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1261" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B1261" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1261" s="6" t="s">
-        <v>407</v>
+        <v>1975</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>1982</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>412</v>
       </c>
       <c r="D1261" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>567</v>
+        <v>1010</v>
+      </c>
+      <c r="E1261" s="5" t="s">
+        <v>1022</v>
       </c>
       <c r="F1261" t="s">
-        <v>568</v>
+        <v>124</v>
       </c>
       <c r="G1261" t="s">
-        <v>569</v>
+        <v>13</v>
       </c>
       <c r="H1261" t="s">
-        <v>570</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1262" s="1">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B1262" s="1" t="s">
         <v>93</v>
@@ -39203,10 +39212,10 @@
         <v>407</v>
       </c>
       <c r="D1262" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E1262" t="s">
-        <v>567</v>
+        <v>1066</v>
+      </c>
+      <c r="E1262" s="5" t="s">
+        <v>1066</v>
       </c>
       <c r="F1262" t="s">
         <v>1163</v>
@@ -39220,7 +39229,7 @@
     </row>
     <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1263" s="1">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B1263" s="1" t="s">
         <v>93</v>
@@ -39229,16 +39238,16 @@
         <v>407</v>
       </c>
       <c r="D1263" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E1263" t="s">
-        <v>1164</v>
+        <v>1066</v>
+      </c>
+      <c r="E1263" s="5" t="s">
+        <v>1066</v>
       </c>
       <c r="F1263" t="s">
-        <v>1163</v>
+        <v>1199</v>
       </c>
       <c r="G1263" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H1263" t="s">
         <v>46</v>
@@ -39258,21 +39267,21 @@
         <v>566</v>
       </c>
       <c r="E1264" t="s">
-        <v>1164</v>
+        <v>567</v>
       </c>
       <c r="F1264" t="s">
-        <v>1200</v>
+        <v>568</v>
       </c>
       <c r="G1264" t="s">
-        <v>70</v>
+        <v>569</v>
       </c>
       <c r="H1264" t="s">
-        <v>46</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1265" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1265" s="1" t="s">
         <v>93</v>
@@ -39284,13 +39293,13 @@
         <v>566</v>
       </c>
       <c r="E1265" t="s">
-        <v>1162</v>
+        <v>567</v>
       </c>
       <c r="F1265" t="s">
-        <v>373</v>
+        <v>1163</v>
       </c>
       <c r="G1265" t="s">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="H1265" t="s">
         <v>46</v>
@@ -39298,7 +39307,7 @@
     </row>
     <row r="1266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1266" s="1" t="s">
         <v>93</v>
@@ -39310,13 +39319,13 @@
         <v>566</v>
       </c>
       <c r="E1266" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="F1266" t="s">
-        <v>59</v>
+        <v>1163</v>
       </c>
       <c r="G1266" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H1266" t="s">
         <v>46</v>
@@ -39324,7 +39333,7 @@
     </row>
     <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1267" s="1" t="s">
         <v>93</v>
@@ -39336,13 +39345,13 @@
         <v>566</v>
       </c>
       <c r="E1267" t="s">
-        <v>571</v>
+        <v>1164</v>
       </c>
       <c r="F1267" t="s">
-        <v>572</v>
+        <v>1200</v>
       </c>
       <c r="G1267" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H1267" t="s">
         <v>46</v>
@@ -39362,13 +39371,13 @@
         <v>566</v>
       </c>
       <c r="E1268" t="s">
-        <v>571</v>
+        <v>1162</v>
       </c>
       <c r="F1268" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G1268" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="H1268" t="s">
         <v>46</v>
@@ -39376,7 +39385,7 @@
     </row>
     <row r="1269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1269" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1269" s="1" t="s">
         <v>93</v>
@@ -39385,24 +39394,24 @@
         <v>407</v>
       </c>
       <c r="D1269" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E1269" t="s">
-        <v>574</v>
+        <v>1162</v>
       </c>
       <c r="F1269" t="s">
-        <v>1187</v>
+        <v>59</v>
       </c>
       <c r="G1269" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="H1269" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1270" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1270" s="1" t="s">
         <v>93</v>
@@ -39411,24 +39420,24 @@
         <v>407</v>
       </c>
       <c r="D1270" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E1270" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F1270" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G1270" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="H1270" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1271" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1271" s="1" t="s">
         <v>93</v>
@@ -39437,16 +39446,16 @@
         <v>407</v>
       </c>
       <c r="D1271" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E1271" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F1271" t="s">
-        <v>1214</v>
+        <v>309</v>
       </c>
       <c r="G1271" t="s">
-        <v>984</v>
+        <v>36</v>
       </c>
       <c r="H1271" t="s">
         <v>46</v>
@@ -39469,13 +39478,13 @@
         <v>574</v>
       </c>
       <c r="F1272" t="s">
-        <v>1119</v>
+        <v>1187</v>
       </c>
       <c r="G1272" t="s">
-        <v>942</v>
+        <v>139</v>
       </c>
       <c r="H1272" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
@@ -39495,10 +39504,10 @@
         <v>574</v>
       </c>
       <c r="F1273" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G1273" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H1273" t="s">
         <v>17</v>
@@ -39521,10 +39530,10 @@
         <v>574</v>
       </c>
       <c r="F1274" t="s">
-        <v>1188</v>
+        <v>1214</v>
       </c>
       <c r="G1274" t="s">
-        <v>70</v>
+        <v>984</v>
       </c>
       <c r="H1274" t="s">
         <v>46</v>
@@ -39547,10 +39556,10 @@
         <v>574</v>
       </c>
       <c r="F1275" t="s">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="G1275" t="s">
-        <v>140</v>
+        <v>942</v>
       </c>
       <c r="H1275" t="s">
         <v>46</v>
@@ -39573,13 +39582,13 @@
         <v>574</v>
       </c>
       <c r="F1276" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="G1276" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="H1276" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.25">
@@ -39599,13 +39608,13 @@
         <v>574</v>
       </c>
       <c r="F1277" t="s">
-        <v>577</v>
+        <v>1188</v>
       </c>
       <c r="G1277" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="H1277" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1278" spans="1:8" x14ac:dyDescent="0.25">
@@ -39622,16 +39631,16 @@
         <v>573</v>
       </c>
       <c r="E1278" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F1278" t="s">
-        <v>1187</v>
+        <v>1100</v>
       </c>
       <c r="G1278" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1278" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1279" spans="1:8" x14ac:dyDescent="0.25">
@@ -39648,16 +39657,16 @@
         <v>573</v>
       </c>
       <c r="E1279" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F1279" t="s">
-        <v>120</v>
+        <v>504</v>
       </c>
       <c r="G1279" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="H1279" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1280" spans="1:8" x14ac:dyDescent="0.25">
@@ -39674,16 +39683,16 @@
         <v>573</v>
       </c>
       <c r="E1280" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F1280" t="s">
-        <v>1209</v>
+        <v>577</v>
       </c>
       <c r="G1280" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="H1280" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1281" spans="1:8" x14ac:dyDescent="0.25">
@@ -39703,13 +39712,13 @@
         <v>579</v>
       </c>
       <c r="F1281" t="s">
-        <v>1163</v>
+        <v>1187</v>
       </c>
       <c r="G1281" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="H1281" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1282" spans="1:8" x14ac:dyDescent="0.25">
@@ -39729,13 +39738,13 @@
         <v>579</v>
       </c>
       <c r="F1282" t="s">
-        <v>1176</v>
+        <v>120</v>
       </c>
       <c r="G1282" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H1282" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1283" spans="1:8" x14ac:dyDescent="0.25">
@@ -39755,10 +39764,10 @@
         <v>579</v>
       </c>
       <c r="F1283" t="s">
-        <v>1188</v>
+        <v>1209</v>
       </c>
       <c r="G1283" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H1283" t="s">
         <v>46</v>
@@ -39781,10 +39790,10 @@
         <v>579</v>
       </c>
       <c r="F1284" t="s">
-        <v>1100</v>
+        <v>1163</v>
       </c>
       <c r="G1284" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H1284" t="s">
         <v>46</v>
@@ -39807,10 +39816,10 @@
         <v>579</v>
       </c>
       <c r="F1285" t="s">
-        <v>504</v>
+        <v>1176</v>
       </c>
       <c r="G1285" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="H1285" t="s">
         <v>46</v>
@@ -39818,7 +39827,7 @@
     </row>
     <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1286" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1286" s="1" t="s">
         <v>93</v>
@@ -39830,16 +39839,16 @@
         <v>573</v>
       </c>
       <c r="E1286" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F1286" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G1286" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="H1286" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1287" spans="1:8" x14ac:dyDescent="0.25">
@@ -39856,13 +39865,13 @@
         <v>573</v>
       </c>
       <c r="E1287" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F1287" t="s">
-        <v>572</v>
+        <v>1100</v>
       </c>
       <c r="G1287" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1287" t="s">
         <v>46</v>
@@ -39882,21 +39891,21 @@
         <v>573</v>
       </c>
       <c r="E1288" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F1288" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
       <c r="G1288" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="H1288" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1289" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1289" s="1" t="s">
         <v>93</v>
@@ -39907,17 +39916,17 @@
       <c r="D1289" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E1289" s="5" t="s">
+      <c r="E1289" t="s">
         <v>580</v>
       </c>
       <c r="F1289" t="s">
-        <v>1069</v>
+        <v>1187</v>
       </c>
       <c r="G1289" t="s">
-        <v>863</v>
+        <v>139</v>
       </c>
       <c r="H1289" t="s">
-        <v>1068</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
@@ -39933,14 +39942,14 @@
       <c r="D1290" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E1290" s="5" t="s">
+      <c r="E1290" t="s">
         <v>580</v>
       </c>
       <c r="F1290" t="s">
-        <v>1163</v>
+        <v>572</v>
       </c>
       <c r="G1290" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="H1290" t="s">
         <v>46</v>
@@ -39963,10 +39972,10 @@
         <v>580</v>
       </c>
       <c r="F1291" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G1291" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="H1291" t="s">
         <v>17</v>
@@ -39985,22 +39994,22 @@
       <c r="D1292" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E1292" t="s">
+      <c r="E1292" s="5" t="s">
         <v>580</v>
       </c>
       <c r="F1292" t="s">
-        <v>1179</v>
+        <v>1069</v>
       </c>
       <c r="G1292" t="s">
-        <v>137</v>
+        <v>863</v>
       </c>
       <c r="H1292" t="s">
-        <v>46</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1293" s="1" t="s">
         <v>93</v>
@@ -40011,22 +40020,22 @@
       <c r="D1293" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E1293" t="s">
-        <v>585</v>
+      <c r="E1293" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="F1293" t="s">
-        <v>59</v>
+        <v>1163</v>
       </c>
       <c r="G1293" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H1293" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1294" s="1" t="s">
         <v>93</v>
@@ -40038,21 +40047,21 @@
         <v>573</v>
       </c>
       <c r="E1294" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F1294" t="s">
-        <v>285</v>
+        <v>582</v>
       </c>
       <c r="G1294" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="H1294" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1295" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1295" s="1" t="s">
         <v>93</v>
@@ -40064,13 +40073,13 @@
         <v>573</v>
       </c>
       <c r="E1295" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F1295" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
       <c r="G1295" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="H1295" t="s">
         <v>46</v>
@@ -40090,16 +40099,16 @@
         <v>573</v>
       </c>
       <c r="E1296" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F1296" t="s">
-        <v>1158</v>
+        <v>59</v>
       </c>
       <c r="G1296" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H1296" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1297" spans="1:8" x14ac:dyDescent="0.25">
@@ -40119,10 +40128,10 @@
         <v>584</v>
       </c>
       <c r="F1297" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="G1297" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H1297" t="s">
         <v>46</v>
@@ -40145,10 +40154,10 @@
         <v>584</v>
       </c>
       <c r="F1298" t="s">
-        <v>373</v>
+        <v>1157</v>
       </c>
       <c r="G1298" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="H1298" t="s">
         <v>46</v>
@@ -40171,10 +40180,10 @@
         <v>584</v>
       </c>
       <c r="F1299" t="s">
-        <v>309</v>
+        <v>1158</v>
       </c>
       <c r="G1299" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H1299" t="s">
         <v>46</v>
@@ -40197,10 +40206,10 @@
         <v>584</v>
       </c>
       <c r="F1300" t="s">
-        <v>1156</v>
+        <v>111</v>
       </c>
       <c r="G1300" t="s">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="H1300" t="s">
         <v>46</v>
@@ -40223,13 +40232,13 @@
         <v>584</v>
       </c>
       <c r="F1301" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G1301" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="H1301" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1302" spans="1:8" x14ac:dyDescent="0.25">
@@ -40249,13 +40258,13 @@
         <v>584</v>
       </c>
       <c r="F1302" t="s">
-        <v>31</v>
+        <v>309</v>
       </c>
       <c r="G1302" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1302" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
@@ -40271,17 +40280,17 @@
       <c r="D1303" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E1303" s="5" t="s">
+      <c r="E1303" t="s">
         <v>584</v>
       </c>
       <c r="F1303" t="s">
-        <v>1076</v>
+        <v>1156</v>
       </c>
       <c r="G1303" t="s">
-        <v>928</v>
+        <v>382</v>
       </c>
       <c r="H1303" t="s">
-        <v>1068</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
@@ -40298,13 +40307,13 @@
         <v>573</v>
       </c>
       <c r="E1304" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F1304" t="s">
-        <v>268</v>
+        <v>398</v>
       </c>
       <c r="G1304" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="H1304" t="s">
         <v>17</v>
@@ -40312,80 +40321,80 @@
     </row>
     <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B1305" s="1">
-        <v>1997</v>
+        <v>2005</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1305" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1305" s="5" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="E1305" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F1305" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="G1305" t="s">
         <v>32</v>
       </c>
       <c r="H1305" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B1306" s="1">
-        <v>1997</v>
+        <v>2005</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1306" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1306" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1306" t="s">
-        <v>589</v>
+        <v>573</v>
+      </c>
+      <c r="E1306" s="5" t="s">
+        <v>584</v>
       </c>
       <c r="F1306" t="s">
-        <v>285</v>
+        <v>1076</v>
       </c>
       <c r="G1306" t="s">
-        <v>136</v>
+        <v>928</v>
       </c>
       <c r="H1306" t="s">
-        <v>46</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B1307" s="1">
-        <v>1997</v>
+        <v>2005</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1307" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1307" s="5" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="E1307" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F1307" t="s">
-        <v>1170</v>
+        <v>268</v>
       </c>
       <c r="G1307" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H1307" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
@@ -40405,13 +40414,13 @@
         <v>589</v>
       </c>
       <c r="F1308" t="s">
-        <v>499</v>
+        <v>105</v>
       </c>
       <c r="G1308" t="s">
-        <v>502</v>
+        <v>32</v>
       </c>
       <c r="H1308" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.25">
@@ -40431,10 +40440,10 @@
         <v>589</v>
       </c>
       <c r="F1309" t="s">
-        <v>587</v>
+        <v>285</v>
       </c>
       <c r="G1309" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="H1309" t="s">
         <v>46</v>
@@ -40457,10 +40466,10 @@
         <v>589</v>
       </c>
       <c r="F1310" t="s">
-        <v>562</v>
+        <v>1170</v>
       </c>
       <c r="G1310" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="H1310" t="s">
         <v>46</v>
@@ -40483,10 +40492,10 @@
         <v>589</v>
       </c>
       <c r="F1311" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="G1311" t="s">
-        <v>97</v>
+        <v>502</v>
       </c>
       <c r="H1311" t="s">
         <v>17</v>
@@ -40509,10 +40518,10 @@
         <v>589</v>
       </c>
       <c r="F1312" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G1312" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="H1312" t="s">
         <v>46</v>
@@ -40535,10 +40544,10 @@
         <v>589</v>
       </c>
       <c r="F1313" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="G1313" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="H1313" t="s">
         <v>46</v>
@@ -40561,13 +40570,13 @@
         <v>589</v>
       </c>
       <c r="F1314" t="s">
-        <v>1171</v>
+        <v>590</v>
       </c>
       <c r="G1314" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H1314" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1315" spans="1:8" x14ac:dyDescent="0.25">
@@ -40587,10 +40596,10 @@
         <v>589</v>
       </c>
       <c r="F1315" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G1315" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1315" t="s">
         <v>46</v>
@@ -40613,13 +40622,13 @@
         <v>589</v>
       </c>
       <c r="F1316" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G1316" t="s">
-        <v>597</v>
+        <v>36</v>
       </c>
       <c r="H1316" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.25">
@@ -40638,14 +40647,14 @@
       <c r="E1317" t="s">
         <v>589</v>
       </c>
-      <c r="F1317" s="11" t="s">
-        <v>600</v>
+      <c r="F1317" t="s">
+        <v>1171</v>
       </c>
       <c r="G1317" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="H1317" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1318" spans="1:8" x14ac:dyDescent="0.25">
@@ -40664,8 +40673,8 @@
       <c r="E1318" t="s">
         <v>589</v>
       </c>
-      <c r="F1318" s="11" t="s">
-        <v>1172</v>
+      <c r="F1318" t="s">
+        <v>592</v>
       </c>
       <c r="G1318" t="s">
         <v>32</v>
@@ -40691,13 +40700,13 @@
         <v>589</v>
       </c>
       <c r="F1319" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G1319" t="s">
-        <v>76</v>
+        <v>597</v>
       </c>
       <c r="H1319" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1320" spans="1:8" x14ac:dyDescent="0.25">
@@ -40716,14 +40725,14 @@
       <c r="E1320" t="s">
         <v>589</v>
       </c>
-      <c r="F1320" t="s">
-        <v>594</v>
+      <c r="F1320" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="G1320" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="H1320" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1321" spans="1:8" x14ac:dyDescent="0.25">
@@ -40742,14 +40751,14 @@
       <c r="E1321" t="s">
         <v>589</v>
       </c>
-      <c r="F1321" t="s">
-        <v>1173</v>
+      <c r="F1321" s="11" t="s">
+        <v>1172</v>
       </c>
       <c r="G1321" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H1321" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1322" spans="1:8" x14ac:dyDescent="0.25">
@@ -40769,10 +40778,10 @@
         <v>589</v>
       </c>
       <c r="F1322" t="s">
-        <v>56</v>
+        <v>599</v>
       </c>
       <c r="G1322" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H1322" t="s">
         <v>46</v>
@@ -40795,13 +40804,13 @@
         <v>589</v>
       </c>
       <c r="F1323" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="G1323" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="H1323" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
@@ -40821,13 +40830,13 @@
         <v>589</v>
       </c>
       <c r="F1324" t="s">
-        <v>743</v>
+        <v>1173</v>
       </c>
       <c r="G1324" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="H1324" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
@@ -40847,10 +40856,10 @@
         <v>589</v>
       </c>
       <c r="F1325" t="s">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="G1325" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="H1325" t="s">
         <v>46</v>
@@ -40873,13 +40882,13 @@
         <v>589</v>
       </c>
       <c r="F1326" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G1326" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1326" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
@@ -40899,18 +40908,18 @@
         <v>589</v>
       </c>
       <c r="F1327" t="s">
-        <v>128</v>
+        <v>743</v>
       </c>
       <c r="G1327" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="H1327" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1328" s="1">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B1328" s="1">
         <v>1997</v>
@@ -40919,16 +40928,16 @@
         <v>408</v>
       </c>
       <c r="D1328" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E1328" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F1328" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="G1328" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="H1328" t="s">
         <v>46</v>
@@ -40936,7 +40945,7 @@
     </row>
     <row r="1329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1329" s="1">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B1329" s="1">
         <v>1997</v>
@@ -40945,24 +40954,24 @@
         <v>408</v>
       </c>
       <c r="D1329" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E1329" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F1329" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="G1329" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H1329" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1330" s="1">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B1330" s="1">
         <v>1997</v>
@@ -40971,19 +40980,19 @@
         <v>408</v>
       </c>
       <c r="D1330" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E1330" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F1330" t="s">
-        <v>588</v>
+        <v>128</v>
       </c>
       <c r="G1330" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1330" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1331" spans="1:8" x14ac:dyDescent="0.25">
@@ -41003,13 +41012,13 @@
         <v>586</v>
       </c>
       <c r="F1331" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G1331" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H1331" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
@@ -41029,91 +41038,91 @@
         <v>586</v>
       </c>
       <c r="F1332" t="s">
-        <v>400</v>
+        <v>562</v>
       </c>
       <c r="G1332" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="H1332" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1333" s="1">
-        <v>1967</v>
+        <v>1992</v>
       </c>
       <c r="B1333" s="1">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C1333" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D1333" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1333" s="5" t="s">
-        <v>998</v>
+        <v>586</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>586</v>
       </c>
       <c r="F1333" t="s">
-        <v>158</v>
+        <v>588</v>
       </c>
       <c r="G1333" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H1333" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1334" s="1">
-        <v>1967</v>
+        <v>1992</v>
       </c>
       <c r="B1334" s="1">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C1334" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D1334" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1334" s="5" t="s">
-        <v>998</v>
+        <v>586</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>586</v>
       </c>
       <c r="F1334" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="G1334" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="H1334" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1335" s="1">
-        <v>1967</v>
+        <v>1992</v>
       </c>
       <c r="B1335" s="1">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C1335" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D1335" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1335" s="5" t="s">
-        <v>998</v>
+        <v>586</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>586</v>
       </c>
       <c r="F1335" t="s">
-        <v>603</v>
+        <v>400</v>
       </c>
       <c r="G1335" t="s">
-        <v>604</v>
+        <v>203</v>
       </c>
       <c r="H1335" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
@@ -41133,13 +41142,13 @@
         <v>998</v>
       </c>
       <c r="F1336" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="G1336" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1336" t="s">
-        <v>1132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
@@ -41159,13 +41168,13 @@
         <v>998</v>
       </c>
       <c r="F1337" t="s">
-        <v>1133</v>
+        <v>602</v>
       </c>
       <c r="G1337" t="s">
-        <v>1153</v>
+        <v>258</v>
       </c>
       <c r="H1337" t="s">
-        <v>1132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
@@ -41185,13 +41194,13 @@
         <v>998</v>
       </c>
       <c r="F1338" t="s">
-        <v>398</v>
+        <v>603</v>
       </c>
       <c r="G1338" t="s">
-        <v>399</v>
+        <v>604</v>
       </c>
       <c r="H1338" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
@@ -41211,108 +41220,108 @@
         <v>998</v>
       </c>
       <c r="F1339" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1339" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1339" t="s">
-        <v>151</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1340" s="1">
+        <v>1967</v>
+      </c>
       <c r="B1340" s="1">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="C1340" s="6" t="s">
         <v>410</v>
       </c>
       <c r="D1340" s="5" t="s">
-        <v>1211</v>
+        <v>601</v>
       </c>
       <c r="E1340" s="5" t="s">
-        <v>1211</v>
+        <v>998</v>
       </c>
       <c r="F1340" t="s">
-        <v>1212</v>
+        <v>1133</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B1341" s="1">
-        <v>1979</v>
+        <v>1995</v>
       </c>
       <c r="C1341" s="6" t="s">
-        <v>1062</v>
+        <v>410</v>
       </c>
       <c r="D1341" s="5" t="s">
-        <v>1063</v>
+        <v>601</v>
       </c>
       <c r="E1341" s="5" t="s">
-        <v>1064</v>
+        <v>998</v>
       </c>
       <c r="F1341" t="s">
-        <v>1065</v>
+        <v>398</v>
       </c>
       <c r="G1341" t="s">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="H1341" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B1342" s="1">
-        <v>1979</v>
+        <v>1995</v>
       </c>
       <c r="C1342" s="6" t="s">
-        <v>1062</v>
+        <v>410</v>
       </c>
       <c r="D1342" s="5" t="s">
-        <v>1063</v>
+        <v>601</v>
       </c>
       <c r="E1342" s="5" t="s">
-        <v>1064</v>
+        <v>998</v>
       </c>
       <c r="F1342" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G1342" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H1342" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1343" s="1">
-        <v>1945</v>
-      </c>
       <c r="B1343" s="1">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C1343" s="6" t="s">
-        <v>1062</v>
+        <v>410</v>
       </c>
       <c r="D1343" s="5" t="s">
-        <v>1063</v>
+        <v>1211</v>
       </c>
       <c r="E1343" s="5" t="s">
-        <v>1064</v>
+        <v>1211</v>
       </c>
       <c r="F1343" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1343" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H1343" t="s">
-        <v>46</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
@@ -41332,13 +41341,13 @@
         <v>1064</v>
       </c>
       <c r="F1344" t="s">
-        <v>1154</v>
+        <v>1065</v>
       </c>
       <c r="G1344" t="s">
         <v>13</v>
       </c>
       <c r="H1344" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
@@ -41358,10 +41367,10 @@
         <v>1064</v>
       </c>
       <c r="F1345" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="G1345" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="H1345" t="s">
         <v>46</v>
@@ -41384,36 +41393,36 @@
         <v>1064</v>
       </c>
       <c r="F1346" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G1346" t="s">
-        <v>13</v>
+        <v>1155</v>
       </c>
       <c r="H1346" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
-        <v>1988</v>
+        <v>1945</v>
       </c>
       <c r="B1347" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1347" t="s">
-        <v>412</v>
+        <v>1979</v>
+      </c>
+      <c r="C1347" s="6" t="s">
+        <v>1062</v>
       </c>
       <c r="D1347" s="5" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="E1347" s="5" t="s">
-        <v>1030</v>
+        <v>1064</v>
       </c>
       <c r="F1347" t="s">
-        <v>110</v>
+        <v>1154</v>
       </c>
       <c r="G1347" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H1347" t="s">
         <v>46</v>
@@ -41421,25 +41430,25 @@
     </row>
     <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
-        <v>1988</v>
+        <v>1945</v>
       </c>
       <c r="B1348" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1348" t="s">
-        <v>412</v>
+        <v>1979</v>
+      </c>
+      <c r="C1348" s="6" t="s">
+        <v>1062</v>
       </c>
       <c r="D1348" s="5" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="E1348" s="5" t="s">
-        <v>1030</v>
+        <v>1064</v>
       </c>
       <c r="F1348" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="G1348" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H1348" t="s">
         <v>46</v>
@@ -41447,25 +41456,25 @@
     </row>
     <row r="1349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <v>1988</v>
+        <v>1945</v>
       </c>
       <c r="B1349" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1349" t="s">
-        <v>412</v>
+        <v>1979</v>
+      </c>
+      <c r="C1349" s="6" t="s">
+        <v>1062</v>
       </c>
       <c r="D1349" s="5" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="E1349" s="5" t="s">
-        <v>1030</v>
+        <v>1064</v>
       </c>
       <c r="F1349" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="G1349" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1349" t="s">
         <v>17</v>
@@ -41488,10 +41497,10 @@
         <v>1030</v>
       </c>
       <c r="F1350" t="s">
-        <v>429</v>
+        <v>110</v>
       </c>
       <c r="G1350" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="H1350" t="s">
         <v>46</v>
@@ -41514,13 +41523,13 @@
         <v>1030</v>
       </c>
       <c r="F1351" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="G1351" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="H1351" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
@@ -41540,13 +41549,13 @@
         <v>1030</v>
       </c>
       <c r="F1352" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G1352" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="H1352" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
@@ -41566,10 +41575,10 @@
         <v>1030</v>
       </c>
       <c r="F1353" t="s">
-        <v>1031</v>
+        <v>429</v>
       </c>
       <c r="G1353" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="H1353" t="s">
         <v>46</v>
@@ -41592,13 +41601,13 @@
         <v>1030</v>
       </c>
       <c r="F1354" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="G1354" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="H1354" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
@@ -41615,16 +41624,16 @@
         <v>1030</v>
       </c>
       <c r="E1355" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F1355" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G1355" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1355" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
@@ -41641,16 +41650,16 @@
         <v>1030</v>
       </c>
       <c r="E1356" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F1356" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G1356" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="H1356" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1357" spans="1:8" x14ac:dyDescent="0.25">
@@ -41667,16 +41676,16 @@
         <v>1030</v>
       </c>
       <c r="E1357" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F1357" t="s">
-        <v>473</v>
+        <v>39</v>
       </c>
       <c r="G1357" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="H1357" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1358" spans="1:8" x14ac:dyDescent="0.25">
@@ -41696,7 +41705,7 @@
         <v>1032</v>
       </c>
       <c r="F1358" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1358" t="s">
         <v>13</v>
@@ -41707,25 +41716,25 @@
     </row>
     <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1359" s="1">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B1359" s="1">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="C1359" t="s">
         <v>412</v>
       </c>
       <c r="D1359" s="5" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E1359" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F1359" t="s">
-        <v>429</v>
+        <v>1033</v>
       </c>
       <c r="G1359" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H1359" t="s">
         <v>17</v>
@@ -41733,54 +41742,54 @@
     </row>
     <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1360" s="1">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B1360" s="1">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="C1360" t="s">
         <v>412</v>
       </c>
       <c r="D1360" s="5" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E1360" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F1360" t="s">
-        <v>1036</v>
+        <v>473</v>
       </c>
       <c r="G1360" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="H1360" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1361" s="1">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B1361" s="1">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="C1361" t="s">
         <v>412</v>
       </c>
       <c r="D1361" s="5" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E1361" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F1361" t="s">
-        <v>1017</v>
+        <v>15</v>
       </c>
       <c r="G1361" t="s">
         <v>13</v>
       </c>
       <c r="H1361" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1362" spans="1:8" x14ac:dyDescent="0.25">
@@ -41800,13 +41809,13 @@
         <v>1034</v>
       </c>
       <c r="F1362" t="s">
-        <v>1037</v>
+        <v>429</v>
       </c>
       <c r="G1362" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="H1362" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1363" spans="1:8" x14ac:dyDescent="0.25">
@@ -41826,13 +41835,13 @@
         <v>1034</v>
       </c>
       <c r="F1363" t="s">
-        <v>184</v>
+        <v>1036</v>
       </c>
       <c r="G1363" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H1363" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
@@ -41852,13 +41861,13 @@
         <v>1034</v>
       </c>
       <c r="F1364" t="s">
-        <v>128</v>
+        <v>1017</v>
       </c>
       <c r="G1364" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H1364" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
@@ -41878,21 +41887,21 @@
         <v>1034</v>
       </c>
       <c r="F1365" t="s">
-        <v>329</v>
+        <v>1037</v>
       </c>
       <c r="G1365" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1365" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1366" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1366" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1366" t="s">
         <v>412</v>
@@ -41901,24 +41910,24 @@
         <v>1035</v>
       </c>
       <c r="E1366" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F1366" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="G1366" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="H1366" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1367" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1367" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1367" t="s">
         <v>412</v>
@@ -41927,24 +41936,24 @@
         <v>1035</v>
       </c>
       <c r="E1367" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F1367" t="s">
-        <v>1039</v>
+        <v>128</v>
       </c>
       <c r="G1367" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1367" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1368" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1368" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1368" t="s">
         <v>412</v>
@@ -41953,16 +41962,16 @@
         <v>1035</v>
       </c>
       <c r="E1368" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F1368" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="G1368" t="s">
         <v>13</v>
       </c>
       <c r="H1368" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
@@ -41982,13 +41991,13 @@
         <v>1038</v>
       </c>
       <c r="F1369" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="G1369" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H1369" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
@@ -42008,13 +42017,13 @@
         <v>1038</v>
       </c>
       <c r="F1370" t="s">
-        <v>120</v>
+        <v>1039</v>
       </c>
       <c r="G1370" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1370" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
@@ -42034,13 +42043,13 @@
         <v>1038</v>
       </c>
       <c r="F1371" t="s">
-        <v>1040</v>
+        <v>21</v>
       </c>
       <c r="G1371" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1371" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
@@ -42060,13 +42069,13 @@
         <v>1038</v>
       </c>
       <c r="F1372" t="s">
-        <v>1041</v>
+        <v>325</v>
       </c>
       <c r="G1372" t="s">
-        <v>597</v>
+        <v>13</v>
       </c>
       <c r="H1372" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
@@ -42086,10 +42095,10 @@
         <v>1038</v>
       </c>
       <c r="F1373" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G1373" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H1373" t="s">
         <v>149</v>
@@ -42112,13 +42121,13 @@
         <v>1038</v>
       </c>
       <c r="F1374" t="s">
-        <v>381</v>
+        <v>1040</v>
       </c>
       <c r="G1374" t="s">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="H1374" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1375" spans="1:8" x14ac:dyDescent="0.25">
@@ -42138,13 +42147,13 @@
         <v>1038</v>
       </c>
       <c r="F1375" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="G1375" t="s">
-        <v>13</v>
+        <v>597</v>
       </c>
       <c r="H1375" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1376" spans="1:8" x14ac:dyDescent="0.25">
@@ -42164,10 +42173,10 @@
         <v>1038</v>
       </c>
       <c r="F1376" t="s">
-        <v>1037</v>
+        <v>124</v>
       </c>
       <c r="G1376" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1376" t="s">
         <v>149</v>
@@ -42190,10 +42199,10 @@
         <v>1038</v>
       </c>
       <c r="F1377" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="G1377" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="H1377" t="s">
         <v>46</v>
@@ -42216,13 +42225,13 @@
         <v>1038</v>
       </c>
       <c r="F1378" t="s">
-        <v>128</v>
+        <v>1017</v>
       </c>
       <c r="G1378" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H1378" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
@@ -42242,21 +42251,21 @@
         <v>1038</v>
       </c>
       <c r="F1379" t="s">
-        <v>329</v>
+        <v>1037</v>
       </c>
       <c r="G1379" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1379" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1380" s="1">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1380" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C1380" t="s">
         <v>412</v>
@@ -42265,24 +42274,24 @@
         <v>1035</v>
       </c>
       <c r="E1380" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F1380" t="s">
-        <v>1039</v>
+        <v>184</v>
       </c>
       <c r="G1380" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1380" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1381" s="1">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1381" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C1381" t="s">
         <v>412</v>
@@ -42291,24 +42300,24 @@
         <v>1035</v>
       </c>
       <c r="E1381" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F1381" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="G1381" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1381" t="s">
-        <v>513</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1382" s="1">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1382" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C1382" t="s">
         <v>412</v>
@@ -42317,13 +42326,13 @@
         <v>1035</v>
       </c>
       <c r="E1382" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F1382" t="s">
-        <v>1006</v>
+        <v>329</v>
       </c>
       <c r="G1382" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1382" t="s">
         <v>46</v>
@@ -42346,13 +42355,13 @@
         <v>1042</v>
       </c>
       <c r="F1383" t="s">
-        <v>120</v>
+        <v>1039</v>
       </c>
       <c r="G1383" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1383" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1384" spans="1:8" x14ac:dyDescent="0.25">
@@ -42372,13 +42381,13 @@
         <v>1042</v>
       </c>
       <c r="F1384" t="s">
-        <v>1040</v>
+        <v>21</v>
       </c>
       <c r="G1384" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1384" t="s">
-        <v>149</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1385" spans="1:8" x14ac:dyDescent="0.25">
@@ -42398,7 +42407,7 @@
         <v>1042</v>
       </c>
       <c r="F1385" t="s">
-        <v>122</v>
+        <v>1006</v>
       </c>
       <c r="G1385" t="s">
         <v>76</v>
@@ -42424,10 +42433,10 @@
         <v>1042</v>
       </c>
       <c r="F1386" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="G1386" t="s">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="H1386" t="s">
         <v>149</v>
@@ -42450,13 +42459,13 @@
         <v>1042</v>
       </c>
       <c r="F1387" t="s">
-        <v>180</v>
+        <v>1040</v>
       </c>
       <c r="G1387" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H1387" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
@@ -42476,13 +42485,13 @@
         <v>1042</v>
       </c>
       <c r="F1388" t="s">
-        <v>1037</v>
+        <v>122</v>
       </c>
       <c r="G1388" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="H1388" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
@@ -42502,13 +42511,13 @@
         <v>1042</v>
       </c>
       <c r="F1389" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="G1389" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="H1389" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
@@ -42528,10 +42537,10 @@
         <v>1042</v>
       </c>
       <c r="F1390" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="G1390" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H1390" t="s">
         <v>46</v>
@@ -42554,13 +42563,13 @@
         <v>1042</v>
       </c>
       <c r="F1391" t="s">
-        <v>291</v>
+        <v>1037</v>
       </c>
       <c r="G1391" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1391" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
@@ -42580,13 +42589,13 @@
         <v>1042</v>
       </c>
       <c r="F1392" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G1392" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1392" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1393" spans="1:8" x14ac:dyDescent="0.25">
@@ -42606,10 +42615,10 @@
         <v>1042</v>
       </c>
       <c r="F1393" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="G1393" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1393" t="s">
         <v>46</v>
@@ -42632,10 +42641,10 @@
         <v>1042</v>
       </c>
       <c r="F1394" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G1394" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1394" t="s">
         <v>46</v>
@@ -42643,10 +42652,10 @@
     </row>
     <row r="1395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1395" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1395" t="s">
         <v>412</v>
@@ -42655,24 +42664,24 @@
         <v>1035</v>
       </c>
       <c r="E1395" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1395" t="s">
-        <v>1039</v>
+        <v>128</v>
       </c>
       <c r="G1395" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1395" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1396" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1396" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1396" t="s">
         <v>412</v>
@@ -42681,24 +42690,24 @@
         <v>1035</v>
       </c>
       <c r="E1396" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1396" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G1396" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="H1396" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1397" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1397" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1397" t="s">
         <v>412</v>
@@ -42707,16 +42716,16 @@
         <v>1035</v>
       </c>
       <c r="E1397" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1397" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="G1397" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1397" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1398" spans="1:8" x14ac:dyDescent="0.25">
@@ -42736,21 +42745,21 @@
         <v>1043</v>
       </c>
       <c r="F1398" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="G1398" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1398" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1399" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1399" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1399" t="s">
         <v>412</v>
@@ -42759,24 +42768,24 @@
         <v>1035</v>
       </c>
       <c r="E1399" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1399" t="s">
-        <v>1039</v>
+        <v>120</v>
       </c>
       <c r="G1399" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H1399" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1400" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1400" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1400" t="s">
         <v>412</v>
@@ -42785,24 +42794,24 @@
         <v>1035</v>
       </c>
       <c r="E1400" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1400" t="s">
-        <v>1006</v>
+        <v>429</v>
       </c>
       <c r="G1400" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H1400" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1401" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1401" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1401" t="s">
         <v>412</v>
@@ -42811,16 +42820,16 @@
         <v>1035</v>
       </c>
       <c r="E1401" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1401" t="s">
-        <v>117</v>
+        <v>1037</v>
       </c>
       <c r="G1401" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1401" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1402" spans="1:8" x14ac:dyDescent="0.25">
@@ -42840,13 +42849,13 @@
         <v>1044</v>
       </c>
       <c r="F1402" t="s">
-        <v>122</v>
+        <v>1039</v>
       </c>
       <c r="G1402" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1402" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1403" spans="1:8" x14ac:dyDescent="0.25">
@@ -42866,10 +42875,10 @@
         <v>1044</v>
       </c>
       <c r="F1403" t="s">
-        <v>180</v>
+        <v>1006</v>
       </c>
       <c r="G1403" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1403" t="s">
         <v>46</v>
@@ -42877,80 +42886,80 @@
     </row>
     <row r="1404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1404" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1404" s="1">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C1404" t="s">
         <v>412</v>
       </c>
       <c r="D1404" s="5" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E1404" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F1404" t="s">
-        <v>311</v>
+        <v>117</v>
       </c>
       <c r="G1404" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1404" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1405" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1405" s="1">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C1405" t="s">
         <v>412</v>
       </c>
       <c r="D1405" s="5" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E1405" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F1405" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1405" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1405" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1406" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1406" s="1">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C1406" t="s">
         <v>412</v>
       </c>
       <c r="D1406" s="5" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E1406" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F1406" t="s">
-        <v>472</v>
+        <v>180</v>
       </c>
       <c r="G1406" t="s">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="H1406" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
@@ -42970,13 +42979,13 @@
         <v>1045</v>
       </c>
       <c r="F1407" t="s">
-        <v>1037</v>
+        <v>311</v>
       </c>
       <c r="G1407" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1407" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
@@ -42996,88 +43005,88 @@
         <v>1045</v>
       </c>
       <c r="F1408" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G1408" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H1408" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1409" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1409" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1409" s="6" t="s">
-        <v>411</v>
+        <v>2000</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>412</v>
       </c>
       <c r="D1409" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E1409" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F1409" t="s">
-        <v>158</v>
+        <v>472</v>
       </c>
       <c r="G1409" t="s">
-        <v>70</v>
+        <v>460</v>
       </c>
       <c r="H1409" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1410" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1410" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1410" s="6" t="s">
-        <v>411</v>
+        <v>2000</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>412</v>
       </c>
       <c r="D1410" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E1410" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F1410" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="G1410" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="H1410" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1411" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1411" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1411" s="6" t="s">
-        <v>411</v>
+        <v>2000</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>412</v>
       </c>
       <c r="D1411" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E1411" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F1411" t="s">
-        <v>602</v>
+        <v>68</v>
       </c>
       <c r="G1411" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="H1411" t="s">
         <v>46</v>
@@ -43100,7 +43109,7 @@
         <v>1049</v>
       </c>
       <c r="F1412" t="s">
-        <v>1147</v>
+        <v>158</v>
       </c>
       <c r="G1412" t="s">
         <v>70</v>
@@ -43126,10 +43135,10 @@
         <v>1049</v>
       </c>
       <c r="F1413" t="s">
-        <v>1148</v>
+        <v>1053</v>
       </c>
       <c r="G1413" t="s">
-        <v>1152</v>
+        <v>70</v>
       </c>
       <c r="H1413" t="s">
         <v>46</v>
@@ -43152,10 +43161,10 @@
         <v>1049</v>
       </c>
       <c r="F1414" t="s">
-        <v>1149</v>
+        <v>602</v>
       </c>
       <c r="G1414" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1414" t="s">
         <v>46</v>
@@ -43178,10 +43187,10 @@
         <v>1049</v>
       </c>
       <c r="F1415" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G1415" t="s">
-        <v>863</v>
+        <v>70</v>
       </c>
       <c r="H1415" t="s">
         <v>46</v>
@@ -43204,10 +43213,10 @@
         <v>1049</v>
       </c>
       <c r="F1416" t="s">
-        <v>373</v>
+        <v>1148</v>
       </c>
       <c r="G1416" t="s">
-        <v>379</v>
+        <v>1152</v>
       </c>
       <c r="H1416" t="s">
         <v>46</v>
@@ -43230,10 +43239,10 @@
         <v>1049</v>
       </c>
       <c r="F1417" t="s">
-        <v>82</v>
+        <v>1149</v>
       </c>
       <c r="G1417" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1417" t="s">
         <v>46</v>
@@ -43256,10 +43265,10 @@
         <v>1049</v>
       </c>
       <c r="F1418" t="s">
-        <v>1133</v>
+        <v>1150</v>
       </c>
       <c r="G1418" t="s">
-        <v>1153</v>
+        <v>863</v>
       </c>
       <c r="H1418" t="s">
         <v>46</v>
@@ -43282,10 +43291,10 @@
         <v>1049</v>
       </c>
       <c r="F1419" t="s">
-        <v>1151</v>
+        <v>373</v>
       </c>
       <c r="G1419" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="H1419" t="s">
         <v>46</v>
@@ -43308,13 +43317,13 @@
         <v>1049</v>
       </c>
       <c r="F1420" t="s">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="G1420" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="H1420" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1421" spans="1:8" x14ac:dyDescent="0.25">
@@ -43334,10 +43343,10 @@
         <v>1049</v>
       </c>
       <c r="F1421" t="s">
-        <v>400</v>
+        <v>1133</v>
       </c>
       <c r="G1421" t="s">
-        <v>203</v>
+        <v>1153</v>
       </c>
       <c r="H1421" t="s">
         <v>46</v>
@@ -43360,7 +43369,7 @@
         <v>1049</v>
       </c>
       <c r="F1422" t="s">
-        <v>125</v>
+        <v>1151</v>
       </c>
       <c r="G1422" t="s">
         <v>70</v>
@@ -43386,91 +43395,91 @@
         <v>1049</v>
       </c>
       <c r="F1423" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="G1423" t="s">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="H1423" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1424" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1424" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1424" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1424" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E1424" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F1424" t="s">
-        <v>1052</v>
+        <v>400</v>
       </c>
       <c r="G1424" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="H1424" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1425" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1425" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1425" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1425" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E1425" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F1425" t="s">
-        <v>1053</v>
+        <v>125</v>
       </c>
       <c r="G1425" t="s">
         <v>70</v>
       </c>
       <c r="H1425" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1426" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1426" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1426" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1426" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E1426" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F1426" t="s">
-        <v>1073</v>
+        <v>270</v>
       </c>
       <c r="G1426" t="s">
-        <v>938</v>
+        <v>70</v>
       </c>
       <c r="H1426" t="s">
-        <v>1068</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
@@ -43490,13 +43499,13 @@
         <v>1051</v>
       </c>
       <c r="F1427" t="s">
-        <v>1150</v>
+        <v>1052</v>
       </c>
       <c r="G1427" t="s">
-        <v>863</v>
+        <v>70</v>
       </c>
       <c r="H1427" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
@@ -43516,13 +43525,13 @@
         <v>1051</v>
       </c>
       <c r="F1428" t="s">
-        <v>1159</v>
+        <v>1053</v>
       </c>
       <c r="G1428" t="s">
-        <v>863</v>
+        <v>70</v>
       </c>
       <c r="H1428" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
@@ -43542,13 +43551,13 @@
         <v>1051</v>
       </c>
       <c r="F1429" t="s">
-        <v>1151</v>
+        <v>1073</v>
       </c>
       <c r="G1429" t="s">
-        <v>70</v>
+        <v>938</v>
       </c>
       <c r="H1429" t="s">
-        <v>151</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
@@ -43568,10 +43577,10 @@
         <v>1051</v>
       </c>
       <c r="F1430" t="s">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="G1430" t="s">
-        <v>203</v>
+        <v>863</v>
       </c>
       <c r="H1430" t="s">
         <v>46</v>
@@ -43594,10 +43603,10 @@
         <v>1051</v>
       </c>
       <c r="F1431" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G1431" t="s">
-        <v>203</v>
+        <v>863</v>
       </c>
       <c r="H1431" t="s">
         <v>46</v>
@@ -43620,10 +43629,10 @@
         <v>1051</v>
       </c>
       <c r="F1432" t="s">
-        <v>1054</v>
+        <v>1151</v>
       </c>
       <c r="G1432" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H1432" t="s">
         <v>151</v>
@@ -43646,10 +43655,10 @@
         <v>1051</v>
       </c>
       <c r="F1433" t="s">
-        <v>1161</v>
+        <v>400</v>
       </c>
       <c r="G1433" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H1433" t="s">
         <v>46</v>
@@ -43672,13 +43681,13 @@
         <v>1051</v>
       </c>
       <c r="F1434" t="s">
-        <v>504</v>
+        <v>1160</v>
       </c>
       <c r="G1434" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="H1434" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
@@ -43698,13 +43707,13 @@
         <v>1051</v>
       </c>
       <c r="F1435" t="s">
-        <v>1168</v>
+        <v>1054</v>
       </c>
       <c r="G1435" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H1435" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
@@ -43721,13 +43730,13 @@
         <v>1050</v>
       </c>
       <c r="E1436" s="5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F1436" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="G1436" t="s">
-        <v>863</v>
+        <v>85</v>
       </c>
       <c r="H1436" t="s">
         <v>46</v>
@@ -43747,16 +43756,16 @@
         <v>1050</v>
       </c>
       <c r="E1437" s="5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F1437" t="s">
-        <v>1147</v>
+        <v>504</v>
       </c>
       <c r="G1437" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1437" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
@@ -43773,13 +43782,13 @@
         <v>1050</v>
       </c>
       <c r="E1438" s="5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F1438" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G1438" t="s">
-        <v>863</v>
+        <v>70</v>
       </c>
       <c r="H1438" t="s">
         <v>46</v>
@@ -43802,10 +43811,10 @@
         <v>1055</v>
       </c>
       <c r="F1439" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="G1439" t="s">
-        <v>70</v>
+        <v>863</v>
       </c>
       <c r="H1439" t="s">
         <v>46</v>
@@ -43828,10 +43837,10 @@
         <v>1055</v>
       </c>
       <c r="F1440" t="s">
-        <v>373</v>
+        <v>1147</v>
       </c>
       <c r="G1440" t="s">
-        <v>379</v>
+        <v>70</v>
       </c>
       <c r="H1440" t="s">
         <v>46</v>
@@ -43854,10 +43863,10 @@
         <v>1055</v>
       </c>
       <c r="F1441" t="s">
-        <v>82</v>
+        <v>1167</v>
       </c>
       <c r="G1441" t="s">
-        <v>83</v>
+        <v>863</v>
       </c>
       <c r="H1441" t="s">
         <v>46</v>
@@ -43880,10 +43889,10 @@
         <v>1055</v>
       </c>
       <c r="F1442" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="G1442" t="s">
-        <v>1153</v>
+        <v>70</v>
       </c>
       <c r="H1442" t="s">
         <v>46</v>
@@ -43906,10 +43915,10 @@
         <v>1055</v>
       </c>
       <c r="F1443" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G1443" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="H1443" t="s">
         <v>46</v>
@@ -43932,10 +43941,10 @@
         <v>1055</v>
       </c>
       <c r="F1444" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="G1444" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H1444" t="s">
         <v>46</v>
@@ -43958,13 +43967,13 @@
         <v>1055</v>
       </c>
       <c r="F1445" t="s">
-        <v>60</v>
+        <v>1133</v>
       </c>
       <c r="G1445" t="s">
-        <v>70</v>
+        <v>1153</v>
       </c>
       <c r="H1445" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1446" spans="1:8" x14ac:dyDescent="0.25">
@@ -43984,13 +43993,13 @@
         <v>1055</v>
       </c>
       <c r="F1446" t="s">
-        <v>504</v>
+        <v>398</v>
       </c>
       <c r="G1446" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
       <c r="H1446" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1447" spans="1:8" x14ac:dyDescent="0.25">
@@ -44010,13 +44019,13 @@
         <v>1055</v>
       </c>
       <c r="F1447" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="G1447" t="s">
         <v>70</v>
       </c>
       <c r="H1447" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1448" spans="1:8" x14ac:dyDescent="0.25">
@@ -44036,13 +44045,13 @@
         <v>1055</v>
       </c>
       <c r="F1448" t="s">
-        <v>1169</v>
+        <v>60</v>
       </c>
       <c r="G1448" t="s">
         <v>70</v>
       </c>
       <c r="H1448" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1449" spans="1:8" x14ac:dyDescent="0.25">
@@ -44062,24 +44071,102 @@
         <v>1055</v>
       </c>
       <c r="F1449" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1450" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1450" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1450" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E1450" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1451" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1451" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1451" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E1451" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1452" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1452" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1452" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E1452" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F1452" t="s">
         <v>1168</v>
       </c>
-      <c r="G1449" t="s">
+      <c r="G1452" t="s">
         <v>70</v>
       </c>
-      <c r="H1449" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1450" s="6"/>
-      <c r="D1450" s="5"/>
-      <c r="E1450" s="5"/>
-    </row>
-    <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1451" s="6"/>
-      <c r="D1451" s="5"/>
-      <c r="E1451" s="5"/>
+      <c r="H1452" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1453" s="6"/>
+      <c r="D1453" s="5"/>
+      <c r="E1453" s="5"/>
+    </row>
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1454" s="6"/>
+      <c r="D1454" s="5"/>
+      <c r="E1454" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I1247">
@@ -44178,7 +44265,7 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Overview!C:C,A7)</f>
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -44293,8 +44380,8 @@
   <dimension ref="A1:K242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A214" sqref="A214"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44348,11 +44435,11 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
@@ -46794,7 +46881,7 @@
       </c>
       <c r="C65" s="1">
         <f>COUNTIF(Overview!G:G,B65)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
         <v>994</v>
@@ -46809,7 +46896,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="7"/>
@@ -50343,7 +50430,7 @@
       </c>
       <c r="C156" s="1">
         <f>COUNTIF(Overview!G:G,B156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
         <v>994</v>
@@ -50358,7 +50445,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" s="1">
         <f t="shared" si="16"/>
@@ -50967,7 +51054,7 @@
       </c>
       <c r="C172" s="1">
         <f>COUNTIF(Overview!G:G,B172)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
         <v>993</v>
@@ -50978,7 +51065,7 @@
       </c>
       <c r="G172" s="1">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H172" s="1">
         <f t="shared" si="17"/>

--- a/documentation/WAS Tracking Table.xlsx
+++ b/documentation/WAS Tracking Table.xlsx
@@ -4114,11 +4114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="241614408"/>
-        <c:axId val="241614800"/>
+        <c:axId val="475016992"/>
+        <c:axId val="475017384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241614408"/>
+        <c:axId val="475016992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,7 +4161,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241614800"/>
+        <c:crossAx val="475017384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4169,7 +4169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241614800"/>
+        <c:axId val="475017384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,7 +4220,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241614408"/>
+        <c:crossAx val="475016992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6187,8 +6187,8 @@
   <dimension ref="A1:I1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A993" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1018" sqref="F1018"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7457,6 +7457,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1983</v>
+      </c>
       <c r="B49" s="1">
         <v>1983</v>
       </c>
@@ -7662,6 +7665,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1983</v>
+      </c>
       <c r="B57" s="1">
         <v>1983</v>
       </c>
@@ -7685,6 +7691,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1983</v>
+      </c>
       <c r="B58" s="1">
         <v>1983</v>
       </c>
@@ -7786,6 +7795,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1983</v>
+      </c>
       <c r="B62" s="1">
         <v>1983</v>
       </c>
@@ -7888,7 +7900,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="B66" s="1">
         <v>1988</v>
@@ -8095,6 +8107,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1985</v>
+      </c>
       <c r="B74" s="1">
         <v>1986</v>
       </c>
@@ -8404,6 +8419,9 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1985</v>
+      </c>
       <c r="B86" s="1">
         <v>1986</v>
       </c>
@@ -8453,6 +8471,9 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1985</v>
+      </c>
       <c r="B88" s="1">
         <v>1986</v>
       </c>
@@ -8580,6 +8601,9 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1985</v>
+      </c>
       <c r="B93" s="1">
         <v>1986</v>
       </c>

--- a/documentation/WAS Tracking Table.xlsx
+++ b/documentation/WAS Tracking Table.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$K$242</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1412</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10683" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10701" uniqueCount="1235">
   <si>
     <t>Start Year</t>
   </si>
@@ -4125,7 +4125,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10</c:v>
@@ -4147,11 +4147,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="431844552"/>
-        <c:axId val="431845728"/>
+        <c:axId val="253409536"/>
+        <c:axId val="253412280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431844552"/>
+        <c:axId val="253409536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,7 +4194,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431845728"/>
+        <c:crossAx val="253412280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4202,7 +4202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431845728"/>
+        <c:axId val="253412280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4253,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431844552"/>
+        <c:crossAx val="253409536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4561,10 +4561,10 @@
                   <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>707</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>47</c:v>
@@ -5917,8 +5917,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1480" totalsRowShown="0">
-  <autoFilter ref="A1:I1480"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1483" totalsRowShown="0">
+  <autoFilter ref="A1:I1483"/>
   <sortState ref="A2:I1248">
     <sortCondition ref="E1:E1248"/>
   </sortState>
@@ -6217,11 +6217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1482"/>
+  <dimension ref="A1:I1485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A903" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F931" sqref="F931"/>
+      <pane ySplit="1" topLeftCell="A1387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1415" sqref="H1415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43056,13 +43056,13 @@
         <v>1041</v>
       </c>
       <c r="F1408" t="s">
-        <v>21</v>
+        <v>1227</v>
       </c>
       <c r="G1408" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="H1408" t="s">
-        <v>512</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.25">
@@ -43082,13 +43082,13 @@
         <v>1041</v>
       </c>
       <c r="F1409" t="s">
-        <v>1005</v>
+        <v>21</v>
       </c>
       <c r="G1409" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1409" t="s">
-        <v>46</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.25">
@@ -43108,13 +43108,13 @@
         <v>1041</v>
       </c>
       <c r="F1410" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G1410" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H1410" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
@@ -43134,13 +43134,13 @@
         <v>1041</v>
       </c>
       <c r="F1411" t="s">
-        <v>1039</v>
+        <v>1005</v>
       </c>
       <c r="G1411" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="H1411" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
@@ -43160,13 +43160,13 @@
         <v>1041</v>
       </c>
       <c r="F1412" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G1412" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="H1412" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.25">
@@ -43186,10 +43186,10 @@
         <v>1041</v>
       </c>
       <c r="F1413" t="s">
-        <v>381</v>
+        <v>1039</v>
       </c>
       <c r="G1413" t="s">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="H1413" t="s">
         <v>149</v>
@@ -43212,10 +43212,10 @@
         <v>1041</v>
       </c>
       <c r="F1414" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="G1414" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1414" t="s">
         <v>46</v>
@@ -43238,13 +43238,13 @@
         <v>1041</v>
       </c>
       <c r="F1415" t="s">
-        <v>1036</v>
+        <v>1174</v>
       </c>
       <c r="G1415" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H1415" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.25">
@@ -43264,13 +43264,13 @@
         <v>1041</v>
       </c>
       <c r="F1416" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="G1416" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="H1416" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1417" spans="1:8" x14ac:dyDescent="0.25">
@@ -43290,10 +43290,10 @@
         <v>1041</v>
       </c>
       <c r="F1417" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="G1417" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H1417" t="s">
         <v>46</v>
@@ -43316,13 +43316,13 @@
         <v>1041</v>
       </c>
       <c r="F1418" t="s">
-        <v>291</v>
+        <v>1036</v>
       </c>
       <c r="G1418" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1418" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.25">
@@ -43342,13 +43342,13 @@
         <v>1041</v>
       </c>
       <c r="F1419" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G1419" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1419" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
@@ -43368,10 +43368,10 @@
         <v>1041</v>
       </c>
       <c r="F1420" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="G1420" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1420" t="s">
         <v>46</v>
@@ -43394,10 +43394,10 @@
         <v>1041</v>
       </c>
       <c r="F1421" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G1421" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1421" t="s">
         <v>46</v>
@@ -43405,10 +43405,10 @@
     </row>
     <row r="1422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1422" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1422" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1422" t="s">
         <v>412</v>
@@ -43417,24 +43417,24 @@
         <v>1034</v>
       </c>
       <c r="E1422" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F1422" t="s">
-        <v>1038</v>
+        <v>128</v>
       </c>
       <c r="G1422" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1422" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1423" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1423" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1423" t="s">
         <v>412</v>
@@ -43443,24 +43443,24 @@
         <v>1034</v>
       </c>
       <c r="E1423" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F1423" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G1423" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="H1423" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1424" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1424" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1424" t="s">
         <v>412</v>
@@ -43469,16 +43469,16 @@
         <v>1034</v>
       </c>
       <c r="E1424" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F1424" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="G1424" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1424" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.25">
@@ -43498,21 +43498,21 @@
         <v>1042</v>
       </c>
       <c r="F1425" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G1425" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1425" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1426" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1426" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1426" t="s">
         <v>412</v>
@@ -43521,24 +43521,24 @@
         <v>1034</v>
       </c>
       <c r="E1426" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1426" t="s">
-        <v>1038</v>
+        <v>120</v>
       </c>
       <c r="G1426" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H1426" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1427" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1427" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1427" t="s">
         <v>412</v>
@@ -43547,24 +43547,24 @@
         <v>1034</v>
       </c>
       <c r="E1427" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1427" t="s">
-        <v>1005</v>
+        <v>428</v>
       </c>
       <c r="G1427" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H1427" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1428" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1428" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1428" t="s">
         <v>412</v>
@@ -43573,16 +43573,16 @@
         <v>1034</v>
       </c>
       <c r="E1428" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1428" t="s">
-        <v>117</v>
+        <v>1036</v>
       </c>
       <c r="G1428" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1428" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
@@ -43602,13 +43602,13 @@
         <v>1043</v>
       </c>
       <c r="F1429" t="s">
-        <v>122</v>
+        <v>1038</v>
       </c>
       <c r="G1429" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1429" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
@@ -43628,10 +43628,10 @@
         <v>1043</v>
       </c>
       <c r="F1430" t="s">
-        <v>180</v>
+        <v>1005</v>
       </c>
       <c r="G1430" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1430" t="s">
         <v>46</v>
@@ -43639,80 +43639,80 @@
     </row>
     <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1431" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1431" s="1">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C1431" t="s">
         <v>412</v>
       </c>
       <c r="D1431" s="5" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E1431" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1431" t="s">
-        <v>1227</v>
+        <v>117</v>
       </c>
       <c r="G1431" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="H1431" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1432" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1432" s="1">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C1432" t="s">
         <v>412</v>
       </c>
       <c r="D1432" s="5" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E1432" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1432" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="G1432" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="H1432" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1433" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1433" s="1">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C1433" t="s">
         <v>412</v>
       </c>
       <c r="D1433" s="5" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E1433" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1433" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="G1433" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H1433" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
@@ -43732,13 +43732,13 @@
         <v>1044</v>
       </c>
       <c r="F1434" t="s">
-        <v>471</v>
+        <v>1227</v>
       </c>
       <c r="G1434" t="s">
-        <v>459</v>
+        <v>197</v>
       </c>
       <c r="H1434" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
@@ -43758,13 +43758,13 @@
         <v>1044</v>
       </c>
       <c r="F1435" t="s">
-        <v>1228</v>
+        <v>311</v>
       </c>
       <c r="G1435" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="H1435" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
@@ -43784,13 +43784,13 @@
         <v>1044</v>
       </c>
       <c r="F1436" t="s">
-        <v>1123</v>
+        <v>117</v>
       </c>
       <c r="G1436" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1436" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
@@ -43810,13 +43810,13 @@
         <v>1044</v>
       </c>
       <c r="F1437" t="s">
-        <v>1036</v>
+        <v>471</v>
       </c>
       <c r="G1437" t="s">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H1437" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
@@ -43836,10 +43836,10 @@
         <v>1044</v>
       </c>
       <c r="F1438" t="s">
-        <v>183</v>
+        <v>1228</v>
       </c>
       <c r="G1438" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="H1438" t="s">
         <v>46</v>
@@ -43862,62 +43862,62 @@
         <v>1044</v>
       </c>
       <c r="F1439" t="s">
-        <v>68</v>
+        <v>1123</v>
       </c>
       <c r="G1439" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H1439" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1440" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1440" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1440" s="6" t="s">
-        <v>411</v>
+        <v>2020</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>412</v>
       </c>
       <c r="D1440" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E1440" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F1440" t="s">
-        <v>158</v>
+        <v>1036</v>
       </c>
       <c r="G1440" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="H1440" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1441" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1441" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1441" s="6" t="s">
-        <v>411</v>
+        <v>2020</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>412</v>
       </c>
       <c r="D1441" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E1441" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F1441" t="s">
-        <v>1052</v>
+        <v>183</v>
       </c>
       <c r="G1441" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H1441" t="s">
         <v>46</v>
@@ -43925,25 +43925,25 @@
     </row>
     <row r="1442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1442" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1442" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1442" s="6" t="s">
-        <v>411</v>
+        <v>2020</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>412</v>
       </c>
       <c r="D1442" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E1442" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F1442" t="s">
-        <v>601</v>
+        <v>68</v>
       </c>
       <c r="G1442" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="H1442" t="s">
         <v>46</v>
@@ -43966,7 +43966,7 @@
         <v>1048</v>
       </c>
       <c r="F1443" t="s">
-        <v>1146</v>
+        <v>158</v>
       </c>
       <c r="G1443" t="s">
         <v>70</v>
@@ -43992,10 +43992,10 @@
         <v>1048</v>
       </c>
       <c r="F1444" t="s">
-        <v>1147</v>
+        <v>1052</v>
       </c>
       <c r="G1444" t="s">
-        <v>1151</v>
+        <v>70</v>
       </c>
       <c r="H1444" t="s">
         <v>46</v>
@@ -44018,10 +44018,10 @@
         <v>1048</v>
       </c>
       <c r="F1445" t="s">
-        <v>1148</v>
+        <v>601</v>
       </c>
       <c r="G1445" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1445" t="s">
         <v>46</v>
@@ -44044,10 +44044,10 @@
         <v>1048</v>
       </c>
       <c r="F1446" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G1446" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1446" t="s">
         <v>46</v>
@@ -44070,10 +44070,10 @@
         <v>1048</v>
       </c>
       <c r="F1447" t="s">
-        <v>373</v>
+        <v>1147</v>
       </c>
       <c r="G1447" t="s">
-        <v>379</v>
+        <v>1151</v>
       </c>
       <c r="H1447" t="s">
         <v>46</v>
@@ -44096,10 +44096,10 @@
         <v>1048</v>
       </c>
       <c r="F1448" t="s">
-        <v>82</v>
+        <v>1148</v>
       </c>
       <c r="G1448" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1448" t="s">
         <v>46</v>
@@ -44122,10 +44122,10 @@
         <v>1048</v>
       </c>
       <c r="F1449" t="s">
-        <v>1132</v>
+        <v>1149</v>
       </c>
       <c r="G1449" t="s">
-        <v>1152</v>
+        <v>862</v>
       </c>
       <c r="H1449" t="s">
         <v>46</v>
@@ -44148,10 +44148,10 @@
         <v>1048</v>
       </c>
       <c r="F1450" t="s">
-        <v>1150</v>
+        <v>373</v>
       </c>
       <c r="G1450" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="H1450" t="s">
         <v>46</v>
@@ -44174,13 +44174,13 @@
         <v>1048</v>
       </c>
       <c r="F1451" t="s">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="G1451" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="H1451" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.25">
@@ -44200,10 +44200,10 @@
         <v>1048</v>
       </c>
       <c r="F1452" t="s">
-        <v>400</v>
+        <v>1132</v>
       </c>
       <c r="G1452" t="s">
-        <v>203</v>
+        <v>1152</v>
       </c>
       <c r="H1452" t="s">
         <v>46</v>
@@ -44226,7 +44226,7 @@
         <v>1048</v>
       </c>
       <c r="F1453" t="s">
-        <v>125</v>
+        <v>1150</v>
       </c>
       <c r="G1453" t="s">
         <v>70</v>
@@ -44252,91 +44252,91 @@
         <v>1048</v>
       </c>
       <c r="F1454" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="G1454" t="s">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="H1454" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1455" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1455" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1455" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1455" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1455" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F1455" t="s">
-        <v>1051</v>
+        <v>400</v>
       </c>
       <c r="G1455" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="H1455" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1456" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1456" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1456" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1456" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1456" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F1456" t="s">
-        <v>1052</v>
+        <v>125</v>
       </c>
       <c r="G1456" t="s">
         <v>70</v>
       </c>
       <c r="H1456" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1457" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1457" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1457" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1457" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1457" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F1457" t="s">
-        <v>1072</v>
+        <v>270</v>
       </c>
       <c r="G1457" t="s">
-        <v>937</v>
+        <v>70</v>
       </c>
       <c r="H1457" t="s">
-        <v>1067</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1458" spans="1:8" x14ac:dyDescent="0.25">
@@ -44356,13 +44356,13 @@
         <v>1050</v>
       </c>
       <c r="F1458" t="s">
-        <v>1149</v>
+        <v>1051</v>
       </c>
       <c r="G1458" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1458" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1459" spans="1:8" x14ac:dyDescent="0.25">
@@ -44382,13 +44382,13 @@
         <v>1050</v>
       </c>
       <c r="F1459" t="s">
-        <v>1158</v>
+        <v>1052</v>
       </c>
       <c r="G1459" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1459" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1460" spans="1:8" x14ac:dyDescent="0.25">
@@ -44408,13 +44408,13 @@
         <v>1050</v>
       </c>
       <c r="F1460" t="s">
-        <v>1150</v>
+        <v>1072</v>
       </c>
       <c r="G1460" t="s">
-        <v>70</v>
+        <v>937</v>
       </c>
       <c r="H1460" t="s">
-        <v>151</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
@@ -44434,10 +44434,10 @@
         <v>1050</v>
       </c>
       <c r="F1461" t="s">
-        <v>400</v>
+        <v>1149</v>
       </c>
       <c r="G1461" t="s">
-        <v>203</v>
+        <v>862</v>
       </c>
       <c r="H1461" t="s">
         <v>46</v>
@@ -44460,10 +44460,10 @@
         <v>1050</v>
       </c>
       <c r="F1462" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G1462" t="s">
-        <v>203</v>
+        <v>862</v>
       </c>
       <c r="H1462" t="s">
         <v>46</v>
@@ -44486,10 +44486,10 @@
         <v>1050</v>
       </c>
       <c r="F1463" t="s">
-        <v>1053</v>
+        <v>1150</v>
       </c>
       <c r="G1463" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H1463" t="s">
         <v>151</v>
@@ -44512,10 +44512,10 @@
         <v>1050</v>
       </c>
       <c r="F1464" t="s">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="G1464" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H1464" t="s">
         <v>46</v>
@@ -44538,13 +44538,13 @@
         <v>1050</v>
       </c>
       <c r="F1465" t="s">
-        <v>503</v>
+        <v>1159</v>
       </c>
       <c r="G1465" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="H1465" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
@@ -44564,13 +44564,13 @@
         <v>1050</v>
       </c>
       <c r="F1466" t="s">
-        <v>1167</v>
+        <v>1053</v>
       </c>
       <c r="G1466" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H1466" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1467" spans="1:8" x14ac:dyDescent="0.25">
@@ -44587,13 +44587,13 @@
         <v>1049</v>
       </c>
       <c r="E1467" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F1467" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="G1467" t="s">
-        <v>862</v>
+        <v>85</v>
       </c>
       <c r="H1467" t="s">
         <v>46</v>
@@ -44613,16 +44613,16 @@
         <v>1049</v>
       </c>
       <c r="E1468" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F1468" t="s">
-        <v>1146</v>
+        <v>503</v>
       </c>
       <c r="G1468" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1468" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1469" spans="1:8" x14ac:dyDescent="0.25">
@@ -44639,13 +44639,13 @@
         <v>1049</v>
       </c>
       <c r="E1469" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F1469" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G1469" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1469" t="s">
         <v>46</v>
@@ -44668,10 +44668,10 @@
         <v>1054</v>
       </c>
       <c r="F1470" t="s">
-        <v>1148</v>
+        <v>1165</v>
       </c>
       <c r="G1470" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
       <c r="H1470" t="s">
         <v>46</v>
@@ -44694,10 +44694,10 @@
         <v>1054</v>
       </c>
       <c r="F1471" t="s">
-        <v>373</v>
+        <v>1146</v>
       </c>
       <c r="G1471" t="s">
-        <v>379</v>
+        <v>70</v>
       </c>
       <c r="H1471" t="s">
         <v>46</v>
@@ -44720,10 +44720,10 @@
         <v>1054</v>
       </c>
       <c r="F1472" t="s">
-        <v>82</v>
+        <v>1166</v>
       </c>
       <c r="G1472" t="s">
-        <v>83</v>
+        <v>862</v>
       </c>
       <c r="H1472" t="s">
         <v>46</v>
@@ -44746,10 +44746,10 @@
         <v>1054</v>
       </c>
       <c r="F1473" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="G1473" t="s">
-        <v>1152</v>
+        <v>70</v>
       </c>
       <c r="H1473" t="s">
         <v>46</v>
@@ -44772,10 +44772,10 @@
         <v>1054</v>
       </c>
       <c r="F1474" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G1474" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="H1474" t="s">
         <v>46</v>
@@ -44798,10 +44798,10 @@
         <v>1054</v>
       </c>
       <c r="F1475" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="G1475" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H1475" t="s">
         <v>46</v>
@@ -44824,13 +44824,13 @@
         <v>1054</v>
       </c>
       <c r="F1476" t="s">
-        <v>60</v>
+        <v>1132</v>
       </c>
       <c r="G1476" t="s">
-        <v>70</v>
+        <v>1152</v>
       </c>
       <c r="H1476" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.25">
@@ -44850,13 +44850,13 @@
         <v>1054</v>
       </c>
       <c r="F1477" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="G1477" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
       <c r="H1477" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1478" spans="1:8" x14ac:dyDescent="0.25">
@@ -44876,13 +44876,13 @@
         <v>1054</v>
       </c>
       <c r="F1478" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="G1478" t="s">
         <v>70</v>
       </c>
       <c r="H1478" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1479" spans="1:8" x14ac:dyDescent="0.25">
@@ -44902,13 +44902,13 @@
         <v>1054</v>
       </c>
       <c r="F1479" t="s">
-        <v>1168</v>
+        <v>60</v>
       </c>
       <c r="G1479" t="s">
         <v>70</v>
       </c>
       <c r="H1479" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
@@ -44928,24 +44928,102 @@
         <v>1054</v>
       </c>
       <c r="F1480" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1481" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1481" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1481" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1481" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1482" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1482" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1482" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1482" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1483" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1483" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1483" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1483" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1483" t="s">
         <v>1167</v>
       </c>
-      <c r="G1480" t="s">
+      <c r="G1483" t="s">
         <v>70</v>
       </c>
-      <c r="H1480" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1481" s="6"/>
-      <c r="D1481" s="5"/>
-      <c r="E1481" s="5"/>
-    </row>
-    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1482" s="6"/>
-      <c r="D1482" s="5"/>
-      <c r="E1482" s="5"/>
+      <c r="H1483" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1484" s="6"/>
+      <c r="D1484" s="5"/>
+      <c r="E1484" s="5"/>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1485" s="6"/>
+      <c r="D1485" s="5"/>
+      <c r="E1485" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I1247">
@@ -45121,7 +45199,7 @@
       </c>
       <c r="B14">
         <f>COUNTIF(Overview!C:C,A14)</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -45214,11 +45292,11 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
@@ -45749,7 +45827,7 @@
       </c>
       <c r="C16" s="1">
         <f>COUNTIF(Overview!G:G,B16)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>992</v>
@@ -45760,7 +45838,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
@@ -47660,7 +47738,7 @@
       </c>
       <c r="C65" s="1">
         <f>COUNTIF(Overview!G:G,B65)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
         <v>993</v>
@@ -47675,7 +47753,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="7"/>
@@ -49181,7 +49259,7 @@
       </c>
       <c r="C104" s="1">
         <f>COUNTIF(Overview!G:G,B104)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
         <v>992</v>
@@ -49192,7 +49270,7 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" si="11"/>

--- a/documentation/WAS Tracking Table.xlsx
+++ b/documentation/WAS Tracking Table.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$K$242</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1414</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10701" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10713" uniqueCount="1235">
   <si>
     <t>Start Year</t>
   </si>
@@ -4125,7 +4125,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10</c:v>
@@ -4147,11 +4147,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253409536"/>
-        <c:axId val="253412280"/>
+        <c:axId val="458060960"/>
+        <c:axId val="458062136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253409536"/>
+        <c:axId val="458060960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,7 +4194,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253412280"/>
+        <c:crossAx val="458062136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4202,7 +4202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253412280"/>
+        <c:axId val="458062136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4253,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253409536"/>
+        <c:crossAx val="458060960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4561,7 +4561,7 @@
                   <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>709</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>78</c:v>
@@ -5917,8 +5917,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1483" totalsRowShown="0">
-  <autoFilter ref="A1:I1483"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1485" totalsRowShown="0">
+  <autoFilter ref="A1:I1485"/>
   <sortState ref="A2:I1248">
     <sortCondition ref="E1:E1248"/>
   </sortState>
@@ -6217,11 +6217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1485"/>
+  <dimension ref="A1:I1487"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1415" sqref="H1415"/>
+      <pane ySplit="1" topLeftCell="A1390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1401" sqref="H1401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42744,10 +42744,10 @@
         <v>1037</v>
       </c>
       <c r="F1396" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="G1396" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H1396" t="s">
         <v>46</v>
@@ -42770,13 +42770,13 @@
         <v>1037</v>
       </c>
       <c r="F1397" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="G1397" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1397" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1398" spans="1:8" x14ac:dyDescent="0.25">
@@ -42796,10 +42796,10 @@
         <v>1037</v>
       </c>
       <c r="F1398" t="s">
-        <v>1039</v>
+        <v>120</v>
       </c>
       <c r="G1398" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1398" t="s">
         <v>149</v>
@@ -42822,13 +42822,13 @@
         <v>1037</v>
       </c>
       <c r="F1399" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G1399" t="s">
-        <v>596</v>
+        <v>152</v>
       </c>
       <c r="H1399" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1400" spans="1:8" x14ac:dyDescent="0.25">
@@ -42848,13 +42848,13 @@
         <v>1037</v>
       </c>
       <c r="F1400" t="s">
-        <v>124</v>
+        <v>1040</v>
       </c>
       <c r="G1400" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="H1400" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
@@ -42874,10 +42874,10 @@
         <v>1037</v>
       </c>
       <c r="F1401" t="s">
-        <v>381</v>
+        <v>1174</v>
       </c>
       <c r="G1401" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="H1401" t="s">
         <v>46</v>
@@ -42900,13 +42900,13 @@
         <v>1037</v>
       </c>
       <c r="F1402" t="s">
-        <v>1016</v>
+        <v>124</v>
       </c>
       <c r="G1402" t="s">
         <v>13</v>
       </c>
       <c r="H1402" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1403" spans="1:8" x14ac:dyDescent="0.25">
@@ -42926,13 +42926,13 @@
         <v>1037</v>
       </c>
       <c r="F1403" t="s">
-        <v>1036</v>
+        <v>381</v>
       </c>
       <c r="G1403" t="s">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="H1403" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1404" spans="1:8" x14ac:dyDescent="0.25">
@@ -42952,10 +42952,10 @@
         <v>1037</v>
       </c>
       <c r="F1404" t="s">
-        <v>184</v>
+        <v>1016</v>
       </c>
       <c r="G1404" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1404" t="s">
         <v>46</v>
@@ -42978,10 +42978,10 @@
         <v>1037</v>
       </c>
       <c r="F1405" t="s">
-        <v>128</v>
+        <v>1036</v>
       </c>
       <c r="G1405" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="H1405" t="s">
         <v>149</v>
@@ -43004,10 +43004,10 @@
         <v>1037</v>
       </c>
       <c r="F1406" t="s">
-        <v>329</v>
+        <v>184</v>
       </c>
       <c r="G1406" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1406" t="s">
         <v>46</v>
@@ -43015,10 +43015,10 @@
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1407" s="1">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1407" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C1407" t="s">
         <v>412</v>
@@ -43027,24 +43027,24 @@
         <v>1034</v>
       </c>
       <c r="E1407" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F1407" t="s">
-        <v>1038</v>
+        <v>128</v>
       </c>
       <c r="G1407" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1407" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1408" s="1">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1408" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C1408" t="s">
         <v>412</v>
@@ -43053,13 +43053,13 @@
         <v>1034</v>
       </c>
       <c r="E1408" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F1408" t="s">
-        <v>1227</v>
+        <v>329</v>
       </c>
       <c r="G1408" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="H1408" t="s">
         <v>46</v>
@@ -43082,13 +43082,13 @@
         <v>1041</v>
       </c>
       <c r="F1409" t="s">
-        <v>21</v>
+        <v>1038</v>
       </c>
       <c r="G1409" t="s">
         <v>13</v>
       </c>
       <c r="H1409" t="s">
-        <v>512</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.25">
@@ -43108,10 +43108,10 @@
         <v>1041</v>
       </c>
       <c r="F1410" t="s">
-        <v>111</v>
+        <v>1227</v>
       </c>
       <c r="G1410" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="H1410" t="s">
         <v>46</v>
@@ -43134,13 +43134,13 @@
         <v>1041</v>
       </c>
       <c r="F1411" t="s">
-        <v>1005</v>
+        <v>21</v>
       </c>
       <c r="G1411" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1411" t="s">
-        <v>46</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
@@ -43160,13 +43160,13 @@
         <v>1041</v>
       </c>
       <c r="F1412" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G1412" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H1412" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.25">
@@ -43186,13 +43186,13 @@
         <v>1041</v>
       </c>
       <c r="F1413" t="s">
-        <v>1039</v>
+        <v>1005</v>
       </c>
       <c r="G1413" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="H1413" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1414" spans="1:8" x14ac:dyDescent="0.25">
@@ -43212,13 +43212,13 @@
         <v>1041</v>
       </c>
       <c r="F1414" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G1414" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="H1414" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1415" spans="1:8" x14ac:dyDescent="0.25">
@@ -43238,13 +43238,13 @@
         <v>1041</v>
       </c>
       <c r="F1415" t="s">
-        <v>1174</v>
+        <v>1039</v>
       </c>
       <c r="G1415" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H1415" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.25">
@@ -43264,13 +43264,13 @@
         <v>1041</v>
       </c>
       <c r="F1416" t="s">
-        <v>381</v>
+        <v>122</v>
       </c>
       <c r="G1416" t="s">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="H1416" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1417" spans="1:8" x14ac:dyDescent="0.25">
@@ -43290,10 +43290,10 @@
         <v>1041</v>
       </c>
       <c r="F1417" t="s">
-        <v>180</v>
+        <v>1174</v>
       </c>
       <c r="G1417" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="H1417" t="s">
         <v>46</v>
@@ -43316,10 +43316,10 @@
         <v>1041</v>
       </c>
       <c r="F1418" t="s">
-        <v>1036</v>
+        <v>381</v>
       </c>
       <c r="G1418" t="s">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="H1418" t="s">
         <v>149</v>
@@ -43342,10 +43342,10 @@
         <v>1041</v>
       </c>
       <c r="F1419" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G1419" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H1419" t="s">
         <v>46</v>
@@ -43368,13 +43368,13 @@
         <v>1041</v>
       </c>
       <c r="F1420" t="s">
-        <v>359</v>
+        <v>1036</v>
       </c>
       <c r="G1420" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1420" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1421" spans="1:8" x14ac:dyDescent="0.25">
@@ -43394,7 +43394,7 @@
         <v>1041</v>
       </c>
       <c r="F1421" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="G1421" t="s">
         <v>76</v>
@@ -43420,13 +43420,13 @@
         <v>1041</v>
       </c>
       <c r="F1422" t="s">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="G1422" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1422" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.25">
@@ -43446,10 +43446,10 @@
         <v>1041</v>
       </c>
       <c r="F1423" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="G1423" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1423" t="s">
         <v>46</v>
@@ -43472,21 +43472,21 @@
         <v>1041</v>
       </c>
       <c r="F1424" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="G1424" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1424" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1425" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1425" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1425" t="s">
         <v>412</v>
@@ -43495,24 +43495,24 @@
         <v>1034</v>
       </c>
       <c r="E1425" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F1425" t="s">
-        <v>1038</v>
+        <v>68</v>
       </c>
       <c r="G1425" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H1425" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1426" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1426" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1426" t="s">
         <v>412</v>
@@ -43521,16 +43521,16 @@
         <v>1034</v>
       </c>
       <c r="E1426" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F1426" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="G1426" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1426" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
@@ -43550,13 +43550,13 @@
         <v>1042</v>
       </c>
       <c r="F1427" t="s">
-        <v>428</v>
+        <v>1038</v>
       </c>
       <c r="G1427" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1427" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
@@ -43576,10 +43576,10 @@
         <v>1042</v>
       </c>
       <c r="F1428" t="s">
-        <v>1036</v>
+        <v>120</v>
       </c>
       <c r="G1428" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1428" t="s">
         <v>149</v>
@@ -43587,10 +43587,10 @@
     </row>
     <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1429" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1429" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1429" t="s">
         <v>412</v>
@@ -43599,24 +43599,24 @@
         <v>1034</v>
       </c>
       <c r="E1429" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1429" t="s">
-        <v>1038</v>
+        <v>428</v>
       </c>
       <c r="G1429" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H1429" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1430" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1430" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1430" t="s">
         <v>412</v>
@@ -43625,16 +43625,16 @@
         <v>1034</v>
       </c>
       <c r="E1430" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1430" t="s">
-        <v>1005</v>
+        <v>1036</v>
       </c>
       <c r="G1430" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1430" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
@@ -43654,7 +43654,7 @@
         <v>1043</v>
       </c>
       <c r="F1431" t="s">
-        <v>117</v>
+        <v>1038</v>
       </c>
       <c r="G1431" t="s">
         <v>13</v>
@@ -43680,7 +43680,7 @@
         <v>1043</v>
       </c>
       <c r="F1432" t="s">
-        <v>122</v>
+        <v>1005</v>
       </c>
       <c r="G1432" t="s">
         <v>76</v>
@@ -43706,36 +43706,36 @@
         <v>1043</v>
       </c>
       <c r="F1433" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="G1433" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H1433" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1434" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1434" s="1">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C1434" t="s">
         <v>412</v>
       </c>
       <c r="D1434" s="5" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E1434" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1434" t="s">
-        <v>1227</v>
+        <v>122</v>
       </c>
       <c r="G1434" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="H1434" t="s">
         <v>46</v>
@@ -43743,28 +43743,28 @@
     </row>
     <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1435" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1435" s="1">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C1435" t="s">
         <v>412</v>
       </c>
       <c r="D1435" s="5" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E1435" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1435" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="G1435" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="H1435" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
@@ -43784,13 +43784,13 @@
         <v>1044</v>
       </c>
       <c r="F1436" t="s">
-        <v>117</v>
+        <v>1227</v>
       </c>
       <c r="G1436" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="H1436" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
@@ -43810,10 +43810,10 @@
         <v>1044</v>
       </c>
       <c r="F1437" t="s">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="G1437" t="s">
-        <v>459</v>
+        <v>148</v>
       </c>
       <c r="H1437" t="s">
         <v>141</v>
@@ -43836,13 +43836,13 @@
         <v>1044</v>
       </c>
       <c r="F1438" t="s">
-        <v>1228</v>
+        <v>117</v>
       </c>
       <c r="G1438" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H1438" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1439" spans="1:8" x14ac:dyDescent="0.25">
@@ -43862,10 +43862,10 @@
         <v>1044</v>
       </c>
       <c r="F1439" t="s">
-        <v>1123</v>
+        <v>471</v>
       </c>
       <c r="G1439" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="H1439" t="s">
         <v>141</v>
@@ -43888,13 +43888,13 @@
         <v>1044</v>
       </c>
       <c r="F1440" t="s">
-        <v>1036</v>
+        <v>1228</v>
       </c>
       <c r="G1440" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="H1440" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
@@ -43914,13 +43914,13 @@
         <v>1044</v>
       </c>
       <c r="F1441" t="s">
-        <v>183</v>
+        <v>1123</v>
       </c>
       <c r="G1441" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="H1441" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1442" spans="1:8" x14ac:dyDescent="0.25">
@@ -43940,36 +43940,36 @@
         <v>1044</v>
       </c>
       <c r="F1442" t="s">
-        <v>68</v>
+        <v>1036</v>
       </c>
       <c r="G1442" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H1442" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1443" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1443" s="6" t="s">
-        <v>411</v>
+        <v>2020</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>412</v>
       </c>
       <c r="D1443" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E1443" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F1443" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="G1443" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H1443" t="s">
         <v>46</v>
@@ -43977,25 +43977,25 @@
     </row>
     <row r="1444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1444" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1444" s="6" t="s">
-        <v>411</v>
+        <v>2020</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>412</v>
       </c>
       <c r="D1444" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E1444" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F1444" t="s">
-        <v>1052</v>
+        <v>68</v>
       </c>
       <c r="G1444" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1444" t="s">
         <v>46</v>
@@ -44018,10 +44018,10 @@
         <v>1048</v>
       </c>
       <c r="F1445" t="s">
-        <v>601</v>
+        <v>158</v>
       </c>
       <c r="G1445" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="H1445" t="s">
         <v>46</v>
@@ -44044,7 +44044,7 @@
         <v>1048</v>
       </c>
       <c r="F1446" t="s">
-        <v>1146</v>
+        <v>1052</v>
       </c>
       <c r="G1446" t="s">
         <v>70</v>
@@ -44070,10 +44070,10 @@
         <v>1048</v>
       </c>
       <c r="F1447" t="s">
-        <v>1147</v>
+        <v>601</v>
       </c>
       <c r="G1447" t="s">
-        <v>1151</v>
+        <v>258</v>
       </c>
       <c r="H1447" t="s">
         <v>46</v>
@@ -44096,7 +44096,7 @@
         <v>1048</v>
       </c>
       <c r="F1448" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G1448" t="s">
         <v>70</v>
@@ -44122,10 +44122,10 @@
         <v>1048</v>
       </c>
       <c r="F1449" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G1449" t="s">
-        <v>862</v>
+        <v>1151</v>
       </c>
       <c r="H1449" t="s">
         <v>46</v>
@@ -44148,10 +44148,10 @@
         <v>1048</v>
       </c>
       <c r="F1450" t="s">
-        <v>373</v>
+        <v>1148</v>
       </c>
       <c r="G1450" t="s">
-        <v>379</v>
+        <v>70</v>
       </c>
       <c r="H1450" t="s">
         <v>46</v>
@@ -44174,10 +44174,10 @@
         <v>1048</v>
       </c>
       <c r="F1451" t="s">
-        <v>82</v>
+        <v>1149</v>
       </c>
       <c r="G1451" t="s">
-        <v>83</v>
+        <v>862</v>
       </c>
       <c r="H1451" t="s">
         <v>46</v>
@@ -44200,10 +44200,10 @@
         <v>1048</v>
       </c>
       <c r="F1452" t="s">
-        <v>1132</v>
+        <v>373</v>
       </c>
       <c r="G1452" t="s">
-        <v>1152</v>
+        <v>379</v>
       </c>
       <c r="H1452" t="s">
         <v>46</v>
@@ -44226,10 +44226,10 @@
         <v>1048</v>
       </c>
       <c r="F1453" t="s">
-        <v>1150</v>
+        <v>82</v>
       </c>
       <c r="G1453" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H1453" t="s">
         <v>46</v>
@@ -44252,13 +44252,13 @@
         <v>1048</v>
       </c>
       <c r="F1454" t="s">
-        <v>398</v>
+        <v>1132</v>
       </c>
       <c r="G1454" t="s">
-        <v>399</v>
+        <v>1152</v>
       </c>
       <c r="H1454" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.25">
@@ -44278,10 +44278,10 @@
         <v>1048</v>
       </c>
       <c r="F1455" t="s">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="G1455" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="H1455" t="s">
         <v>46</v>
@@ -44304,13 +44304,13 @@
         <v>1048</v>
       </c>
       <c r="F1456" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="G1456" t="s">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="H1456" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1457" spans="1:8" x14ac:dyDescent="0.25">
@@ -44330,10 +44330,10 @@
         <v>1048</v>
       </c>
       <c r="F1457" t="s">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="G1457" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="H1457" t="s">
         <v>46</v>
@@ -44341,54 +44341,54 @@
     </row>
     <row r="1458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1458" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1458" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1458" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1458" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1458" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F1458" t="s">
-        <v>1051</v>
+        <v>125</v>
       </c>
       <c r="G1458" t="s">
         <v>70</v>
       </c>
       <c r="H1458" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1459" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1459" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1459" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1459" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1459" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F1459" t="s">
-        <v>1052</v>
+        <v>270</v>
       </c>
       <c r="G1459" t="s">
         <v>70</v>
       </c>
       <c r="H1459" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1460" spans="1:8" x14ac:dyDescent="0.25">
@@ -44408,13 +44408,13 @@
         <v>1050</v>
       </c>
       <c r="F1460" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="G1460" t="s">
-        <v>937</v>
+        <v>70</v>
       </c>
       <c r="H1460" t="s">
-        <v>1067</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
@@ -44434,13 +44434,13 @@
         <v>1050</v>
       </c>
       <c r="F1461" t="s">
-        <v>1149</v>
+        <v>1052</v>
       </c>
       <c r="G1461" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1461" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
@@ -44460,13 +44460,13 @@
         <v>1050</v>
       </c>
       <c r="F1462" t="s">
-        <v>1158</v>
+        <v>1072</v>
       </c>
       <c r="G1462" t="s">
-        <v>862</v>
+        <v>937</v>
       </c>
       <c r="H1462" t="s">
-        <v>46</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
@@ -44486,13 +44486,13 @@
         <v>1050</v>
       </c>
       <c r="F1463" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G1463" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
       <c r="H1463" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
@@ -44512,10 +44512,10 @@
         <v>1050</v>
       </c>
       <c r="F1464" t="s">
-        <v>400</v>
+        <v>1158</v>
       </c>
       <c r="G1464" t="s">
-        <v>203</v>
+        <v>862</v>
       </c>
       <c r="H1464" t="s">
         <v>46</v>
@@ -44538,13 +44538,13 @@
         <v>1050</v>
       </c>
       <c r="F1465" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="G1465" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="H1465" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
@@ -44564,13 +44564,13 @@
         <v>1050</v>
       </c>
       <c r="F1466" t="s">
-        <v>1053</v>
+        <v>400</v>
       </c>
       <c r="G1466" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H1466" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1467" spans="1:8" x14ac:dyDescent="0.25">
@@ -44590,10 +44590,10 @@
         <v>1050</v>
       </c>
       <c r="F1467" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G1467" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H1467" t="s">
         <v>46</v>
@@ -44616,10 +44616,10 @@
         <v>1050</v>
       </c>
       <c r="F1468" t="s">
-        <v>503</v>
+        <v>1053</v>
       </c>
       <c r="G1468" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="H1468" t="s">
         <v>151</v>
@@ -44642,10 +44642,10 @@
         <v>1050</v>
       </c>
       <c r="F1469" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="G1469" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H1469" t="s">
         <v>46</v>
@@ -44665,16 +44665,16 @@
         <v>1049</v>
       </c>
       <c r="E1470" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F1470" t="s">
-        <v>1165</v>
+        <v>503</v>
       </c>
       <c r="G1470" t="s">
-        <v>862</v>
+        <v>258</v>
       </c>
       <c r="H1470" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1471" spans="1:8" x14ac:dyDescent="0.25">
@@ -44691,10 +44691,10 @@
         <v>1049</v>
       </c>
       <c r="E1471" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F1471" t="s">
-        <v>1146</v>
+        <v>1167</v>
       </c>
       <c r="G1471" t="s">
         <v>70</v>
@@ -44720,7 +44720,7 @@
         <v>1054</v>
       </c>
       <c r="F1472" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G1472" t="s">
         <v>862</v>
@@ -44746,7 +44746,7 @@
         <v>1054</v>
       </c>
       <c r="F1473" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G1473" t="s">
         <v>70</v>
@@ -44772,10 +44772,10 @@
         <v>1054</v>
       </c>
       <c r="F1474" t="s">
-        <v>373</v>
+        <v>1166</v>
       </c>
       <c r="G1474" t="s">
-        <v>379</v>
+        <v>862</v>
       </c>
       <c r="H1474" t="s">
         <v>46</v>
@@ -44798,10 +44798,10 @@
         <v>1054</v>
       </c>
       <c r="F1475" t="s">
-        <v>82</v>
+        <v>1148</v>
       </c>
       <c r="G1475" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1475" t="s">
         <v>46</v>
@@ -44824,10 +44824,10 @@
         <v>1054</v>
       </c>
       <c r="F1476" t="s">
-        <v>1132</v>
+        <v>373</v>
       </c>
       <c r="G1476" t="s">
-        <v>1152</v>
+        <v>379</v>
       </c>
       <c r="H1476" t="s">
         <v>46</v>
@@ -44850,10 +44850,10 @@
         <v>1054</v>
       </c>
       <c r="F1477" t="s">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="G1477" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="H1477" t="s">
         <v>46</v>
@@ -44876,10 +44876,10 @@
         <v>1054</v>
       </c>
       <c r="F1478" t="s">
-        <v>125</v>
+        <v>1132</v>
       </c>
       <c r="G1478" t="s">
-        <v>70</v>
+        <v>1152</v>
       </c>
       <c r="H1478" t="s">
         <v>46</v>
@@ -44902,13 +44902,13 @@
         <v>1054</v>
       </c>
       <c r="F1479" t="s">
-        <v>60</v>
+        <v>398</v>
       </c>
       <c r="G1479" t="s">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="H1479" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
@@ -44928,13 +44928,13 @@
         <v>1054</v>
       </c>
       <c r="F1480" t="s">
-        <v>503</v>
+        <v>125</v>
       </c>
       <c r="G1480" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="H1480" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
@@ -44954,7 +44954,7 @@
         <v>1054</v>
       </c>
       <c r="F1481" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G1481" t="s">
         <v>70</v>
@@ -44980,13 +44980,13 @@
         <v>1054</v>
       </c>
       <c r="F1482" t="s">
-        <v>1168</v>
+        <v>503</v>
       </c>
       <c r="G1482" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1482" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
@@ -45006,24 +45006,76 @@
         <v>1054</v>
       </c>
       <c r="F1483" t="s">
-        <v>1167</v>
+        <v>270</v>
       </c>
       <c r="G1483" t="s">
         <v>70</v>
       </c>
       <c r="H1483" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1484" s="6"/>
-      <c r="D1484" s="5"/>
-      <c r="E1484" s="5"/>
+      <c r="A1484" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1484" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1484" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1484" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1485" s="6"/>
-      <c r="D1485" s="5"/>
-      <c r="E1485" s="5"/>
+      <c r="A1485" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1485" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1485" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1485" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1486" s="6"/>
+      <c r="D1486" s="5"/>
+      <c r="E1486" s="5"/>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1487" s="6"/>
+      <c r="D1487" s="5"/>
+      <c r="E1487" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I1247">
@@ -45199,7 +45251,7 @@
       </c>
       <c r="B14">
         <f>COUNTIF(Overview!C:C,A14)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -45292,7 +45344,7 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
@@ -45827,7 +45879,7 @@
       </c>
       <c r="C16" s="1">
         <f>COUNTIF(Overview!G:G,B16)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>992</v>
@@ -45838,7 +45890,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
@@ -49259,7 +49311,7 @@
       </c>
       <c r="C104" s="1">
         <f>COUNTIF(Overview!G:G,B104)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
         <v>992</v>
@@ -49270,7 +49322,7 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" si="11"/>

--- a/documentation/WAS Tracking Table.xlsx
+++ b/documentation/WAS Tracking Table.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$K$242</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1524</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11448" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11454" uniqueCount="1274">
   <si>
     <t>Start Year</t>
   </si>
@@ -4012,6 +4012,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4129,6 +4130,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4242,7 +4244,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>158</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10</c:v>
@@ -4459,6 +4461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4639,7 +4642,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4675,13 +4680,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>372</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>47</c:v>
@@ -4718,6 +4723,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -6034,8 +6040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1594" totalsRowShown="0">
-  <autoFilter ref="A1:I1594"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I1595" totalsRowShown="0">
+  <autoFilter ref="A1:I1595"/>
   <sortState ref="A2:I1488">
     <sortCondition ref="D2:D1488"/>
     <sortCondition ref="E2:E1488"/>
@@ -6336,11 +6342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1596"/>
+  <dimension ref="A1:I1597"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1047" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1062" sqref="F1062"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7160,7 +7166,7 @@
         <v>1032</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -11248,7 +11254,7 @@
         <v>166</v>
       </c>
       <c r="G188" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H188" t="s">
         <v>17</v>
@@ -35341,7 +35347,7 @@
         <v>28</v>
       </c>
       <c r="G1106" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H1106" t="s">
         <v>17</v>
@@ -35653,7 +35659,7 @@
         <v>1032</v>
       </c>
       <c r="G1118" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H1118" t="s">
         <v>17</v>
@@ -36069,7 +36075,7 @@
         <v>28</v>
       </c>
       <c r="G1134" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H1134" t="s">
         <v>17</v>
@@ -36641,7 +36647,7 @@
         <v>28</v>
       </c>
       <c r="G1156" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H1156" t="s">
         <v>17</v>
@@ -41229,13 +41235,13 @@
         <v>1025</v>
       </c>
       <c r="F1332" t="s">
-        <v>1024</v>
+        <v>28</v>
       </c>
       <c r="G1332" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H1332" t="s">
-        <v>46</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
@@ -41255,10 +41261,10 @@
         <v>1025</v>
       </c>
       <c r="F1333" t="s">
-        <v>31</v>
+        <v>1024</v>
       </c>
       <c r="G1333" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H1333" t="s">
         <v>46</v>
@@ -41281,13 +41287,13 @@
         <v>1025</v>
       </c>
       <c r="F1334" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G1334" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1334" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
@@ -41307,13 +41313,13 @@
         <v>1025</v>
       </c>
       <c r="F1335" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G1335" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1335" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
@@ -41333,13 +41339,13 @@
         <v>1025</v>
       </c>
       <c r="F1336" t="s">
-        <v>1027</v>
+        <v>124</v>
       </c>
       <c r="G1336" t="s">
         <v>13</v>
       </c>
       <c r="H1336" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
@@ -41359,13 +41365,13 @@
         <v>1025</v>
       </c>
       <c r="F1337" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="G1337" t="s">
         <v>13</v>
       </c>
       <c r="H1337" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
@@ -41385,13 +41391,13 @@
         <v>1025</v>
       </c>
       <c r="F1338" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="G1338" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1338" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
@@ -41411,13 +41417,13 @@
         <v>1025</v>
       </c>
       <c r="F1339" t="s">
-        <v>61</v>
+        <v>1014</v>
       </c>
       <c r="G1339" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="H1339" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
@@ -41437,10 +41443,10 @@
         <v>1025</v>
       </c>
       <c r="F1340" t="s">
-        <v>359</v>
+        <v>61</v>
       </c>
       <c r="G1340" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H1340" t="s">
         <v>46</v>
@@ -41463,10 +41469,10 @@
         <v>1025</v>
       </c>
       <c r="F1341" t="s">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="G1341" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1341" t="s">
         <v>46</v>
@@ -41489,13 +41495,13 @@
         <v>1025</v>
       </c>
       <c r="F1342" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="G1342" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H1342" t="s">
-        <v>512</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
@@ -41515,13 +41521,13 @@
         <v>1025</v>
       </c>
       <c r="F1343" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="G1343" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H1343" t="s">
-        <v>46</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
@@ -41529,7 +41535,7 @@
         <v>1973</v>
       </c>
       <c r="B1344" s="1">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="C1344" t="s">
         <v>412</v>
@@ -41538,10 +41544,10 @@
         <v>1022</v>
       </c>
       <c r="E1344" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F1344" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="G1344" t="s">
         <v>13</v>
@@ -41552,22 +41558,22 @@
     </row>
     <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
-        <v>1959</v>
+        <v>1973</v>
       </c>
       <c r="B1345" s="1">
-        <v>1972</v>
+        <v>1983</v>
       </c>
       <c r="C1345" t="s">
         <v>412</v>
       </c>
       <c r="D1345" s="5" t="s">
-        <v>998</v>
+        <v>1022</v>
       </c>
       <c r="E1345" s="5" t="s">
-        <v>999</v>
+        <v>1028</v>
       </c>
       <c r="F1345" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G1345" t="s">
         <v>13</v>
@@ -41593,13 +41599,13 @@
         <v>999</v>
       </c>
       <c r="F1346" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="G1346" t="s">
         <v>13</v>
       </c>
       <c r="H1346" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
@@ -41616,16 +41622,16 @@
         <v>998</v>
       </c>
       <c r="E1347" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F1347" t="s">
-        <v>440</v>
+        <v>185</v>
       </c>
       <c r="G1347" t="s">
         <v>13</v>
       </c>
       <c r="H1347" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
@@ -41645,18 +41651,18 @@
         <v>1000</v>
       </c>
       <c r="F1348" t="s">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="G1348" t="s">
         <v>13</v>
       </c>
       <c r="H1348" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1349" s="1">
         <v>1972</v>
@@ -41668,16 +41674,16 @@
         <v>998</v>
       </c>
       <c r="E1349" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F1349" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="G1349" t="s">
         <v>13</v>
       </c>
       <c r="H1349" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1350" spans="1:8" x14ac:dyDescent="0.25">
@@ -41697,13 +41703,13 @@
         <v>1001</v>
       </c>
       <c r="F1350" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="G1350" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="H1350" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
@@ -41723,13 +41729,13 @@
         <v>1001</v>
       </c>
       <c r="F1351" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="G1351" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H1351" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
@@ -41749,7 +41755,7 @@
         <v>1001</v>
       </c>
       <c r="F1352" t="s">
-        <v>1002</v>
+        <v>124</v>
       </c>
       <c r="G1352" t="s">
         <v>13</v>
@@ -41775,13 +41781,13 @@
         <v>1001</v>
       </c>
       <c r="F1353" t="s">
-        <v>128</v>
+        <v>1002</v>
       </c>
       <c r="G1353" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H1353" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
@@ -41801,10 +41807,10 @@
         <v>1001</v>
       </c>
       <c r="F1354" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="G1354" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1354" t="s">
         <v>18</v>
@@ -41812,7 +41818,7 @@
     </row>
     <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1355" s="1">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1355" s="1">
         <v>1972</v>
@@ -41824,16 +41830,16 @@
         <v>998</v>
       </c>
       <c r="E1355" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F1355" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="G1355" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H1355" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
@@ -41853,10 +41859,10 @@
         <v>1003</v>
       </c>
       <c r="F1356" t="s">
-        <v>602</v>
+        <v>110</v>
       </c>
       <c r="G1356" t="s">
-        <v>603</v>
+        <v>136</v>
       </c>
       <c r="H1356" t="s">
         <v>46</v>
@@ -41876,13 +41882,13 @@
         <v>998</v>
       </c>
       <c r="E1357" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F1357" t="s">
-        <v>1005</v>
+        <v>602</v>
       </c>
       <c r="G1357" t="s">
-        <v>76</v>
+        <v>603</v>
       </c>
       <c r="H1357" t="s">
         <v>46</v>
@@ -41905,13 +41911,13 @@
         <v>1004</v>
       </c>
       <c r="F1358" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G1358" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1358" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
@@ -41931,13 +41937,13 @@
         <v>1004</v>
       </c>
       <c r="F1359" t="s">
-        <v>170</v>
+        <v>1006</v>
       </c>
       <c r="G1359" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="H1359" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
@@ -41957,10 +41963,10 @@
         <v>1004</v>
       </c>
       <c r="F1360" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G1360" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="H1360" t="s">
         <v>46</v>
@@ -41983,7 +41989,7 @@
         <v>1004</v>
       </c>
       <c r="F1361" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="G1361" t="s">
         <v>13</v>
@@ -42009,10 +42015,10 @@
         <v>1004</v>
       </c>
       <c r="F1362" t="s">
-        <v>122</v>
+        <v>440</v>
       </c>
       <c r="G1362" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1362" t="s">
         <v>46</v>
@@ -42035,13 +42041,13 @@
         <v>1004</v>
       </c>
       <c r="F1363" t="s">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="G1363" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="H1363" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
@@ -42061,13 +42067,13 @@
         <v>1004</v>
       </c>
       <c r="F1364" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="G1364" t="s">
-        <v>192</v>
+        <v>395</v>
       </c>
       <c r="H1364" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
@@ -42087,13 +42093,13 @@
         <v>1004</v>
       </c>
       <c r="F1365" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="G1365" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="H1365" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
@@ -42113,10 +42119,10 @@
         <v>1004</v>
       </c>
       <c r="F1366" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="G1366" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1366" t="s">
         <v>18</v>
@@ -42139,39 +42145,39 @@
         <v>1004</v>
       </c>
       <c r="F1367" t="s">
-        <v>1007</v>
+        <v>185</v>
       </c>
       <c r="G1367" t="s">
-        <v>983</v>
+        <v>13</v>
       </c>
       <c r="H1367" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1368" s="1">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="B1368" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1368" t="s">
         <v>412</v>
       </c>
       <c r="D1368" s="5" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="E1368" s="5" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F1368" t="s">
-        <v>162</v>
+        <v>1007</v>
       </c>
       <c r="G1368" t="s">
-        <v>79</v>
+        <v>983</v>
       </c>
       <c r="H1368" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
@@ -42191,13 +42197,13 @@
         <v>1010</v>
       </c>
       <c r="F1369" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="G1369" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H1369" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
@@ -42217,10 +42223,10 @@
         <v>1010</v>
       </c>
       <c r="F1370" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="G1370" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H1370" t="s">
         <v>46</v>
@@ -42243,10 +42249,10 @@
         <v>1010</v>
       </c>
       <c r="F1371" t="s">
-        <v>1011</v>
+        <v>220</v>
       </c>
       <c r="G1371" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="H1371" t="s">
         <v>46</v>
@@ -42269,10 +42275,10 @@
         <v>1010</v>
       </c>
       <c r="F1372" t="s">
-        <v>325</v>
+        <v>1011</v>
       </c>
       <c r="G1372" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1372" t="s">
         <v>46</v>
@@ -42295,10 +42301,10 @@
         <v>1010</v>
       </c>
       <c r="F1373" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="G1373" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="H1373" t="s">
         <v>46</v>
@@ -42321,13 +42327,13 @@
         <v>1010</v>
       </c>
       <c r="F1374" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="G1374" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="H1374" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1375" spans="1:8" x14ac:dyDescent="0.25">
@@ -42347,13 +42353,13 @@
         <v>1010</v>
       </c>
       <c r="F1375" t="s">
-        <v>359</v>
+        <v>124</v>
       </c>
       <c r="G1375" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1375" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1376" spans="1:8" x14ac:dyDescent="0.25">
@@ -42373,10 +42379,10 @@
         <v>1010</v>
       </c>
       <c r="F1376" t="s">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="G1376" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1376" t="s">
         <v>46</v>
@@ -42399,10 +42405,10 @@
         <v>1010</v>
       </c>
       <c r="F1377" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="G1377" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1377" t="s">
         <v>46</v>
@@ -42410,10 +42416,10 @@
     </row>
     <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1378" s="1">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B1378" s="1">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="C1378" t="s">
         <v>412</v>
@@ -42422,13 +42428,13 @@
         <v>1009</v>
       </c>
       <c r="E1378" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F1378" t="s">
-        <v>1013</v>
+        <v>329</v>
       </c>
       <c r="G1378" t="s">
-        <v>983</v>
+        <v>13</v>
       </c>
       <c r="H1378" t="s">
         <v>46</v>
@@ -42451,21 +42457,21 @@
         <v>1012</v>
       </c>
       <c r="F1379" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G1379" t="s">
-        <v>152</v>
+        <v>983</v>
       </c>
       <c r="H1379" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1380" s="1">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1380" s="1">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C1380" t="s">
         <v>412</v>
@@ -42474,16 +42480,16 @@
         <v>1009</v>
       </c>
       <c r="E1380" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F1380" t="s">
-        <v>534</v>
+        <v>1014</v>
       </c>
       <c r="G1380" t="s">
-        <v>536</v>
+        <v>152</v>
       </c>
       <c r="H1380" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
@@ -42503,13 +42509,13 @@
         <v>1015</v>
       </c>
       <c r="F1381" t="s">
-        <v>108</v>
+        <v>534</v>
       </c>
       <c r="G1381" t="s">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="H1381" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
@@ -42529,13 +42535,13 @@
         <v>1015</v>
       </c>
       <c r="F1382" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G1382" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="H1382" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1383" spans="1:8" x14ac:dyDescent="0.25">
@@ -42555,10 +42561,10 @@
         <v>1015</v>
       </c>
       <c r="F1383" t="s">
-        <v>1005</v>
+        <v>110</v>
       </c>
       <c r="G1383" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H1383" t="s">
         <v>46</v>
@@ -42581,10 +42587,10 @@
         <v>1015</v>
       </c>
       <c r="F1384" t="s">
-        <v>587</v>
+        <v>1005</v>
       </c>
       <c r="G1384" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H1384" t="s">
         <v>46</v>
@@ -42607,10 +42613,10 @@
         <v>1015</v>
       </c>
       <c r="F1385" t="s">
-        <v>1019</v>
+        <v>587</v>
       </c>
       <c r="G1385" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1385" t="s">
         <v>46</v>
@@ -42633,13 +42639,13 @@
         <v>1015</v>
       </c>
       <c r="F1386" t="s">
-        <v>117</v>
+        <v>1019</v>
       </c>
       <c r="G1386" t="s">
         <v>13</v>
       </c>
       <c r="H1386" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
@@ -42659,13 +42665,13 @@
         <v>1015</v>
       </c>
       <c r="F1387" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G1387" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1387" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
@@ -42685,13 +42691,13 @@
         <v>1015</v>
       </c>
       <c r="F1388" t="s">
-        <v>1017</v>
+        <v>122</v>
       </c>
       <c r="G1388" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="H1388" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
@@ -42711,13 +42717,13 @@
         <v>1015</v>
       </c>
       <c r="F1389" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G1389" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H1389" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
@@ -42737,13 +42743,13 @@
         <v>1015</v>
       </c>
       <c r="F1390" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="G1390" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1390" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1391" spans="1:8" x14ac:dyDescent="0.25">
@@ -42763,13 +42769,13 @@
         <v>1015</v>
       </c>
       <c r="F1391" t="s">
-        <v>359</v>
+        <v>1014</v>
       </c>
       <c r="G1391" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1391" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
@@ -42789,10 +42795,10 @@
         <v>1015</v>
       </c>
       <c r="F1392" t="s">
-        <v>128</v>
+        <v>359</v>
       </c>
       <c r="G1392" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1392" t="s">
         <v>46</v>
@@ -42815,10 +42821,10 @@
         <v>1015</v>
       </c>
       <c r="F1393" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="G1393" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1393" t="s">
         <v>46</v>
@@ -42841,7 +42847,7 @@
         <v>1015</v>
       </c>
       <c r="F1394" t="s">
-        <v>1018</v>
+        <v>329</v>
       </c>
       <c r="G1394" t="s">
         <v>13</v>
@@ -42852,10 +42858,10 @@
     </row>
     <row r="1395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1395" s="1">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="C1395" t="s">
         <v>412</v>
@@ -42864,13 +42870,13 @@
         <v>1009</v>
       </c>
       <c r="E1395" s="5" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F1395" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="G1395" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1395" t="s">
         <v>46</v>
@@ -42893,21 +42899,21 @@
         <v>1020</v>
       </c>
       <c r="F1396" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="G1396" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="H1396" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1397" s="1">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="B1397" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C1397" t="s">
         <v>412</v>
@@ -42916,16 +42922,16 @@
         <v>1009</v>
       </c>
       <c r="E1397" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F1397" t="s">
-        <v>117</v>
+        <v>1014</v>
       </c>
       <c r="G1397" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1397" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1398" spans="1:8" x14ac:dyDescent="0.25">
@@ -42945,39 +42951,39 @@
         <v>1021</v>
       </c>
       <c r="F1398" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G1398" t="s">
         <v>13</v>
       </c>
       <c r="H1398" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1399" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B1399" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1399" s="6" t="s">
-        <v>407</v>
+        <v>1975</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>1982</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>412</v>
       </c>
       <c r="D1399" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E1399" t="s">
-        <v>566</v>
+        <v>1009</v>
+      </c>
+      <c r="E1399" s="5" t="s">
+        <v>1021</v>
       </c>
       <c r="F1399" t="s">
-        <v>567</v>
+        <v>124</v>
       </c>
       <c r="G1399" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
       <c r="H1399" t="s">
-        <v>569</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1400" spans="1:8" x14ac:dyDescent="0.25">
@@ -42997,13 +43003,13 @@
         <v>566</v>
       </c>
       <c r="F1400" t="s">
-        <v>1162</v>
+        <v>567</v>
       </c>
       <c r="G1400" t="s">
-        <v>20</v>
+        <v>568</v>
       </c>
       <c r="H1400" t="s">
-        <v>46</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
@@ -43020,7 +43026,7 @@
         <v>565</v>
       </c>
       <c r="E1401" t="s">
-        <v>1163</v>
+        <v>566</v>
       </c>
       <c r="F1401" t="s">
         <v>1162</v>
@@ -43049,10 +43055,10 @@
         <v>1163</v>
       </c>
       <c r="F1402" t="s">
-        <v>1199</v>
+        <v>1162</v>
       </c>
       <c r="G1402" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H1402" t="s">
         <v>46</v>
@@ -43060,7 +43066,7 @@
     </row>
     <row r="1403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1403" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1403" s="1" t="s">
         <v>93</v>
@@ -43072,13 +43078,13 @@
         <v>565</v>
       </c>
       <c r="E1403" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F1403" t="s">
-        <v>373</v>
+        <v>1199</v>
       </c>
       <c r="G1403" t="s">
-        <v>379</v>
+        <v>70</v>
       </c>
       <c r="H1403" t="s">
         <v>46</v>
@@ -43101,10 +43107,10 @@
         <v>1161</v>
       </c>
       <c r="F1404" t="s">
-        <v>59</v>
+        <v>373</v>
       </c>
       <c r="G1404" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="H1404" t="s">
         <v>46</v>
@@ -43124,13 +43130,13 @@
         <v>565</v>
       </c>
       <c r="E1405" t="s">
-        <v>570</v>
+        <v>1161</v>
       </c>
       <c r="F1405" t="s">
-        <v>571</v>
+        <v>59</v>
       </c>
       <c r="G1405" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="H1405" t="s">
         <v>46</v>
@@ -43153,10 +43159,10 @@
         <v>570</v>
       </c>
       <c r="F1406" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="G1406" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="H1406" t="s">
         <v>46</v>
@@ -43164,7 +43170,7 @@
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1407" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1407" s="1" t="s">
         <v>93</v>
@@ -43173,19 +43179,19 @@
         <v>407</v>
       </c>
       <c r="D1407" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E1407" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F1407" t="s">
-        <v>574</v>
+        <v>309</v>
       </c>
       <c r="G1407" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H1407" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
@@ -43205,13 +43211,13 @@
         <v>573</v>
       </c>
       <c r="F1408" t="s">
-        <v>1212</v>
+        <v>574</v>
       </c>
       <c r="G1408" t="s">
-        <v>983</v>
+        <v>86</v>
       </c>
       <c r="H1408" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.25">
@@ -43231,10 +43237,10 @@
         <v>573</v>
       </c>
       <c r="F1409" t="s">
-        <v>1118</v>
+        <v>1212</v>
       </c>
       <c r="G1409" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="H1409" t="s">
         <v>46</v>
@@ -43257,13 +43263,13 @@
         <v>573</v>
       </c>
       <c r="F1410" t="s">
-        <v>1186</v>
+        <v>1118</v>
       </c>
       <c r="G1410" t="s">
-        <v>139</v>
+        <v>941</v>
       </c>
       <c r="H1410" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
@@ -43283,10 +43289,10 @@
         <v>573</v>
       </c>
       <c r="F1411" t="s">
-        <v>577</v>
+        <v>1186</v>
       </c>
       <c r="G1411" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="H1411" t="s">
         <v>17</v>
@@ -43309,13 +43315,13 @@
         <v>573</v>
       </c>
       <c r="F1412" t="s">
-        <v>1187</v>
+        <v>577</v>
       </c>
       <c r="G1412" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H1412" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.25">
@@ -43335,10 +43341,10 @@
         <v>573</v>
       </c>
       <c r="F1413" t="s">
-        <v>1099</v>
+        <v>1187</v>
       </c>
       <c r="G1413" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H1413" t="s">
         <v>46</v>
@@ -43361,10 +43367,10 @@
         <v>573</v>
       </c>
       <c r="F1414" t="s">
-        <v>503</v>
+        <v>1099</v>
       </c>
       <c r="G1414" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H1414" t="s">
         <v>46</v>
@@ -43387,13 +43393,13 @@
         <v>573</v>
       </c>
       <c r="F1415" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
       <c r="G1415" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="H1415" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.25">
@@ -43410,16 +43416,16 @@
         <v>572</v>
       </c>
       <c r="E1416" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F1416" t="s">
-        <v>1233</v>
+        <v>576</v>
       </c>
       <c r="G1416" t="s">
-        <v>597</v>
+        <v>193</v>
       </c>
       <c r="H1416" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1417" spans="1:8" x14ac:dyDescent="0.25">
@@ -43439,13 +43445,13 @@
         <v>578</v>
       </c>
       <c r="F1417" t="s">
-        <v>1186</v>
+        <v>1233</v>
       </c>
       <c r="G1417" t="s">
-        <v>139</v>
+        <v>597</v>
       </c>
       <c r="H1417" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1418" spans="1:8" x14ac:dyDescent="0.25">
@@ -43465,10 +43471,10 @@
         <v>578</v>
       </c>
       <c r="F1418" t="s">
-        <v>120</v>
+        <v>1186</v>
       </c>
       <c r="G1418" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H1418" t="s">
         <v>17</v>
@@ -43491,13 +43497,13 @@
         <v>578</v>
       </c>
       <c r="F1419" t="s">
-        <v>1207</v>
+        <v>120</v>
       </c>
       <c r="G1419" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="H1419" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
@@ -43517,10 +43523,10 @@
         <v>578</v>
       </c>
       <c r="F1420" t="s">
-        <v>1162</v>
+        <v>1207</v>
       </c>
       <c r="G1420" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H1420" t="s">
         <v>46</v>
@@ -43543,10 +43549,10 @@
         <v>578</v>
       </c>
       <c r="F1421" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="G1421" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="H1421" t="s">
         <v>46</v>
@@ -43569,10 +43575,10 @@
         <v>578</v>
       </c>
       <c r="F1422" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="G1422" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="H1422" t="s">
         <v>46</v>
@@ -43595,10 +43601,10 @@
         <v>578</v>
       </c>
       <c r="F1423" t="s">
-        <v>1099</v>
+        <v>1187</v>
       </c>
       <c r="G1423" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H1423" t="s">
         <v>46</v>
@@ -43621,10 +43627,10 @@
         <v>578</v>
       </c>
       <c r="F1424" t="s">
-        <v>503</v>
+        <v>1099</v>
       </c>
       <c r="G1424" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H1424" t="s">
         <v>46</v>
@@ -43644,13 +43650,13 @@
         <v>572</v>
       </c>
       <c r="E1425" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F1425" t="s">
-        <v>571</v>
+        <v>503</v>
       </c>
       <c r="G1425" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="H1425" t="s">
         <v>46</v>
@@ -43673,13 +43679,13 @@
         <v>579</v>
       </c>
       <c r="F1426" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G1426" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="H1426" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
@@ -43695,22 +43701,22 @@
       <c r="D1427" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E1427" s="5" t="s">
+      <c r="E1427" t="s">
         <v>579</v>
       </c>
       <c r="F1427" t="s">
-        <v>1068</v>
+        <v>580</v>
       </c>
       <c r="G1427" t="s">
-        <v>862</v>
+        <v>36</v>
       </c>
       <c r="H1427" t="s">
-        <v>1067</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1428" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1428" s="1" t="s">
         <v>93</v>
@@ -43721,22 +43727,22 @@
       <c r="D1428" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E1428" t="s">
+      <c r="E1428" s="5" t="s">
         <v>579</v>
       </c>
       <c r="F1428" t="s">
-        <v>1186</v>
+        <v>1068</v>
       </c>
       <c r="G1428" t="s">
-        <v>139</v>
+        <v>862</v>
       </c>
       <c r="H1428" t="s">
-        <v>17</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1429" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1429" s="1" t="s">
         <v>93</v>
@@ -43747,17 +43753,17 @@
       <c r="D1429" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E1429" s="5" t="s">
+      <c r="E1429" t="s">
         <v>579</v>
       </c>
       <c r="F1429" t="s">
-        <v>1162</v>
+        <v>1186</v>
       </c>
       <c r="G1429" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="H1429" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
@@ -43773,17 +43779,17 @@
       <c r="D1430" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E1430" t="s">
+      <c r="E1430" s="5" t="s">
         <v>579</v>
       </c>
       <c r="F1430" t="s">
-        <v>581</v>
+        <v>1162</v>
       </c>
       <c r="G1430" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="H1430" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
@@ -43803,18 +43809,18 @@
         <v>579</v>
       </c>
       <c r="F1431" t="s">
-        <v>1178</v>
+        <v>581</v>
       </c>
       <c r="G1431" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="H1431" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1432" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1432" s="1" t="s">
         <v>93</v>
@@ -43826,16 +43832,16 @@
         <v>572</v>
       </c>
       <c r="E1432" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F1432" t="s">
-        <v>59</v>
+        <v>1178</v>
       </c>
       <c r="G1432" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="H1432" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
@@ -43852,16 +43858,16 @@
         <v>572</v>
       </c>
       <c r="E1433" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F1433" t="s">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="G1433" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="H1433" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
@@ -43881,10 +43887,10 @@
         <v>583</v>
       </c>
       <c r="F1434" t="s">
-        <v>1156</v>
+        <v>285</v>
       </c>
       <c r="G1434" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H1434" t="s">
         <v>46</v>
@@ -43907,7 +43913,7 @@
         <v>583</v>
       </c>
       <c r="F1435" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G1435" t="s">
         <v>76</v>
@@ -43933,10 +43939,10 @@
         <v>583</v>
       </c>
       <c r="F1436" t="s">
-        <v>111</v>
+        <v>1157</v>
       </c>
       <c r="G1436" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="H1436" t="s">
         <v>46</v>
@@ -43959,10 +43965,10 @@
         <v>583</v>
       </c>
       <c r="F1437" t="s">
-        <v>373</v>
+        <v>111</v>
       </c>
       <c r="G1437" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="H1437" t="s">
         <v>46</v>
@@ -43985,10 +43991,10 @@
         <v>583</v>
       </c>
       <c r="F1438" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G1438" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="H1438" t="s">
         <v>46</v>
@@ -44011,10 +44017,10 @@
         <v>583</v>
       </c>
       <c r="F1439" t="s">
-        <v>1155</v>
+        <v>309</v>
       </c>
       <c r="G1439" t="s">
-        <v>382</v>
+        <v>36</v>
       </c>
       <c r="H1439" t="s">
         <v>46</v>
@@ -44037,13 +44043,13 @@
         <v>583</v>
       </c>
       <c r="F1440" t="s">
-        <v>398</v>
+        <v>1155</v>
       </c>
       <c r="G1440" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="H1440" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
@@ -44063,10 +44069,10 @@
         <v>583</v>
       </c>
       <c r="F1441" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="G1441" t="s">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="H1441" t="s">
         <v>17</v>
@@ -44085,17 +44091,17 @@
       <c r="D1442" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E1442" s="5" t="s">
+      <c r="E1442" t="s">
         <v>583</v>
       </c>
       <c r="F1442" t="s">
-        <v>1075</v>
+        <v>31</v>
       </c>
       <c r="G1442" t="s">
-        <v>927</v>
+        <v>32</v>
       </c>
       <c r="H1442" t="s">
-        <v>1067</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1443" spans="1:8" x14ac:dyDescent="0.25">
@@ -44111,22 +44117,22 @@
       <c r="D1443" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E1443" t="s">
-        <v>582</v>
+      <c r="E1443" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="F1443" t="s">
-        <v>268</v>
+        <v>1075</v>
       </c>
       <c r="G1443" t="s">
-        <v>36</v>
+        <v>927</v>
       </c>
       <c r="H1443" t="s">
-        <v>17</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="B1444" s="1" t="s">
         <v>93</v>
@@ -44135,19 +44141,19 @@
         <v>407</v>
       </c>
       <c r="D1444" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E1444" s="5" t="s">
-        <v>1065</v>
+        <v>572</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>582</v>
       </c>
       <c r="F1444" t="s">
-        <v>1162</v>
+        <v>268</v>
       </c>
       <c r="G1444" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H1444" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1445" spans="1:8" x14ac:dyDescent="0.25">
@@ -44167,10 +44173,10 @@
         <v>1065</v>
       </c>
       <c r="F1445" t="s">
-        <v>1198</v>
+        <v>1162</v>
       </c>
       <c r="G1445" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H1445" t="s">
         <v>46</v>
@@ -44178,25 +44184,25 @@
     </row>
     <row r="1446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B1446" s="1">
-        <v>1997</v>
+        <v>1996</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C1446" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1446" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="E1446" t="s">
-        <v>588</v>
+        <v>1065</v>
+      </c>
+      <c r="E1446" s="5" t="s">
+        <v>1065</v>
       </c>
       <c r="F1446" t="s">
-        <v>105</v>
+        <v>1198</v>
       </c>
       <c r="G1446" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H1446" t="s">
         <v>46</v>
@@ -44219,10 +44225,10 @@
         <v>588</v>
       </c>
       <c r="F1447" t="s">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="G1447" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="H1447" t="s">
         <v>46</v>
@@ -44245,10 +44251,10 @@
         <v>588</v>
       </c>
       <c r="F1448" t="s">
-        <v>1169</v>
+        <v>285</v>
       </c>
       <c r="G1448" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="H1448" t="s">
         <v>46</v>
@@ -44271,13 +44277,13 @@
         <v>588</v>
       </c>
       <c r="F1449" t="s">
-        <v>498</v>
+        <v>1169</v>
       </c>
       <c r="G1449" t="s">
-        <v>501</v>
+        <v>20</v>
       </c>
       <c r="H1449" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
@@ -44297,13 +44303,13 @@
         <v>588</v>
       </c>
       <c r="F1450" t="s">
-        <v>586</v>
+        <v>498</v>
       </c>
       <c r="G1450" t="s">
-        <v>193</v>
+        <v>501</v>
       </c>
       <c r="H1450" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
@@ -44323,10 +44329,10 @@
         <v>588</v>
       </c>
       <c r="F1451" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="G1451" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H1451" t="s">
         <v>46</v>
@@ -44349,13 +44355,13 @@
         <v>588</v>
       </c>
       <c r="F1452" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="G1452" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="H1452" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1453" spans="1:8" x14ac:dyDescent="0.25">
@@ -44375,13 +44381,13 @@
         <v>588</v>
       </c>
       <c r="F1453" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G1453" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H1453" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1454" spans="1:8" x14ac:dyDescent="0.25">
@@ -44401,7 +44407,7 @@
         <v>588</v>
       </c>
       <c r="F1454" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G1454" t="s">
         <v>36</v>
@@ -44427,10 +44433,10 @@
         <v>588</v>
       </c>
       <c r="F1455" t="s">
-        <v>1170</v>
+        <v>590</v>
       </c>
       <c r="G1455" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H1455" t="s">
         <v>46</v>
@@ -44453,10 +44459,10 @@
         <v>588</v>
       </c>
       <c r="F1456" t="s">
-        <v>591</v>
+        <v>1170</v>
       </c>
       <c r="G1456" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="H1456" t="s">
         <v>46</v>
@@ -44479,13 +44485,13 @@
         <v>588</v>
       </c>
       <c r="F1457" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G1457" t="s">
-        <v>596</v>
+        <v>32</v>
       </c>
       <c r="H1457" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1458" spans="1:8" x14ac:dyDescent="0.25">
@@ -44504,14 +44510,14 @@
       <c r="E1458" t="s">
         <v>588</v>
       </c>
-      <c r="F1458" s="11" t="s">
-        <v>599</v>
+      <c r="F1458" t="s">
+        <v>592</v>
       </c>
       <c r="G1458" t="s">
-        <v>192</v>
+        <v>596</v>
       </c>
       <c r="H1458" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1459" spans="1:8" x14ac:dyDescent="0.25">
@@ -44531,13 +44537,13 @@
         <v>588</v>
       </c>
       <c r="F1459" s="11" t="s">
-        <v>1171</v>
+        <v>599</v>
       </c>
       <c r="G1459" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H1459" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1460" spans="1:8" x14ac:dyDescent="0.25">
@@ -44556,11 +44562,11 @@
       <c r="E1460" t="s">
         <v>588</v>
       </c>
-      <c r="F1460" t="s">
-        <v>598</v>
+      <c r="F1460" s="11" t="s">
+        <v>1171</v>
       </c>
       <c r="G1460" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H1460" t="s">
         <v>46</v>
@@ -44583,10 +44589,10 @@
         <v>588</v>
       </c>
       <c r="F1461" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="G1461" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1461" t="s">
         <v>46</v>
@@ -44609,13 +44615,13 @@
         <v>588</v>
       </c>
       <c r="F1462" t="s">
-        <v>1172</v>
+        <v>593</v>
       </c>
       <c r="G1462" t="s">
         <v>66</v>
       </c>
       <c r="H1462" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
@@ -44635,13 +44641,13 @@
         <v>588</v>
       </c>
       <c r="F1463" t="s">
-        <v>56</v>
+        <v>1172</v>
       </c>
       <c r="G1463" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H1463" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
@@ -44661,13 +44667,13 @@
         <v>588</v>
       </c>
       <c r="F1464" t="s">
-        <v>581</v>
+        <v>56</v>
       </c>
       <c r="G1464" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="H1464" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
@@ -44687,13 +44693,13 @@
         <v>588</v>
       </c>
       <c r="F1465" t="s">
-        <v>742</v>
+        <v>581</v>
       </c>
       <c r="G1465" t="s">
-        <v>927</v>
+        <v>192</v>
       </c>
       <c r="H1465" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
@@ -44713,10 +44719,10 @@
         <v>588</v>
       </c>
       <c r="F1466" t="s">
-        <v>594</v>
+        <v>742</v>
       </c>
       <c r="G1466" t="s">
-        <v>140</v>
+        <v>927</v>
       </c>
       <c r="H1466" t="s">
         <v>46</v>
@@ -44739,13 +44745,13 @@
         <v>588</v>
       </c>
       <c r="F1467" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G1467" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="H1467" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1468" spans="1:8" x14ac:dyDescent="0.25">
@@ -44765,18 +44771,18 @@
         <v>588</v>
       </c>
       <c r="F1468" t="s">
-        <v>128</v>
+        <v>595</v>
       </c>
       <c r="G1468" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="H1468" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1469" s="1">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B1469" s="1">
         <v>1997</v>
@@ -44785,19 +44791,19 @@
         <v>408</v>
       </c>
       <c r="D1469" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E1469" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F1469" t="s">
-        <v>586</v>
+        <v>128</v>
       </c>
       <c r="G1469" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="H1469" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1470" spans="1:8" x14ac:dyDescent="0.25">
@@ -44817,10 +44823,10 @@
         <v>585</v>
       </c>
       <c r="F1470" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="G1470" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H1470" t="s">
         <v>46</v>
@@ -44843,10 +44849,10 @@
         <v>585</v>
       </c>
       <c r="F1471" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="G1471" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="H1471" t="s">
         <v>46</v>
@@ -44869,13 +44875,13 @@
         <v>585</v>
       </c>
       <c r="F1472" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="G1472" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="H1472" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1473" spans="1:8" x14ac:dyDescent="0.25">
@@ -44895,39 +44901,39 @@
         <v>585</v>
       </c>
       <c r="F1473" t="s">
-        <v>400</v>
+        <v>581</v>
       </c>
       <c r="G1473" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H1473" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1474" s="1">
-        <v>1967</v>
+        <v>1992</v>
       </c>
       <c r="B1474" s="1">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C1474" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D1474" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1474" s="5" t="s">
-        <v>997</v>
+        <v>585</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>585</v>
       </c>
       <c r="F1474" t="s">
-        <v>158</v>
+        <v>400</v>
       </c>
       <c r="G1474" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="H1474" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1475" spans="1:8" x14ac:dyDescent="0.25">
@@ -44947,13 +44953,13 @@
         <v>997</v>
       </c>
       <c r="F1475" t="s">
-        <v>601</v>
+        <v>158</v>
       </c>
       <c r="G1475" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="H1475" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1476" spans="1:8" x14ac:dyDescent="0.25">
@@ -44973,13 +44979,13 @@
         <v>997</v>
       </c>
       <c r="F1476" t="s">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="G1476" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="H1476" t="s">
-        <v>1131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.25">
@@ -44999,13 +45005,13 @@
         <v>997</v>
       </c>
       <c r="F1477" t="s">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="G1477" t="s">
-        <v>603</v>
+        <v>83</v>
       </c>
       <c r="H1477" t="s">
-        <v>46</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1478" spans="1:8" x14ac:dyDescent="0.25">
@@ -45025,13 +45031,13 @@
         <v>997</v>
       </c>
       <c r="F1478" t="s">
-        <v>1132</v>
+        <v>602</v>
       </c>
       <c r="G1478" t="s">
-        <v>1152</v>
+        <v>603</v>
       </c>
       <c r="H1478" t="s">
-        <v>1131</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1479" spans="1:8" x14ac:dyDescent="0.25">
@@ -45051,13 +45057,13 @@
         <v>997</v>
       </c>
       <c r="F1479" t="s">
-        <v>398</v>
+        <v>1132</v>
       </c>
       <c r="G1479" t="s">
-        <v>399</v>
+        <v>1152</v>
       </c>
       <c r="H1479" t="s">
-        <v>149</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
@@ -45077,56 +45083,56 @@
         <v>997</v>
       </c>
       <c r="F1480" t="s">
-        <v>84</v>
+        <v>398</v>
       </c>
       <c r="G1480" t="s">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="H1480" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1481" s="1">
+        <v>1967</v>
+      </c>
       <c r="B1481" s="1">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="C1481" s="6" t="s">
         <v>410</v>
       </c>
       <c r="D1481" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1481" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1482" s="1">
+        <v>1974</v>
+      </c>
+      <c r="C1482" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1482" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="E1481" s="5" t="s">
+      <c r="E1482" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="F1481" t="s">
+      <c r="F1482" t="s">
         <v>1210</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1482" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B1482" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1482" t="s">
-        <v>412</v>
-      </c>
-      <c r="D1482" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E1482" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F1482" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1482" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1482" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
@@ -45146,10 +45152,10 @@
         <v>1029</v>
       </c>
       <c r="F1483" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G1483" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H1483" t="s">
         <v>46</v>
@@ -45172,13 +45178,13 @@
         <v>1029</v>
       </c>
       <c r="F1484" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="G1484" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1484" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
@@ -45198,13 +45204,13 @@
         <v>1029</v>
       </c>
       <c r="F1485" t="s">
-        <v>428</v>
+        <v>120</v>
       </c>
       <c r="G1485" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="H1485" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1486" spans="1:8" x14ac:dyDescent="0.25">
@@ -45224,13 +45230,13 @@
         <v>1029</v>
       </c>
       <c r="F1486" t="s">
-        <v>223</v>
+        <v>428</v>
       </c>
       <c r="G1486" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="H1486" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1487" spans="1:8" x14ac:dyDescent="0.25">
@@ -45250,13 +45256,13 @@
         <v>1029</v>
       </c>
       <c r="F1487" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="G1487" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="H1487" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1488" spans="1:8" x14ac:dyDescent="0.25">
@@ -45276,10 +45282,10 @@
         <v>1029</v>
       </c>
       <c r="F1488" t="s">
-        <v>1030</v>
+        <v>128</v>
       </c>
       <c r="G1488" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="H1488" t="s">
         <v>46</v>
@@ -45302,13 +45308,13 @@
         <v>1029</v>
       </c>
       <c r="F1489" t="s">
-        <v>39</v>
+        <v>1030</v>
       </c>
       <c r="G1489" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="H1489" t="s">
-        <v>512</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1490" spans="1:8" x14ac:dyDescent="0.25">
@@ -45325,16 +45331,16 @@
         <v>1029</v>
       </c>
       <c r="E1490" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F1490" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G1490" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H1490" t="s">
-        <v>17</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1491" spans="1:8" x14ac:dyDescent="0.25">
@@ -45354,10 +45360,10 @@
         <v>1031</v>
       </c>
       <c r="F1491" t="s">
-        <v>1032</v>
+        <v>12</v>
       </c>
       <c r="G1491" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1491" t="s">
         <v>17</v>
@@ -45380,10 +45386,10 @@
         <v>1031</v>
       </c>
       <c r="F1492" t="s">
-        <v>472</v>
+        <v>1032</v>
       </c>
       <c r="G1492" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="H1492" t="s">
         <v>17</v>
@@ -45406,10 +45412,10 @@
         <v>1031</v>
       </c>
       <c r="F1493" t="s">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="G1493" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H1493" t="s">
         <v>17</v>
@@ -45417,28 +45423,28 @@
     </row>
     <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B1494" s="1">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="C1494" t="s">
         <v>412</v>
       </c>
       <c r="D1494" s="5" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E1494" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F1494" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="G1494" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="H1494" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
@@ -45458,13 +45464,13 @@
         <v>1033</v>
       </c>
       <c r="F1495" t="s">
-        <v>428</v>
+        <v>111</v>
       </c>
       <c r="G1495" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="H1495" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
@@ -45484,13 +45490,13 @@
         <v>1033</v>
       </c>
       <c r="F1496" t="s">
-        <v>1035</v>
+        <v>428</v>
       </c>
       <c r="G1496" t="s">
         <v>27</v>
       </c>
       <c r="H1496" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1497" spans="1:8" x14ac:dyDescent="0.25">
@@ -45510,13 +45516,13 @@
         <v>1033</v>
       </c>
       <c r="F1497" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="G1497" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H1497" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
@@ -45536,13 +45542,13 @@
         <v>1033</v>
       </c>
       <c r="F1498" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="G1498" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1498" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
@@ -45562,13 +45568,13 @@
         <v>1033</v>
       </c>
       <c r="F1499" t="s">
-        <v>184</v>
+        <v>1036</v>
       </c>
       <c r="G1499" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1499" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
@@ -45588,13 +45594,13 @@
         <v>1033</v>
       </c>
       <c r="F1500" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G1500" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1500" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
@@ -45614,21 +45620,21 @@
         <v>1033</v>
       </c>
       <c r="F1501" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="G1501" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1501" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1502" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1502" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1502" t="s">
         <v>412</v>
@@ -45637,16 +45643,16 @@
         <v>1034</v>
       </c>
       <c r="E1502" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F1502" t="s">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="G1502" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H1502" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
@@ -45666,10 +45672,10 @@
         <v>1037</v>
       </c>
       <c r="F1503" t="s">
-        <v>1038</v>
+        <v>110</v>
       </c>
       <c r="G1503" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H1503" t="s">
         <v>17</v>
@@ -45692,13 +45698,13 @@
         <v>1037</v>
       </c>
       <c r="F1504" t="s">
-        <v>21</v>
+        <v>1038</v>
       </c>
       <c r="G1504" t="s">
         <v>13</v>
       </c>
       <c r="H1504" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.25">
@@ -45718,13 +45724,13 @@
         <v>1037</v>
       </c>
       <c r="F1505" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G1505" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="H1505" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1506" spans="1:8" x14ac:dyDescent="0.25">
@@ -45744,10 +45750,10 @@
         <v>1037</v>
       </c>
       <c r="F1506" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="G1506" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H1506" t="s">
         <v>46</v>
@@ -45770,13 +45776,13 @@
         <v>1037</v>
       </c>
       <c r="F1507" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="G1507" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1507" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.25">
@@ -45796,10 +45802,10 @@
         <v>1037</v>
       </c>
       <c r="F1508" t="s">
-        <v>1039</v>
+        <v>120</v>
       </c>
       <c r="G1508" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1508" t="s">
         <v>149</v>
@@ -45822,13 +45828,13 @@
         <v>1037</v>
       </c>
       <c r="F1509" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G1509" t="s">
-        <v>596</v>
+        <v>152</v>
       </c>
       <c r="H1509" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1510" spans="1:8" x14ac:dyDescent="0.25">
@@ -45848,13 +45854,13 @@
         <v>1037</v>
       </c>
       <c r="F1510" t="s">
-        <v>1174</v>
+        <v>1040</v>
       </c>
       <c r="G1510" t="s">
-        <v>136</v>
+        <v>596</v>
       </c>
       <c r="H1510" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1511" spans="1:8" x14ac:dyDescent="0.25">
@@ -45874,13 +45880,13 @@
         <v>1037</v>
       </c>
       <c r="F1511" t="s">
-        <v>124</v>
+        <v>1174</v>
       </c>
       <c r="G1511" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H1511" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1512" spans="1:8" x14ac:dyDescent="0.25">
@@ -45900,13 +45906,13 @@
         <v>1037</v>
       </c>
       <c r="F1512" t="s">
-        <v>381</v>
+        <v>124</v>
       </c>
       <c r="G1512" t="s">
-        <v>376</v>
+        <v>13</v>
       </c>
       <c r="H1512" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1513" spans="1:8" x14ac:dyDescent="0.25">
@@ -45926,10 +45932,10 @@
         <v>1037</v>
       </c>
       <c r="F1513" t="s">
-        <v>1016</v>
+        <v>381</v>
       </c>
       <c r="G1513" t="s">
-        <v>13</v>
+        <v>376</v>
       </c>
       <c r="H1513" t="s">
         <v>46</v>
@@ -45952,13 +45958,13 @@
         <v>1037</v>
       </c>
       <c r="F1514" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="G1514" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="H1514" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1515" spans="1:8" x14ac:dyDescent="0.25">
@@ -45978,13 +45984,13 @@
         <v>1037</v>
       </c>
       <c r="F1515" t="s">
-        <v>184</v>
+        <v>1036</v>
       </c>
       <c r="G1515" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1515" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1516" spans="1:8" x14ac:dyDescent="0.25">
@@ -46004,13 +46010,13 @@
         <v>1037</v>
       </c>
       <c r="F1516" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G1516" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1516" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1517" spans="1:8" x14ac:dyDescent="0.25">
@@ -46030,21 +46036,21 @@
         <v>1037</v>
       </c>
       <c r="F1517" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="G1517" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H1517" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1518" s="1">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1518" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C1518" t="s">
         <v>412</v>
@@ -46053,16 +46059,16 @@
         <v>1034</v>
       </c>
       <c r="E1518" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F1518" t="s">
-        <v>1038</v>
+        <v>329</v>
       </c>
       <c r="G1518" t="s">
         <v>13</v>
       </c>
       <c r="H1518" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1519" spans="1:8" x14ac:dyDescent="0.25">
@@ -46082,13 +46088,13 @@
         <v>1041</v>
       </c>
       <c r="F1519" t="s">
-        <v>1226</v>
+        <v>1038</v>
       </c>
       <c r="G1519" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="H1519" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1520" spans="1:8" x14ac:dyDescent="0.25">
@@ -46108,13 +46114,13 @@
         <v>1041</v>
       </c>
       <c r="F1520" t="s">
-        <v>21</v>
+        <v>1226</v>
       </c>
       <c r="G1520" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="H1520" t="s">
-        <v>512</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1521" spans="1:8" x14ac:dyDescent="0.25">
@@ -46134,13 +46140,13 @@
         <v>1041</v>
       </c>
       <c r="F1521" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G1521" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="H1521" t="s">
-        <v>46</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1522" spans="1:8" x14ac:dyDescent="0.25">
@@ -46160,10 +46166,10 @@
         <v>1041</v>
       </c>
       <c r="F1522" t="s">
-        <v>1005</v>
+        <v>111</v>
       </c>
       <c r="G1522" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="H1522" t="s">
         <v>46</v>
@@ -46186,13 +46192,13 @@
         <v>1041</v>
       </c>
       <c r="F1523" t="s">
-        <v>120</v>
+        <v>1005</v>
       </c>
       <c r="G1523" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="H1523" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1524" spans="1:8" x14ac:dyDescent="0.25">
@@ -46212,10 +46218,10 @@
         <v>1041</v>
       </c>
       <c r="F1524" t="s">
-        <v>1039</v>
+        <v>120</v>
       </c>
       <c r="G1524" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1524" t="s">
         <v>149</v>
@@ -46238,13 +46244,13 @@
         <v>1041</v>
       </c>
       <c r="F1525" t="s">
-        <v>122</v>
+        <v>1039</v>
       </c>
       <c r="G1525" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1525" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1526" spans="1:8" x14ac:dyDescent="0.25">
@@ -46264,10 +46270,10 @@
         <v>1041</v>
       </c>
       <c r="F1526" t="s">
-        <v>1174</v>
+        <v>122</v>
       </c>
       <c r="G1526" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="H1526" t="s">
         <v>46</v>
@@ -46290,13 +46296,13 @@
         <v>1041</v>
       </c>
       <c r="F1527" t="s">
-        <v>381</v>
+        <v>1174</v>
       </c>
       <c r="G1527" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="H1527" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1528" spans="1:8" x14ac:dyDescent="0.25">
@@ -46316,13 +46322,13 @@
         <v>1041</v>
       </c>
       <c r="F1528" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G1528" t="s">
-        <v>67</v>
+        <v>376</v>
       </c>
       <c r="H1528" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1529" spans="1:8" x14ac:dyDescent="0.25">
@@ -46342,13 +46348,13 @@
         <v>1041</v>
       </c>
       <c r="F1529" t="s">
-        <v>1036</v>
+        <v>180</v>
       </c>
       <c r="G1529" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="H1529" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1530" spans="1:8" x14ac:dyDescent="0.25">
@@ -46368,13 +46374,13 @@
         <v>1041</v>
       </c>
       <c r="F1530" t="s">
-        <v>184</v>
+        <v>1036</v>
       </c>
       <c r="G1530" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H1530" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1531" spans="1:8" x14ac:dyDescent="0.25">
@@ -46394,7 +46400,7 @@
         <v>1041</v>
       </c>
       <c r="F1531" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="G1531" t="s">
         <v>76</v>
@@ -46420,7 +46426,7 @@
         <v>1041</v>
       </c>
       <c r="F1532" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="G1532" t="s">
         <v>76</v>
@@ -46446,13 +46452,13 @@
         <v>1041</v>
       </c>
       <c r="F1533" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="G1533" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H1533" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1534" spans="1:8" x14ac:dyDescent="0.25">
@@ -46472,13 +46478,13 @@
         <v>1041</v>
       </c>
       <c r="F1534" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="G1534" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1534" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1535" spans="1:8" x14ac:dyDescent="0.25">
@@ -46498,10 +46504,10 @@
         <v>1041</v>
       </c>
       <c r="F1535" t="s">
-        <v>329</v>
+        <v>68</v>
       </c>
       <c r="G1535" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H1535" t="s">
         <v>46</v>
@@ -46509,10 +46515,10 @@
     </row>
     <row r="1536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1536" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C1536" t="s">
         <v>412</v>
@@ -46521,16 +46527,16 @@
         <v>1034</v>
       </c>
       <c r="E1536" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F1536" t="s">
-        <v>1038</v>
+        <v>329</v>
       </c>
       <c r="G1536" t="s">
         <v>13</v>
       </c>
       <c r="H1536" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1537" spans="1:8" x14ac:dyDescent="0.25">
@@ -46550,13 +46556,13 @@
         <v>1042</v>
       </c>
       <c r="F1537" t="s">
-        <v>120</v>
+        <v>1038</v>
       </c>
       <c r="G1537" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H1537" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1538" spans="1:8" x14ac:dyDescent="0.25">
@@ -46576,13 +46582,13 @@
         <v>1042</v>
       </c>
       <c r="F1538" t="s">
-        <v>428</v>
+        <v>120</v>
       </c>
       <c r="G1538" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="H1538" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1539" spans="1:8" x14ac:dyDescent="0.25">
@@ -46602,21 +46608,21 @@
         <v>1042</v>
       </c>
       <c r="F1539" t="s">
-        <v>1036</v>
+        <v>428</v>
       </c>
       <c r="G1539" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="H1539" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1540" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C1540" t="s">
         <v>412</v>
@@ -46625,16 +46631,16 @@
         <v>1034</v>
       </c>
       <c r="E1540" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F1540" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G1540" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H1540" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1541" spans="1:8" x14ac:dyDescent="0.25">
@@ -46654,13 +46660,13 @@
         <v>1043</v>
       </c>
       <c r="F1541" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="G1541" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1541" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1542" spans="1:8" x14ac:dyDescent="0.25">
@@ -46680,13 +46686,13 @@
         <v>1043</v>
       </c>
       <c r="F1542" t="s">
-        <v>117</v>
+        <v>1005</v>
       </c>
       <c r="G1542" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H1542" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1543" spans="1:8" x14ac:dyDescent="0.25">
@@ -46706,13 +46712,13 @@
         <v>1043</v>
       </c>
       <c r="F1543" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G1543" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H1543" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1544" spans="1:8" x14ac:dyDescent="0.25">
@@ -46732,10 +46738,10 @@
         <v>1043</v>
       </c>
       <c r="F1544" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="G1544" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1544" t="s">
         <v>46</v>
@@ -46743,25 +46749,25 @@
     </row>
     <row r="1545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1545" s="1">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C1545" t="s">
         <v>412</v>
       </c>
       <c r="D1545" s="5" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E1545" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F1545" t="s">
-        <v>1226</v>
+        <v>180</v>
       </c>
       <c r="G1545" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="H1545" t="s">
         <v>46</v>
@@ -46784,13 +46790,13 @@
         <v>1044</v>
       </c>
       <c r="F1546" t="s">
-        <v>311</v>
+        <v>1226</v>
       </c>
       <c r="G1546" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="H1546" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1547" spans="1:8" x14ac:dyDescent="0.25">
@@ -46810,13 +46816,13 @@
         <v>1044</v>
       </c>
       <c r="F1547" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="G1547" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H1547" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1548" spans="1:8" x14ac:dyDescent="0.25">
@@ -46836,13 +46842,13 @@
         <v>1044</v>
       </c>
       <c r="F1548" t="s">
-        <v>471</v>
+        <v>117</v>
       </c>
       <c r="G1548" t="s">
-        <v>459</v>
+        <v>13</v>
       </c>
       <c r="H1548" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1549" spans="1:8" x14ac:dyDescent="0.25">
@@ -46862,13 +46868,13 @@
         <v>1044</v>
       </c>
       <c r="F1549" t="s">
-        <v>1227</v>
+        <v>471</v>
       </c>
       <c r="G1549" t="s">
-        <v>66</v>
+        <v>459</v>
       </c>
       <c r="H1549" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1550" spans="1:8" x14ac:dyDescent="0.25">
@@ -46888,13 +46894,13 @@
         <v>1044</v>
       </c>
       <c r="F1550" t="s">
-        <v>1123</v>
+        <v>1227</v>
       </c>
       <c r="G1550" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H1550" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1551" spans="1:8" x14ac:dyDescent="0.25">
@@ -46914,13 +46920,13 @@
         <v>1044</v>
       </c>
       <c r="F1551" t="s">
-        <v>1036</v>
+        <v>1123</v>
       </c>
       <c r="G1551" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="H1551" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1552" spans="1:8" x14ac:dyDescent="0.25">
@@ -46940,13 +46946,13 @@
         <v>1044</v>
       </c>
       <c r="F1552" t="s">
-        <v>183</v>
+        <v>1036</v>
       </c>
       <c r="G1552" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="H1552" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1553" spans="1:8" x14ac:dyDescent="0.25">
@@ -46966,10 +46972,10 @@
         <v>1044</v>
       </c>
       <c r="F1553" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="G1553" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="H1553" t="s">
         <v>46</v>
@@ -46977,25 +46983,25 @@
     </row>
     <row r="1554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
-        <v>1966</v>
+        <v>1993</v>
       </c>
       <c r="B1554" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C1554" s="6" t="s">
-        <v>411</v>
+        <v>2020</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>412</v>
       </c>
       <c r="D1554" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E1554" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F1554" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="G1554" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1554" t="s">
         <v>46</v>
@@ -47018,7 +47024,7 @@
         <v>1048</v>
       </c>
       <c r="F1555" t="s">
-        <v>1052</v>
+        <v>158</v>
       </c>
       <c r="G1555" t="s">
         <v>70</v>
@@ -47044,10 +47050,10 @@
         <v>1048</v>
       </c>
       <c r="F1556" t="s">
-        <v>601</v>
+        <v>1052</v>
       </c>
       <c r="G1556" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="H1556" t="s">
         <v>46</v>
@@ -47070,10 +47076,10 @@
         <v>1048</v>
       </c>
       <c r="F1557" t="s">
-        <v>1146</v>
+        <v>601</v>
       </c>
       <c r="G1557" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1557" t="s">
         <v>46</v>
@@ -47096,10 +47102,10 @@
         <v>1048</v>
       </c>
       <c r="F1558" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G1558" t="s">
-        <v>1151</v>
+        <v>70</v>
       </c>
       <c r="H1558" t="s">
         <v>46</v>
@@ -47122,10 +47128,10 @@
         <v>1048</v>
       </c>
       <c r="F1559" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G1559" t="s">
-        <v>70</v>
+        <v>1151</v>
       </c>
       <c r="H1559" t="s">
         <v>46</v>
@@ -47148,10 +47154,10 @@
         <v>1048</v>
       </c>
       <c r="F1560" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G1560" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1560" t="s">
         <v>46</v>
@@ -47174,10 +47180,10 @@
         <v>1048</v>
       </c>
       <c r="F1561" t="s">
-        <v>373</v>
+        <v>1149</v>
       </c>
       <c r="G1561" t="s">
-        <v>379</v>
+        <v>862</v>
       </c>
       <c r="H1561" t="s">
         <v>46</v>
@@ -47200,10 +47206,10 @@
         <v>1048</v>
       </c>
       <c r="F1562" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="G1562" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="H1562" t="s">
         <v>46</v>
@@ -47226,10 +47232,10 @@
         <v>1048</v>
       </c>
       <c r="F1563" t="s">
-        <v>1132</v>
+        <v>82</v>
       </c>
       <c r="G1563" t="s">
-        <v>1152</v>
+        <v>83</v>
       </c>
       <c r="H1563" t="s">
         <v>46</v>
@@ -47252,10 +47258,10 @@
         <v>1048</v>
       </c>
       <c r="F1564" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="G1564" t="s">
-        <v>70</v>
+        <v>1152</v>
       </c>
       <c r="H1564" t="s">
         <v>46</v>
@@ -47278,13 +47284,13 @@
         <v>1048</v>
       </c>
       <c r="F1565" t="s">
-        <v>398</v>
+        <v>1150</v>
       </c>
       <c r="G1565" t="s">
-        <v>399</v>
+        <v>70</v>
       </c>
       <c r="H1565" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1566" spans="1:8" x14ac:dyDescent="0.25">
@@ -47304,13 +47310,13 @@
         <v>1048</v>
       </c>
       <c r="F1566" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G1566" t="s">
-        <v>203</v>
+        <v>399</v>
       </c>
       <c r="H1566" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1567" spans="1:8" x14ac:dyDescent="0.25">
@@ -47330,10 +47336,10 @@
         <v>1048</v>
       </c>
       <c r="F1567" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="G1567" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="H1567" t="s">
         <v>46</v>
@@ -47356,7 +47362,7 @@
         <v>1048</v>
       </c>
       <c r="F1568" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="G1568" t="s">
         <v>70</v>
@@ -47367,28 +47373,28 @@
     </row>
     <row r="1569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1569" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B1569" s="1">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="C1569" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D1569" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1569" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F1569" t="s">
-        <v>1051</v>
+        <v>270</v>
       </c>
       <c r="G1569" t="s">
         <v>70</v>
       </c>
       <c r="H1569" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1570" spans="1:8" x14ac:dyDescent="0.25">
@@ -47408,7 +47414,7 @@
         <v>1050</v>
       </c>
       <c r="F1570" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G1570" t="s">
         <v>70</v>
@@ -47434,13 +47440,13 @@
         <v>1050</v>
       </c>
       <c r="F1571" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="G1571" t="s">
-        <v>937</v>
+        <v>70</v>
       </c>
       <c r="H1571" t="s">
-        <v>1067</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1572" spans="1:8" x14ac:dyDescent="0.25">
@@ -47460,13 +47466,13 @@
         <v>1050</v>
       </c>
       <c r="F1572" t="s">
-        <v>1149</v>
+        <v>1072</v>
       </c>
       <c r="G1572" t="s">
-        <v>862</v>
+        <v>937</v>
       </c>
       <c r="H1572" t="s">
-        <v>46</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.25">
@@ -47486,7 +47492,7 @@
         <v>1050</v>
       </c>
       <c r="F1573" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="G1573" t="s">
         <v>862</v>
@@ -47512,13 +47518,13 @@
         <v>1050</v>
       </c>
       <c r="F1574" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="G1574" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
       <c r="H1574" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1575" spans="1:8" x14ac:dyDescent="0.25">
@@ -47538,13 +47544,13 @@
         <v>1050</v>
       </c>
       <c r="F1575" t="s">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="G1575" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="H1575" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1576" spans="1:8" x14ac:dyDescent="0.25">
@@ -47564,7 +47570,7 @@
         <v>1050</v>
       </c>
       <c r="F1576" t="s">
-        <v>1159</v>
+        <v>400</v>
       </c>
       <c r="G1576" t="s">
         <v>203</v>
@@ -47590,13 +47596,13 @@
         <v>1050</v>
       </c>
       <c r="F1577" t="s">
-        <v>1053</v>
+        <v>1159</v>
       </c>
       <c r="G1577" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H1577" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1578" spans="1:8" x14ac:dyDescent="0.25">
@@ -47616,13 +47622,13 @@
         <v>1050</v>
       </c>
       <c r="F1578" t="s">
-        <v>1160</v>
+        <v>1053</v>
       </c>
       <c r="G1578" t="s">
         <v>85</v>
       </c>
       <c r="H1578" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1579" spans="1:8" x14ac:dyDescent="0.25">
@@ -47642,13 +47648,13 @@
         <v>1050</v>
       </c>
       <c r="F1579" t="s">
-        <v>503</v>
+        <v>1160</v>
       </c>
       <c r="G1579" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="H1579" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1580" spans="1:8" x14ac:dyDescent="0.25">
@@ -47668,13 +47674,13 @@
         <v>1050</v>
       </c>
       <c r="F1580" t="s">
-        <v>1167</v>
+        <v>503</v>
       </c>
       <c r="G1580" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1580" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1581" spans="1:8" x14ac:dyDescent="0.25">
@@ -47691,13 +47697,13 @@
         <v>1049</v>
       </c>
       <c r="E1581" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F1581" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G1581" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1581" t="s">
         <v>46</v>
@@ -47720,10 +47726,10 @@
         <v>1054</v>
       </c>
       <c r="F1582" t="s">
-        <v>1146</v>
+        <v>1165</v>
       </c>
       <c r="G1582" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
       <c r="H1582" t="s">
         <v>46</v>
@@ -47746,7 +47752,7 @@
         <v>1054</v>
       </c>
       <c r="F1583" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G1583" t="s">
         <v>70</v>
@@ -47772,10 +47778,10 @@
         <v>1054</v>
       </c>
       <c r="F1584" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="G1584" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="H1584" t="s">
         <v>46</v>
@@ -47798,10 +47804,10 @@
         <v>1054</v>
       </c>
       <c r="F1585" t="s">
-        <v>373</v>
+        <v>1166</v>
       </c>
       <c r="G1585" t="s">
-        <v>379</v>
+        <v>862</v>
       </c>
       <c r="H1585" t="s">
         <v>46</v>
@@ -47824,10 +47830,10 @@
         <v>1054</v>
       </c>
       <c r="F1586" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="G1586" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="H1586" t="s">
         <v>46</v>
@@ -47850,10 +47856,10 @@
         <v>1054</v>
       </c>
       <c r="F1587" t="s">
-        <v>1132</v>
+        <v>82</v>
       </c>
       <c r="G1587" t="s">
-        <v>1152</v>
+        <v>83</v>
       </c>
       <c r="H1587" t="s">
         <v>46</v>
@@ -47876,10 +47882,10 @@
         <v>1054</v>
       </c>
       <c r="F1588" t="s">
-        <v>398</v>
+        <v>1132</v>
       </c>
       <c r="G1588" t="s">
-        <v>399</v>
+        <v>1152</v>
       </c>
       <c r="H1588" t="s">
         <v>46</v>
@@ -47902,10 +47908,10 @@
         <v>1054</v>
       </c>
       <c r="F1589" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="G1589" t="s">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="H1589" t="s">
         <v>46</v>
@@ -47928,13 +47934,13 @@
         <v>1054</v>
       </c>
       <c r="F1590" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="G1590" t="s">
         <v>70</v>
       </c>
       <c r="H1590" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
@@ -47954,10 +47960,10 @@
         <v>1054</v>
       </c>
       <c r="F1591" t="s">
-        <v>503</v>
+        <v>60</v>
       </c>
       <c r="G1591" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="H1591" t="s">
         <v>151</v>
@@ -47980,10 +47986,10 @@
         <v>1054</v>
       </c>
       <c r="F1592" t="s">
-        <v>270</v>
+        <v>503</v>
       </c>
       <c r="G1592" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="H1592" t="s">
         <v>151</v>
@@ -48006,13 +48012,13 @@
         <v>1054</v>
       </c>
       <c r="F1593" t="s">
-        <v>1168</v>
+        <v>270</v>
       </c>
       <c r="G1593" t="s">
         <v>70</v>
       </c>
       <c r="H1593" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
@@ -48032,7 +48038,7 @@
         <v>1054</v>
       </c>
       <c r="F1594" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G1594" t="s">
         <v>70</v>
@@ -48042,14 +48048,40 @@
       </c>
     </row>
     <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1595" s="6"/>
-      <c r="D1595" s="5"/>
-      <c r="E1595" s="5"/>
+      <c r="A1595" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1595" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1595" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1595" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1596" s="6"/>
       <c r="D1596" s="5"/>
       <c r="E1596" s="5"/>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1597" s="6"/>
+      <c r="D1597" s="5"/>
+      <c r="E1597" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I1247">
@@ -48225,7 +48257,7 @@
       </c>
       <c r="B14">
         <f>COUNTIF(Overview!C:C,A14)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -48263,8 +48295,8 @@
   <dimension ref="A1:K242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48314,7 +48346,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F2" s="1">
         <f t="shared" ref="F2:K2" si="0">SUM(F3:F242)</f>
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
@@ -48322,7 +48354,7 @@
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
@@ -52558,7 +52590,7 @@
       </c>
       <c r="C111" s="1">
         <f>COUNTIF(Overview!G:G,B111)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
         <v>993</v>
@@ -52573,7 +52605,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="11"/>
@@ -56107,14 +56139,14 @@
       </c>
       <c r="C202" s="1">
         <f>COUNTIF(Overview!G:G,B202)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
         <v>995</v>
       </c>
       <c r="F202" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G202" s="1">
         <f t="shared" si="20"/>
